--- a/PropProAssistant/Models/PortalCompPubl/PCP_01.xlsx
+++ b/PropProAssistant/Models/PortalCompPubl/PCP_01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Número do Processo (Não edite)</t>
   </si>
@@ -64,9 +64,6 @@
     <t/>
   </si>
   <si>
-    <t>ABAIXADOR DE LÍNGUA DE MADEIRA,DESCARTÁVEL, USO ÚNICO. PACOTE COM 100 UNIDADES</t>
-  </si>
-  <si>
     <t>AGUA DESTILADA 5 LITROS,</t>
   </si>
   <si>
@@ -76,57 +73,33 @@
     <t>AGUA PARA INJEÇÃO 10ML CAIXA COM 200 UND,</t>
   </si>
   <si>
-    <t>AGUA PARA INJEÇÃO 10ML CAIXA COM 200 UNIDADES</t>
-  </si>
-  <si>
     <t>AGUA PARA INJEÇÃO 20 ML- CAIXA COM 200 UNIDADEES, MATERIAL MEDICO HOSPITALAR</t>
   </si>
   <si>
     <t>AGULHA 13X0,45 CM,</t>
   </si>
   <si>
-    <t>AGULHA 13X0,45CM</t>
-  </si>
-  <si>
     <t>AGULHA 25X0,70CM,</t>
   </si>
   <si>
-    <t>AGULHA 25X0,70CM</t>
-  </si>
-  <si>
     <t>AGULHA 40X1,20CM,</t>
   </si>
   <si>
-    <t>AGULHA 40X1,20CM</t>
-  </si>
-  <si>
     <t>AGULHA 25X0,6CM,</t>
   </si>
   <si>
-    <t>AGULHA 25X0,6CM</t>
-  </si>
-  <si>
     <t>ALCOOL EM GEL70% ANTI-SEPTICO PARA AS MAOS COM GALÃOICERINA e vitamina e, embalagem de 500 gramas</t>
   </si>
   <si>
-    <t>ÁLCOOL EM GEL 70%, ANTI-SEPTICO PARA AS MAOS; COM GLICERINA E VITAMINA E;EMBALAGEM DE 500 GRAMAS.</t>
-  </si>
-  <si>
     <t>ALCOOL ETILICO 70% DE 1 LITRO,</t>
   </si>
   <si>
-    <t>ÁLCOOL ETÍLICO 70% DE 1 LITRO</t>
-  </si>
-  <si>
     <t>ALCOOL ETILICO 96% DE 1 LITRO, DESINFETANTE HOSPITALAR PARA SUPERFICIES FIXAS</t>
   </si>
   <si>
     <t>ALGODÃO HIDROFILO - ROLO 500GRS,</t>
   </si>
   <si>
-    <t>ALGODÃO HIDRÓFILO ROLO 500 GRAMAS</t>
-  </si>
-  <si>
     <t>ALMOTOLIA 250ML MARROM Plástica e bico reto,</t>
   </si>
   <si>
@@ -142,39 +115,21 @@
     <t>AVENTAL (CAPOTE) DESCARTÁVEL MANGA LONGA COMPLÁSTICO NO PUNHO, COM CAPUZ DESCARTAVEL, CONFECCIONADO TNT (TECIDO NÃO TECIDO) EM 100% POLIPROPILENO 40G, TIRAS NA CINTURA E PESCOÇO, COMPRIMENTO DE 115CM, LARGURA DE 70CMS, MATERIAL DE ALTA RESISTÊNCIA E MALEÁVEL, PROPORCIONANDO MAIS CONFORTO AO USUÁRIO, PRODUTO NÃO ESTÉRIL, UNIDADE COM 10 UNIDADEES</t>
   </si>
   <si>
-    <t>AVENTAL (CAPOTE) DESCARTÁVEL MANGA LONGA COMPLÁSTICO NO PUNHO, COM CAPUZ DESCARTAVEL, CONFECCIONADO TNT (TECIDO NÃO TECIDO) EM 100% POLIPROPILENO; 40G, TIRAS NA CINTURA E PESCOÇO, COMPRIMENTO DE 115CM, * LARGURA DE 70CMS, MATERIAL DE ALTA RESISTÊNCIA E MALEÁVEL, PROPORCIONANDO MAIS CONFORTO AO USUÁRIO, PRODUTO NÃO ESTÉRIL. PACOTECOM 10 UNIDADES</t>
-  </si>
-  <si>
     <t>ATADURA CREPON 08CM X4,5MT 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
   </si>
   <si>
-    <t>ATADURA CREPOM 08CM X 4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE ATADURA DE CREPOM, 100% ALGODÃO CRU, FIOS DE ALTA TORÇÃO, COM ALTA RESISTÊNCIA, POSSUINDO BASTANTE ELASTICIDADE NO SENTIDO LONGITUDINAL, COMPRIMENTO DA EMBALAGEM EM REPOUSO, ENROLADA EM SI MESMA, COM FIO RETORCIDO OU SINGELO, NÃO ESTÉRIL, ATÓXICA, APARÊNCIA UNIFORME, SEM EMENDAS. PACOTE COM 12UNIDADES</t>
-  </si>
-  <si>
     <t>ATADURA CREPOM 10CM X 4,5 MT 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 fios</t>
   </si>
   <si>
-    <t>ATADURA CREPOM 10CM X 4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE. ATADURA DE CREPOM, 100% ALGODÃO CRU, FIOS DE ALTA TORÇÃO, COM ALTA RESISTÊNCIA, POSSUINDO BASTANTE ELASTICIDADE NO SENTIDO LONGITUDINAL, COMPRIMENTO DA EMBALAGEM EM REPOUSO, ENROLADA EM SI MESMA, COM FIO RETORCIDO OU SINGELO, NÃO ESTÉRIL, ATÓXICA, APARÊNCIA UNIFORME, SEM EMENDAS. PACOTE COM 12UNIDADES</t>
-  </si>
-  <si>
     <t>ATADURA CREPON 12CM X4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
   </si>
   <si>
-    <t>ATADURA CREPOM 12CM X 4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE. ATADURA DE CREPOM, 100% ALGODÃO CRU, FIOS DE ALTA TORÇÃO, COM ALTA RESISTÊNCIA, POSSUINDO BASTANTE ELASTICIDADE NO SENTIDO LONGITUDINAL, COMPRIMENTO DA EMBALAGEM EM REPOUSO, ENROLADA EM SI MESMA, COM FIO RETORCIDO OU SINGELO, NÃO ESTÉRIL, ATÓXICA, APARÊNCIAUNIFORME, SEM EMENDAS. PACOTE COM 12 UNIDADES</t>
-  </si>
-  <si>
     <t>ATADURA CREPON 15CM X 4,5MT 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
   </si>
   <si>
-    <t>ATADURA CREPOM 15CM X 4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE. ATADURA DE CREPOM, 100% ALGODÃO CRU, FIOS DE ALTA TORÇÃO, COM ALTA RESISTÊNCIA, POSSUINDO BASTANTE ELASTICIDADE NO SENTIDO LONGITUDINAL, COMPRIMENTO DA EMBALAGEM EM REPOUSO, ENROLADA EM SI MESMA, COM FIO RETORCIDO OU SINGELO, NÃO ESTÉRIL, ATÓXICA, APARÊNCIA UNIFORME, SEM EMENDAS. PACOTE COM 12UNIDADES</t>
-  </si>
-  <si>
     <t>ATADURA CREPON 20 CM X 4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
   </si>
   <si>
-    <t>ATADURA CREPOM 20CM X 4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE. ATADURA DE CREPOM, 100% ALGODÃO CRU, FIOS DE ALTA TORÇÃO, COM ALTA RESISTÊNCIA, POSSUINDO BASTANTE ELASTICIDADE NO SENTIDO LONGITUDINAL, COMPRIMENTO DA EMBALAGEM EM REPOUSO, ENROLADA EM SI MESMA, COM FIO RETORCIDO OU SINGELO, NÃO ESTÉRIL, ATÓXICA, APARÊNCIA UNIFORME, SEM EMENDAS. PACOTE COM 12UNIDADES</t>
-  </si>
-  <si>
     <t>BOLSA COLETORA ESTERIL DE FEZES, Bolsa de Colostomia drenável recortável com barreira protetora de pele é um dispositivo de uma peça, composto de uma bolsa drenável, um disco protetor de pele Stomahesive e um suporte adesivo flexível, Tela perfurada fixada à face posterior da bolsa, aumentando o conforto quando a bolsa toca a pele, Suporte adesivo flexível, que elimina a necessidade de utilizar adesivos cirúrgicos, Bolsa de plástico macio, silencioso e à prova de odores,</t>
   </si>
   <si>
@@ -187,57 +142,33 @@
     <t>BALANÇA DIGITAL para banheiro , suporta ate 180 kg com 04 sensores de alta com visor lcd grande, balança de controle corporal alimentação por bateria cr2032 garantia de 12 meses</t>
   </si>
   <si>
-    <t>BALANÇA DIGITAL PARA BANHEIRO, SUPORTA ATE 180KL, COM 4 SENSORES DE ALTA, COM VISOR LCD GRANDE; BALANÇA DE CONTROLECORPORAL, ALIMENTAÇÃO POR BATERIA CR2032, GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
     <t>CAIXA TERMICA PARA USO DE VACINA, CAPACIDADE DE NO MINIMO 12L COM TERMOMETRO DIGITALALIMENTAÇÃO POR 2X LR 44 BATERIA, BOTÃO FAIXA DE TEMPERATURA-50~+110°C - GARANTIA DE 12 MESES</t>
   </si>
   <si>
     <t>CATETER JELCO Nº14, Cateter jelco de teflon, estéril, descartável, flexível, nº 14, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
   </si>
   <si>
-    <t>CATETER JELCO Nº14 CATETER JELCO DE TEFLON, ESTÉRIL, DESCARTÁVEL, FLEXÍVEL, Nº 14, EMBALAGEM INDIVIDUAL, PAPEL GRAUCIRÚRGICO E FILME TERMOPLÁSTICO, ABERTURA EM PÉTALA.</t>
-  </si>
-  <si>
     <t>CATETER JELCO Nº16, Cateter jelco de teflon, estéril, descartável, flexível, nº 16, embalagem individual, papel grau cirúrgico e filme termoplástico, 0,61 abertura em pétala,</t>
   </si>
   <si>
-    <t>CATETER JELCO Nº16CATETER JELCO DE TEFLON, ESTÉRIL, DESCARTÁVEL, FLEXÍVEL, Nº 16, EMBALAGEM INDIVIDUAL, PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,0,61 ABERTURA EM PÉTALA.</t>
-  </si>
-  <si>
     <t>CATETER JELCO Nº18, Cateter jelco de teflon, estéril, descartável, flexível, nº 18, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
   </si>
   <si>
-    <t>CATETER JELCO Nº18 CATETER JELCO DE TEFLON, ESTÉRIL, DESCARTÁVEL, FLEXÍVEL, Nº 18, EMBALAGEM INDIVIDUAL, PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,ABERTURA EM PÉTALA.</t>
-  </si>
-  <si>
     <t>CATETER JELCO Nº 20, Cateter jelco de teflon, estéril, descartável, flexível, nº 20, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
   </si>
   <si>
-    <t>CATETER JELCO Nº20CATETER JELCO DE TEFLON, ESTÉRIL, DESCARTÁVEL, FLEXÍVEL, Nº 20, EMBALAGEMINDIVIDUAL, PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO, ABERTURA EM PÉTALA.</t>
-  </si>
-  <si>
     <t>CATETER JELCO Nº 22, Cateter jelco de teflon, estéril, descartável, flexível, nº 22, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
   </si>
   <si>
-    <t>CATETER JELCO Nº22 CATETER JELCO DE TEFLON, ESTÉRIL, DESCARTÁVEL, FLEXÍVEL, Nº 22, EMBALAGEM INDIVIDUAL, PAPEL GRAUCIRÚRGICO E FILME TERMOPLÁSTICO, ABERTURA EM PÉTALA.</t>
-  </si>
-  <si>
     <t>CATETER JELCO Nº 24, Cateter jelco de teflon, estéril, descartável, flexível, nº 24, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
   </si>
   <si>
-    <t>CATETER JELCO Nº24 CATETER JELCO DE TEFLON, ESTÉRIL, DESCARTÁVEL, FLEXÍVEL, Nº 24, EMBALAGEM INDIVIDUAL, PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,ABERTURA EM PÉTALA.</t>
-  </si>
-  <si>
     <t>CATETER TIPO OCULOS P/ OXIGENIO, Cateter nasal, tipo óculos, estéril, descartável, com extensão de aproximadamente 2,1mt em PVC, flexível, com ajuste e adaptação confortável no paciente, sendo que o conector da cavidade nasal deverá ser composto por PVC de alta qualidade, flexível, que não cause ferimentos no paciente, embalagem individual, em papel grau cirúrgico e filme plástico nº12, 3,85</t>
   </si>
   <si>
     <t>COLETOR DE FEZES COMUM, COM PAR, EMBALAGEM DE 80ML, ESTERIL E DESCARTAVEL,</t>
   </si>
   <si>
-    <t>COLETOR DE FEZES COMUM, COM PAR, EMBALAGEM DE 80ML, ESTERIL EDESCARTAVEL</t>
-  </si>
-  <si>
     <t>COLETOR DE URINA COMUM, EMBALAGEM DE 80ML, ESTERIL E DESCARTAVEL, SEM PAR,</t>
   </si>
   <si>
@@ -247,21 +178,12 @@
     <t>COLETOR PARA MATERIAL PERFURO CORTANTE 13 LT, Confeccionado em papel incinerável, cor amarela, revestido internamente com produto impermeabilizante que evita umidade e vazamento, acompanhado de saco plástico ou não, com instruções de montagem e uso impressas externamente, cinta em material resistente à perfurações, alça para transporte fixa ao coletor, tampa fixa ao coletor, bocal com abertura que facilite o descarte de material e linha que apresente o limite máximo de enchimento, Fabricado de acordo com a NR 32 (MTE), constando externamente a simbologia de material infectante conforme NBR 7500, Deve atender as normas NBR 13853,</t>
   </si>
   <si>
-    <t>COLETOR P/ MATERIAL PERFURO CORTANTE 13 LITROSCONFECCIONADO EM PAPEL INCINERÁVEL, COR AMARELA, REVESTIDO INTERNAMENTE COM PRODUTO IMPERMEABILIZANTE QUE EVITA UMIDADE E VAZAMENTO, ACOMPANHADO DE SACO PLÁSTICO OU NÃO, COM INSTRUÇÕES DE MONTAGEM E USO IMPRESSAS EXTERNAMENTE, CINTA EM MATERIAL RESISTENTE À PERFURAÇÕES, ALÇA PARA TRANSPORTE FIXA AO COLETOR, TAMPA FIXA AO COLETOR, BOCAL COM ABERTURA QUE FACILITE O DESCARTE DE MATERIAL E LINHA QUE APRESENTE O LIMITE MÁXIMO DE ENCHIMENTO. FABRICADO DE ACORDO COM A NR 32 (MTE), CONSTANDO EXTERNAMENTE A SIMBOLOGIA DE MATERIAL INFECTANTE CONFORME NBR 7500. DEVEATENDER AS NORMAS NBR 13853.</t>
-  </si>
-  <si>
     <t>COMPRESSA DE GASE 7,5 CM X 7,5 CM 13 FIOS, Compressa de gaze hidrófila, em algodão puro e branco, sem falhas ou fiapos soltos, 13 fios por cm quadrado, dobras uniformes e perfeitas, variando de 5 a 8 dobras, com filamento radiopaco, com formato quadrado, confeccionada em fios 100% algodão - UNIDADE com 500 COMPRESSAS,</t>
   </si>
   <si>
-    <t>COMPRESSA DE GAZE 7,5CM X 7,5CM, 13 FIOS COMPRESSA DE GAZE HIDRÓFILA, EM ALGODÃO PURO E BRANCO, SEM FALHAS OU FIAPOS SOLTOS, 13 FIOS POR CM QUADRADO, DOBRAS UNIFORMES E PERFEITAS, VARIANDO DE 5 A 8 DOBRAS, COM FILAMENTO RADIOPACO, COM FORMATO QUADRADO,CONFECCIONADA EM FIOS 100% ALGODÃO. PACOTE COM 500 UNIDADES</t>
-  </si>
-  <si>
     <t>COMPRESSA DE GASE 7,5CM X 7,5CM 9 FIOS, Compressa de gaze hidrófila, em algodão puro e branco, sem falhas ou fiapos soltos, 9 fios por cm quadrado, dobras uniformes e perfeitas, variando de 5 a 8 dobras, com filamento radiopaco, com formato quadrado, confeccionada em fios 100% algodão UNIDADE com 500 COMPRESSAS,</t>
   </si>
   <si>
-    <t>COMPRESSA DE GAZE 7,5CM X 7,5CM, 9 FIOS COMPRESSA DE GAZE HIDRÓFILA, EM ALGODÃO PURO E BRANCO, SEM FALHAS OU FIAPOS SOLTOS, 9 FIOS POR CM QUADRADO, DOBRAS UNIFORMES E PERFEITAS, VARIANDO DE 5 A 8 DOBRAS, COM FILAMENTO RADIOPACO, COM FORMATO QUADRADO,CONFECCIONADA EM FIOS 100% ALGODÃO. PACOTE COM 500 UNIDADES</t>
-  </si>
-  <si>
     <t>DISPOSITIVO PARA INCONTINÊNCIA URINARIA MASCULINO TAMANHO G COM EXTENSÃO, em látex atóxico puro em forma de preservativo com extremidade, afunilada e reforçado com tubo condutor, com registro no ministério da saúde,</t>
   </si>
   <si>
@@ -277,33 +199,21 @@
     <t>EQUIPO MACRO GOTAS COM INJETOR LATERAL, PARA INFUSÕES ENDOVENOSAS DE USO ÚNICO, ESTÉRIL E APIROGÊNICA, PROJETADA DE FORMA A GARANTIR UMA PERFEITA ADAPTAÇÃO E FUNCIONALIDADE EM RECIPIENTES DE SOLUÇÃO PARENTAL EM TODAS AS VARIAÇÕES EMBALADO INDIVIDUALMENTE EM BLISTER DE FILME PLÁSTICO TERMOFORMÁVEL E PAPEL GRAU CIRÚRGICO, PONTA PERFURANTE DE ACORDO COM AS NORMAS NACIONAIS E INTERNACIONAIS, COM PROJETOR, TUBO DE PVC ATÓXICO E TRANSPARENTE, CÂMARA DE GOTEJAMENTO FLEXÍVEL TRANSPARENTE, COM ENTRADA DE AR, ESTERILIZADO A ÓXIDO DE ETILENO</t>
   </si>
   <si>
-    <t>EQUIPO MACRO GOTAS COM INJETOR LATERAL, PARA INFUSÕES ENDOVENOSAS DE USO ÚNICO, ESTÉRIL E APIROGÊNICA, PROJETADA DE FORMA A GARANTIR UMA PERFEITA ADAPTAÇÃO E FUNCIONALIDADE EM RECIPIENTES DE SOLUÇÃO PARENTAL EM TODAS AS VARIAÇÕES. EMBALADO INDIVIDUALMENTE EM BLISTER DE FILME PLÁSTICO TERMOFORMÁVEL E PAPEL GRAU CIRÚRGICO, PONTA PERFURANTE DE ACORDO COM AS NORMAS NACIONAIS E INTERNACIONAIS, COM PROJETOR, TUBO DE PVC ATÓXICO E TRANSPARENTE, CÂMARA DE GOTEJAMENTO FLEXÍVEL TRANSPARENTE,COM ENTRADA DE AR, ESTERILIZADO A ÓXIDO DE ETILENO.</t>
-  </si>
-  <si>
     <t>EQUIPO MICRO GOTAS COM INJETOR FOTOSSENSÍVEL, Equipo micro gotas com lanceta perfurante para conexão ao recipiente de solução, injetor lateral, sem látex, tubo de PVC de 1,5mt, atóxico e fotossensível, produto foto-protetor, de cor âmbar ou alaranjada, com um protetor plástico da mesma cor para envolver a medicação contra a luz, ele é indicado para a infusão de medicamentos, sensíveis a luz, os mesmos sofrem alterações em suas propriedades originais sob a ação, dos raios ultra violetas da luz, possui ponta perfurante que se adapta com facilidade a qualquer frasco/ampola/bolsa, com câmara de micro gotejamento flexível, contém injetor lateral e filtro partícula, entrada de ar hidrofóbica acompanha capa para frascos que contenham soluções fotossensíveis, Esterilizado pelo processo de óxido de etileno, Acondicionado individualmente em saco tipo blíster e em papel grau cirúrgico com abertura asséptica,</t>
   </si>
   <si>
     <t>EQUIPO MICRO GOTAS, com lanceta perfurante para conexão ao recipiente de solução, injetor lateral, sem látex, tubo de PVC de 1,5mt, atóxico e transparente, controlador de fluxo (gotejamento) tipo pinça rolete em polietileno, conexão luer lock para dispositivo de acesso venoso, câmara gotejadora flexível transparente sem entrada de ar, filtro de partículas de 15 micras, acondicionado individualmente em saco tipo blíster e em papel grau cirúrgico com abertura asséptica</t>
   </si>
   <si>
-    <t>EQUIPO MICRO GOTAS COM LANCETA PERFURANTE PARA CONEXÃO AO RECIPIENTE DE SOLUÇÃO, INJETOR LATERAL, SEM LÁTEX, TUBO DE PVC DE 1,5MT, ATÓXICO E TRANSPARENTE, CONTROLADOR DE FLUXO (GOTEJAMENTO) TIPO PINÇA ROLETE EM POLIETILENO, CONEXÃO LUER LOCK PARA DISPOSITIVO DE ACESSO VENOSO, CÂMARA GOTEJADORA FLEXÍVEL TRANSPARENTE SEM ENTRADA DE AR, FILTRO DE PARTÍCULAS DE15 MICRAS, ACONDICIONADO INDIVIDUALMENTE EM SACO TIPO BLÍSTER EEM PAPEL GRAU CIRÚRGICO COM ABERTURA ASSÉPTICA.</t>
-  </si>
-  <si>
     <t>EQUIPO DE NUTRIÇÃO ENTERAL, DESENVOLVIDO PARA ENTREMEAR A LIGAÇÃO DA SONDA DE ALIMENTAÇÃO ENTERAL (LIGADA AO PACIENTE) AO RECIPIENTE DE SOLUÇÕES (FRASCO OU BOLSA) QUE CONTEM O ALIMENTO A SER MINISTRADO, ESTERIL, FABRICADO EM PVC FLEXIVEL, POSSUI PONTA PERFURANTE COM TAMPA PROTETORA, CAMARA DE GOTEJAMENTO, VIABILIZA O CONTROLE DE FLUXO DE SOLUÇÕES, UMA VEZ QUE, POSSUI PINÇA ROLETE QUE GARANTE PRECISÃO NO CONTROLE DE GOTEJAMENTO, TUBO DISPONIVEL NA COR AZUL QUE EVITA A CONEXÃO ACIDENTAL COM O ACESSO VENOSO, CONECTOR TTIPO LUER SLIP ATOXICO E APIROGENICO, DESCARTAVEL E DE USO UNICO</t>
   </si>
   <si>
-    <t>EQUIPO DE NUTRIÇÃO ENTERAL, DESENVOLVIDO PARA ENTREMEAR A LIGAÇÃO DA SONDA DE ALIMENTAÇÃO ENTERAL (LIGADA AO PACIENTE) AO RECIPIENTE DE SOLUÇÕES (FRASCO OU BOLSA), QUE CONTÉM O ALIMENTO À SER MINISTRADO,ESTÉRIL; FABRICADO EM PVC FLEXÍVEL; POSSUI PONTA PERFURANTE COM TAMPA PROTETORA, CÂMARA DE GOTEJAMENTO; VIABILIZA O CONTROLE DE FLUXO DE SOLUÇÕES, UMA VEZ QUE, POSSUI PINÇA ROLETE QUE GARANTE PRECISÃO NO CONTROLE DE GOTEJAMENTO; TUBO DISPONÍVEL NA COR AZUL, QUE EVITA A CONEXÃO ACIDENTAL COM O ACESSO VENOSO; CONECTOR TIPO LUER SLIP; ATÓXICO E APIROGÊNICO; DESCARTÁVEL E DE USO ÚNICO</t>
-  </si>
-  <si>
     <t>ESFIGMOMANÔMETRO ADULTO COM BRAÇADEIRA EM METAL COMPLETO, COMPOSTO DE MANÔMETRO MECÂNICO TIPO RELÓGIO, COM MOSTRADOR GRADUADO EM MMHG, BRAÇADEIRA COM FECHO DE VELCRO, CONFECCIONADA EM LONA DE ALGODÃO, RESISTENTE, FLEXÍVEL E SE MOLDA FACILMENTE AO BRAÇO, MANGUITO E PERA FABRICADOS SEM EMENDAS DE SUBPECAS, COM BORRACHA ESPECIAL, QUE RECEBE TRATAMENTO TÉRMICO, RECOZIMENTO E POLIMENTO, APRESENTAM RESISTÊNCIA E PERFEITA VEDAÇÃO, ACONDICIONADA EM BOLSA APROPRIADA, EMBALAGEM INDIVIDUAL</t>
   </si>
   <si>
     <t>ESPARADRAPO IMPERMEÁVEL 10CM X 4,5M, com capa, em rolo, composição: fabricado em tecido 100% algodão, com uma camada de impermeabilização em uma das faces e uma camada adesiva a base de óxido e zinco, borracha natural e resinas, na outra face apresentando bobinado em carretel plástico, com a identificação do produto, marca e nome do fabricante,</t>
   </si>
   <si>
-    <t>ESPARADRAPO IMPERMEÁVEL 10CM X 4,5M, COM CAPA, EM ROLO, COMPOSIÇÃO: FABRICADO EM TECIDO 100% ALGODÃO, COM UMA CAMADA DE IMPERMEABILIZAÇÃO EM UMA DAS FACES E UMA CAMADA ADESIVA A BASE DE ÓXIDO E ZINCO, BORRACHA NATURAL E RESINAS, NA OUTRA FACE APRESENTANDO BOBINADO EM CARRETEL PLÁSTICO, COM A IDENTIFICAÇÃO DOPRODUTO, MARCA E NOME DO FABRICANTE.</t>
-  </si>
-  <si>
     <t>ESPÉCULO VAGINAL TAMANHO P, KIT P/ EXAME PREVENÇÃO COLO UTERINO – EMBALAGEM COM 01 ESPECULO DESCARTÁVEL E ESTÉRIL, PAR DE LUVAS ESTÉRIL, LAMÍNA, ESPÁTULA DE AIRES E ESCOVA PARA PROCEDIMENTO GINECOLÓGICO</t>
   </si>
   <si>
@@ -316,15 +226,9 @@
     <t>FITA ADESIVA BRANCA HOSPITALAR, CONFECCIONADA COM DORSO PAPEL CREPE 19MM X 50M,</t>
   </si>
   <si>
-    <t>FITA ADESIVA BRANCA HOSPITALAR, CONFECCIONADA COM DORSO DE PAPELCREPE 19MM X 50M</t>
-  </si>
-  <si>
     <t>FITA ADESIVA INDICADORA PARA AUTOCLAVE 19MM X 30M, RESISTENTE À ALTA TEMPERATURA, NA COR BRANCA</t>
   </si>
   <si>
-    <t>FITA ADESIVA INDICADORA PARA AUTOCLAVE 19MM X 30M, RESISTENTE À ALTATEMPERATURA, NA COR BRANCA.</t>
-  </si>
-  <si>
     <t>FITA CIRÚRGICA MICROPORE 25MM X 10M, TECIDO À BASE DE VISCOSE COM ADESIVO</t>
   </si>
   <si>
@@ -337,9 +241,6 @@
     <t>IODOPOLIVIDONA DEGERMANTE 10% C/ 1 LITRO,</t>
   </si>
   <si>
-    <t>IODOPOLIVIDONA DEGERMANTE 10% C/ 1LITRO</t>
-  </si>
-  <si>
     <t>IODOPOLIVIDONA TÓPICO 10% C/ 1 LITRO,</t>
   </si>
   <si>
@@ -370,63 +271,33 @@
     <t>LANCETA ESTÉRIL E DESCARTAVÉL SIMPLES PARA PUNÇÃO DIGITAL EM DIABÉTICOS, CAIXA COM 100 UNIDADEES</t>
   </si>
   <si>
-    <t>LANCETA ESTÉRIL E DESCARTÁVEL SIMPLES PARA PUNÇÃO DIGITAL EM DIABÉTICOS.CAIXA COM 100 UNIDADES</t>
-  </si>
-  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 6,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
-    <t>LUVA CIRÚRGICA ESTÉRIL Nº 6,5 (PAR) UND, EM LÁTEX NATURAL, COM TEXTURA UNIFORME, SEM FALHAS, LUBRIFICADA, COM ALTA SENSIBILIDADE TÁTIL, BOA ELASTICIDADE E RESISTÊNCIA, COM ACABAMENTO NO PUNHO DE FORMATO ANATÔMICO, PERFEITA ADAPTAÇÃO.EMBALADA O PAR E ENVELOPADA.</t>
-  </si>
-  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 7,0 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
-    <t>LUVA CIRÚRGICA ESTÉRIL Nº 7.0 (PAR) UND, EM LÁTEX NATURAL, COM TEXTURA UNIFORME, SEM FALHAS, LUBRIFICADA, COM ALTA SENSIBILIDADE TÁTIL, BOA ELASTICIDADE E RESISTÊNCIA, COM ACABAMENTO NO PUNHO DE FORMATO ANATÔMICO, PERFEITA ADAPTAÇÃO.EMBALADA O PAR E ENVELOPADA.</t>
-  </si>
-  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 7,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
-    <t>LUVA CIRÚRGICA ESTÉRIL Nº 7.5 (PAR) UND, EM LÁTEX NATURAL, COM TEXTURA UNIFORME, SEM FALHAS, LUBRIFICADA, COM ALTA SENSIBILIDADE TÁTIL, BOA ELASTICIDADE E RESISTÊNCIA, COM ACABAMENTO NO PUNHO DE FORMATOANATÔMICO, PERFEITA ADAPTAÇÃO. EMBALADA O PAR E ENVELOPADA.</t>
-  </si>
-  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 8,0 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
-    <t>LUVA CIRÚRGICA ESTÉRIL Nº 8.0 (PAR) UND, EM LÁTEX NATURAL, COM TEXTURA UNIFORME, SEM FALHAS, LUBRIFICADA, COM ALTA SENSIBILIDADE TÁTIL, BOA ELASTICIDADE E RESISTÊNCIA, COM ACABAMENTO NO PUNHO DE FORMATOANATÔMICO, PERFEITAADAPTAÇÃO. EMBALADA O PAR E ENVELOPADA.</t>
-  </si>
-  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 8,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
-    <t>LUVA CIRÚRGICA ESTÉRIL Nº 8.5 (PAR), UND EM LÁTEX NATURAL, COM TEXTURA UNIFORME, SEM FALHAS, LUBRIFICADA, COM ALTA SENSIBILIDADE TÁTIL, BOA ELASTICIDADE E RESISTÊNCIA, COM ACABAMENTO NO PUNHO DE FORMATOANATÔMICO, PERFEITA ADAPTAÇÃO. EMBALADA O PAR E ENVELOPADA.</t>
-  </si>
-  <si>
     <t>LUVA DE PROCEDIMENTO TAMANHO G, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL - caixa com 100 UNIDADEes</t>
   </si>
   <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO G, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTÉRIL COM PÓBIOABSORVÍVEL. CAIXA COM 100 UNIDADE</t>
-  </si>
-  <si>
     <t>LUVA DE PROCEDIMENTO TAMANHO M, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL - caixa com 100 UNIDADEes</t>
   </si>
   <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO M, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA,AMBIDESTRA, NÃO ESTÉRIL COM PÓ BIOABSORVÍVEL. CAIXA COM 100 UNIDADE</t>
-  </si>
-  <si>
     <t>LUVA DE PROCEDIMENTO TAMANHO P, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL caixa com 100 UNIDADEes</t>
   </si>
   <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO P, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTÉRIL COM PÓBIOABSORVÍVEL. CAIXA COM 100 UNIDADE</t>
-  </si>
-  <si>
     <t>LUVA DE PROCEDIMENTO TAMANHO PP, LATEX DE BORRACHA NATURAL, SUPERFICIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL embalagem com 100 UNIDADEes</t>
   </si>
   <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO PP, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTÉRIL COM PÓBIOABSORVÍVEL CAIXA COM 100 UNIDADE</t>
-  </si>
-  <si>
     <t>LUVA FORRADA PARA LIMPEZA, TAMANHO G, DE BORRACHA, MATERIAL LÁTEX NATURAL, AVELUDADA INTERNAMENTE E ANTIDERRAPANTE EMBALADA O PAR</t>
   </si>
   <si>
@@ -439,9 +310,6 @@
     <t>MASCARA DESCARTaVEL C/ ELASTICO, com tripla camada e filtro bacteriano, antialergica, na cor branca, caixa com 50 UNIDADEes</t>
   </si>
   <si>
-    <t>MÁSCARA DESCARTÁVEL COM ELÁSTICO, COM TRIPLA CAMADA E FILTRO BACTERIANO, ANTIALÉRGICA, NA COR BRANCA. CAIXA COM50 UNIDADES</t>
-  </si>
-  <si>
     <t>FIO DE NYLON 1,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
   </si>
   <si>
@@ -481,90 +349,48 @@
     <t>SCALP Nº 19 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA,, ESTÉRIL COM REGISTRO NA ANVISA CAIXA COM 100 UNIDADEES</t>
   </si>
   <si>
-    <t>SCALP Nº19, HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA,ESTÉRIL, COM REGISTRO NA ANVISA. CAIXA COM 100 UNIDADES.</t>
-  </si>
-  <si>
     <t>SCALP Nº 21 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
   </si>
   <si>
-    <t>SCALP Nº21, HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA,ESTÉRIL, COM REGISTRO NA ANVISA.</t>
-  </si>
-  <si>
     <t>SCALP Nº 23 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA,, ESTÉRIL, COM REGISTRO NA ANVISA,</t>
   </si>
   <si>
-    <t>SCALP Nº23, HIPODÉRMICO, DESCARTÁVEL,DISPOSITIVO DE INFUSÃO INTRAVENOSA, ESTÉRIL, COM REGISTRO NA ANVISA.</t>
-  </si>
-  <si>
     <t>SCALP Nº 25 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
   </si>
   <si>
-    <t>SCALP Nº25, HIPODÉRMICO, DESCARTÁVEL,DISPOSITIVO DE INFUSÃO INTRAVENOSA, ESTÉRIL, COM REGISTRO NA ANVISA.</t>
-  </si>
-  <si>
     <t>SCALP Nº 27 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
   </si>
   <si>
-    <t>SCALP Nº27, HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA,ESTÉRIL, COM REGISTRO NA ANVISA.</t>
-  </si>
-  <si>
     <t>SERINGA DESC 10ML COM AGULHA 25X7 COM BICO LUER LOCK ESTÉRIL,</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 10 ML C/ AGULHA 25X 7 COM BICO LUER LOCK, ESTÉRIL.</t>
-  </si>
-  <si>
     <t>SERINGA DESC 10ML COM AGULHA 25X7 ESTERIL,</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 10 ML C/ AGULHA 25X 7, ESTÉRIL.</t>
-  </si>
-  <si>
     <t>SERINGA DESCARTÁVEL 20 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
   </si>
   <si>
     <t>SERINGA DESCARTÁVEL 20 ML C/ AGULHA 25 X 7 estéril,,</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 20 ML C/ AGULHA 25X 7, ESTÉRIL.</t>
-  </si>
-  <si>
     <t>SERINGA DESCARTAVEL 1ML C AGULHA 20MM X 0,55 COM BICO LUER LOCK, ESTERIL</t>
   </si>
   <si>
-    <t>SERINGA DESCARTAVEL 1ML C/AGULHA20MMX0,55 COM BICO LUER LOCK,ESTERIL</t>
-  </si>
-  <si>
     <t>SERINGA DESCARTÁVEL 03 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 03 ML C/ AGULHA 25X 7 COM BICO LUER LOCK, ESTÉRIL.</t>
-  </si>
-  <si>
     <t>SERINGA DESCARTÁVEL 03 ML C/ AGULHA 25 X 7 estéril,,</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 3 ML C/ AGULHA 25 X7, ESTÉRIL.</t>
-  </si>
-  <si>
     <t>SERINGA DESCARTÁVEL 05 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 5 ML C/ AGULHA 25 X7 COM BICO LUER LOCK, ESTÉRIL.</t>
-  </si>
-  <si>
     <t>SERINGA DESCARTÁVEL 05 ML C/ AGULHA 25 X 7 estéril,,</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 5 ML C/ AGULHA 25 X 7, ESTÉRIL.</t>
-  </si>
-  <si>
     <t>SERINGA PARA INSULINA DE 1ML, COM AGULHA 13MM X 0,45MM, CORPO TRANSPARENTE, CILINDRO COM ANEL DE RETENÇÃO, PRODUTO DE USO ÚNICO, ESTÉRIL, APIROGÊNICA, ATÓXICA, LÁTEX FREE</t>
   </si>
   <si>
-    <t>SERINGA PARA INSULINA DE 1ML, COM AGULHA 13MM X 0,45MM, CORPO TRANSPARENTE, CILINDRO COM ANEL DE RETENÇÃO, PRODUTO DE USO ÚNICO, ESTÉRIL, APIROGÊNICA, ATÓXICA, LÁTEXFREE.</t>
-  </si>
-  <si>
     <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 04,</t>
   </si>
   <si>
@@ -613,15 +439,9 @@
     <t>SOLUÇÃO FISIOLOGICA A 0,9% 250 ML,</t>
   </si>
   <si>
-    <t>SOLUÇÃO FISIOLOGICA A 0,9% 250 ML</t>
-  </si>
-  <si>
     <t>SOLUÇÃO FISIOLOGICA A 0,9% 500 ML,</t>
   </si>
   <si>
-    <t>SOLUÇÃO FISIOLOGICA A 0,9% 500 ML</t>
-  </si>
-  <si>
     <t>SOLUÇÃO FISIOLOGICA A 0,9% 1000 ML,</t>
   </si>
   <si>
@@ -631,21 +451,12 @@
     <t>TIRAS REAGENTES PARA TESTE DE GALÃOICEMIA PARA USO COM O MONITOR, CAIXA COM 50 UN, OBS A EMPRESA VENCEDORA DESTE ITEM, DEVERÁ FORNECERA QUANTIDADE DE 50 MONITORES DE GALÃOICEMIA COMPATÍVEL COM A MARCA OFERTADA PARA ESTE ITEM</t>
   </si>
   <si>
-    <t>TIRAS REAGENTES PARA TESTE DE GLICEMIA PARA USO COM O MONITOR, CAIXA COM 50 UNIDADES.OBS: A EMPRESA VENCEDORA DESTE ITEM, DEVERÁ FORNECER A QUANTIDADE DE 50MONITORES DE GLICEMIA COMPATÍVEL COM A MARCA OFERTADA PARA ESTE ITEM.</t>
-  </si>
-  <si>
     <t>TOUCA DESCARTAVEL EM TNT UNIDADE COM 100 UNIDADEES,</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVELEM TNT, DESCARTAVELPACOTE COM 100 UNIDADES</t>
-  </si>
-  <si>
     <t>TERMÔMETRO INFRA VERMELHO, MODO DE MEDIÇÃO DE TEMPERATURA 32C-43°C, FAIXA DE TEMPERATURA DO OBJETO 0-100 °C DENTRO DE 1-15CM DISTÂNCIA DE MEDIÇÃO, SEGURO, LIMPO, ESTÁVEL E COM DESEMPENHO CONFIÁVEL VISOR LCD,</t>
   </si>
   <si>
-    <t>TERMÔMETRO INFRA VERMELHO, MODO DE MEDIÇÃO DE TEMPERATURA: 32C-43°C, FAIXA DE TEMPERATURA DO OBJETO: 0-100°C. DENTRO DE 1-15CM DISTÂNCIA DE MEDIÇÃO, SEGURO, LIMPO, ESTÁVEL E COMDESEMPENHO CONFIÁVEL. VISOR LCD,</t>
-  </si>
-  <si>
     <t>TERMOMETRO DIGITAL, VISOR EM DISPLAY LED, AUTO MEMÓRIA, MOSTRA A ÚLTIMA TEMPERATURA PARA COMPARAÇÃO, PRECISÃO DE + OU - 01°C</t>
   </si>
   <si>
@@ -676,15 +487,9 @@
     <t>LENÇOL DESCARTAVEL TNT com elastico para maca 90cm x 2m, cor branco, UNIDADE com 10 UNIDADEes</t>
   </si>
   <si>
-    <t>LENÇOL DESCARTÁVEL TNT COM ELÁSTICO PARA MACA 90CM X 2M. COR: BRANCO PACOTE COM 10 UNIDADES</t>
-  </si>
-  <si>
     <t>PAPEL LENÇOL HOSPITALAR 70CM X 50 METROS, 100% CELULOSE VIRGEM, BRANCO, QUALIDADE IGUAL OU SUPERIOR A MARCA PLUMAX</t>
   </si>
   <si>
-    <t>PAPEL LENÇOL HOSPITAL 70 CM X 50 METROS, 100% CELULOSE VIRGEM, BRANCO, QUALIDADE IGUAL OU SUPERIOR A MARCAPLUMAX</t>
-  </si>
-  <si>
     <t>FIXADOR DE CANULA TRAQUIOSTOMIA INFANTIL,</t>
   </si>
   <si>
@@ -754,9 +559,6 @@
     <t>COLETOR PARA MATERIAL PERFUROCORTANTE 20 LITROS, Confeccionado em papel incinerável, cor amarela, revestido internamente com produto impermeabilizante que evita umidade e vazamento, acompanhado de saco plástico ou não, com instruções de montagem e uso impressas externamente, cinta em material resistente à perfurações, alça para transporte fixa ao coletor, tampa fixa ao coletor, bocal com abertura que facilite o descarte de material e linha que apresente o limite máximo de enchimento Fabricado de acordo com a NR 32 (MTE), constando externamente a simbologia de material infectante conforme NBR 7500 Deve atender as normas NBR 13853 – caixa com 20 UNIDADEes</t>
   </si>
   <si>
-    <t>COLETOR PARA MATERIAL PERFURO CORTANTE 20 LITROS-CONFECCIONADO EM PAPEL INCINERÁVEL,COR AMARELA,REVESTIDO INTERNAMENTE COM PRODUTO IMPERMEABILIZANTE QUE EVITA UMIDADE E VAZAMENTO,ACOMPANHADO DE SACO PLÁSTICO OU NÃO,COM INSTRUÇÕES DE MONTAGEM E USO IMPRESSAS EXTERNAMENTE,CINTA EM MATERIAL RESISTENTE A PERFURAÇÕES,ALÇA PARA TRANSPORTE FIXA AO COLETOR,TAMPA FIXA AO COLETOR,BOCAL COM ABERTURA QUE FACILITE O DESCARTE DE MATERIAL E LINHA QUE APRESENTE O LIMITE MÁXIMO DE ENCHIMENTO.FABRICADO DE ACORDO COM A NR 32(MTE),CONSTANDO EXTERNAMENTE A SIMBOLOGIA DE MATERIAL INFECTANTE CONFORME NBR 7500.DEVE ATENDER ASNORMAS NBR 13853-CAIXA COM 20 UNIDADES.</t>
-  </si>
-  <si>
     <t>ESTETOSCÓPIO DUPLO, OLIVAS MACIAS E ANATÔMICAS EM PVC SILICONADO, ESTRUTURAS EM METAL CROMADO E POLIDO PARA MAIOR DURABILIDADE E DESINFECÇÃO,MOLA DO ÂNGULO EM AÇO ESPECIAL PARA AJUSTAR O ESTETOSCÓPIO SEM PRESSIONAR OS OUVIDOS,TUBO ``Y`` EM PVC LISO PARA MAIOR DURABILIDADE E DESINFECÇÃO,ANEL DE PVC COLORIDO PARA NÃO TOCAR O METAL DIRETAMENTE NO PACIENTE E TRANSMITIR SENSAÇÃO FRIA,AUSCULTADOR DUPLO EM METAL CROMADO E LISO,IDEAL PARA AUSCULTAÇÃO CARDÍACA E PULMONAR</t>
   </si>
   <si>
@@ -842,9 +644,6 @@
   </si>
   <si>
     <t>SOLUÇÃO FISIOLOGICA 0,9% DE USO TOPICO VOL 500 ML COM GOTEJADOR,</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO FISIOLOGICA 0,9% DE USO TOPICOVOL 500ML COM GOTEJADOR</t>
   </si>
   <si>
     <t>TESTE DE GRAVIDEZ, CONTEM UMA TIRA DE TESTE, E UM FRASCO COLETOR,</t>
@@ -1761,14 +1560,17 @@
       <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="0">
-        <v>3835</v>
+      <c r="K2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1782,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0">
         <v>300</v>
@@ -1793,7 +1595,16 @@
       <c r="G3" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1808,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0">
         <v>200</v>
@@ -1819,7 +1630,16 @@
       <c r="G4" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1834,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0">
         <v>200</v>
@@ -1845,14 +1665,17 @@
       <c r="G5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="0">
-        <v>33800</v>
+      <c r="K5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1866,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0">
         <v>200</v>
@@ -1877,7 +1700,16 @@
       <c r="G6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1892,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0">
         <v>5000</v>
@@ -1903,14 +1735,17 @@
       <c r="G7" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="0">
-        <v>600</v>
+      <c r="K7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1924,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="0">
         <v>5000</v>
@@ -1935,14 +1770,17 @@
       <c r="G8" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="0">
-        <v>600</v>
+      <c r="K8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1956,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0">
         <v>5000</v>
@@ -1967,14 +1805,17 @@
       <c r="G9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="0">
-        <v>700</v>
+      <c r="K9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1988,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="0">
         <v>5000</v>
@@ -1999,14 +1840,17 @@
       <c r="G10" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="0" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="0">
-        <v>650</v>
+      <c r="K10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0">
         <v>10000</v>
@@ -2031,14 +1875,17 @@
       <c r="G11" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H11" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="0">
-        <v>91000</v>
+      <c r="K11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2052,7 +1899,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E12" s="0">
         <v>10000</v>
@@ -2063,14 +1910,17 @@
       <c r="G12" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="0">
-        <v>90900</v>
+      <c r="K12" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2084,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E13" s="0">
         <v>1000</v>
@@ -2095,7 +1945,16 @@
       <c r="G13" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2110,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0">
         <v>500</v>
@@ -2121,14 +1980,17 @@
       <c r="G14" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H14" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="0">
-        <v>10985</v>
+      <c r="K14" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2142,7 +2004,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0">
         <v>500</v>
@@ -2153,7 +2015,16 @@
       <c r="G15" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2168,7 +2039,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0">
         <v>500</v>
@@ -2179,7 +2050,16 @@
       <c r="G16" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2194,7 +2074,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E17" s="0">
         <v>500</v>
@@ -2205,7 +2085,16 @@
       <c r="G17" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2220,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0">
         <v>500</v>
@@ -2231,7 +2120,16 @@
       <c r="G18" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2246,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E19" s="0">
         <v>500</v>
@@ -2257,14 +2155,17 @@
       <c r="G19" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H19" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="0" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="0">
-        <v>32500</v>
+      <c r="K19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2278,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E20" s="0">
         <v>3000</v>
@@ -2289,14 +2190,17 @@
       <c r="G20" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H20" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="0" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="0">
-        <v>87480</v>
+      <c r="K20" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -2310,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E21" s="0">
         <v>3000</v>
@@ -2321,14 +2225,17 @@
       <c r="G21" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H21" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="0" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="0">
-        <v>93210</v>
+      <c r="K21" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -2342,7 +2249,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E22" s="0">
         <v>3000</v>
@@ -2353,14 +2260,17 @@
       <c r="G22" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H22" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="0" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="0">
-        <v>109170</v>
+      <c r="K22" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2284,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E23" s="0">
         <v>3000</v>
@@ -2385,14 +2295,17 @@
       <c r="G23" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H23" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="0" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="0">
-        <v>121680</v>
+      <c r="K23" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2319,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E24" s="0">
         <v>3000</v>
@@ -2417,14 +2330,17 @@
       <c r="G24" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H24" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="0" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="0">
-        <v>177450</v>
+      <c r="K24" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -2438,7 +2354,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E25" s="0">
         <v>4000</v>
@@ -2449,7 +2365,16 @@
       <c r="G25" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2464,7 +2389,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E26" s="0">
         <v>3000</v>
@@ -2475,7 +2400,16 @@
       <c r="G26" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2490,7 +2424,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E27" s="0">
         <v>200</v>
@@ -2501,7 +2435,16 @@
       <c r="G27" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2516,7 +2459,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E28" s="0">
         <v>200</v>
@@ -2527,14 +2470,17 @@
       <c r="G28" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H28" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" s="0" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="0">
-        <v>26260</v>
+      <c r="K28" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -2548,7 +2494,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E29" s="0">
         <v>15</v>
@@ -2559,7 +2505,16 @@
       <c r="G29" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2574,7 +2529,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E30" s="0">
         <v>2000</v>
@@ -2585,14 +2540,17 @@
       <c r="G30" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H30" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="0" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="0">
-        <v>2600</v>
+      <c r="K30" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -2606,7 +2564,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E31" s="0">
         <v>2000</v>
@@ -2617,14 +2575,17 @@
       <c r="G31" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H31" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I31" s="0" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="0">
-        <v>2600</v>
+      <c r="K31" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -2638,7 +2599,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E32" s="0">
         <v>2000</v>
@@ -2649,14 +2610,17 @@
       <c r="G32" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="0" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="0">
-        <v>2600</v>
+      <c r="K32" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -2670,7 +2634,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E33" s="0">
         <v>2000</v>
@@ -2681,14 +2645,17 @@
       <c r="G33" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H33" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I33" s="0" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="0">
-        <v>2600</v>
+      <c r="K33" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -2702,7 +2669,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E34" s="0">
         <v>2000</v>
@@ -2713,14 +2680,17 @@
       <c r="G34" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H34" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I34" s="0" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="0">
-        <v>2600</v>
+      <c r="K34" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2734,7 +2704,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E35" s="0">
         <v>2000</v>
@@ -2745,14 +2715,17 @@
       <c r="G35" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H35" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="0" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="0">
-        <v>2600</v>
+      <c r="K35" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -2766,7 +2739,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E36" s="0">
         <v>2000</v>
@@ -2777,7 +2750,16 @@
       <c r="G36" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2792,7 +2774,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E37" s="0">
         <v>4000</v>
@@ -2803,14 +2785,17 @@
       <c r="G37" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H37" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="0" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="0">
-        <v>3600</v>
+      <c r="K37" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2824,7 +2809,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E38" s="0">
         <v>4000</v>
@@ -2835,7 +2820,16 @@
       <c r="G38" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2850,7 +2844,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E39" s="0">
         <v>4000</v>
@@ -2861,7 +2855,16 @@
       <c r="G39" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2876,7 +2879,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E40" s="0">
         <v>5000</v>
@@ -2887,14 +2890,17 @@
       <c r="G40" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H40" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I40" s="0" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="0">
-        <v>38950</v>
+      <c r="K40" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -2908,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E41" s="0">
         <v>5000</v>
@@ -2919,14 +2925,17 @@
       <c r="G41" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H41" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I41" s="0" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="0">
-        <v>194350</v>
+      <c r="K41" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -2940,7 +2949,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E42" s="0">
         <v>5000</v>
@@ -2951,14 +2960,17 @@
       <c r="G42" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H42" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I42" s="0" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="0">
-        <v>169000</v>
+      <c r="K42" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -2972,7 +2984,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E43" s="0">
         <v>2000</v>
@@ -2983,7 +2995,16 @@
       <c r="G43" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2998,7 +3019,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E44" s="0">
         <v>6000</v>
@@ -3009,7 +3030,16 @@
       <c r="G44" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3024,7 +3054,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E45" s="0">
         <v>2000</v>
@@ -3035,7 +3065,16 @@
       <c r="G45" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3050,7 +3089,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E46" s="0">
         <v>100</v>
@@ -3061,7 +3100,16 @@
       <c r="G46" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3076,7 +3124,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E47" s="0">
         <v>10000</v>
@@ -3087,14 +3135,17 @@
       <c r="G47" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H47" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I47" s="0" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="0">
-        <v>13000</v>
+      <c r="K47" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -3108,7 +3159,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E48" s="0">
         <v>5000</v>
@@ -3119,7 +3170,16 @@
       <c r="G48" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3134,7 +3194,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E49" s="0">
         <v>3000</v>
@@ -3145,14 +3205,17 @@
       <c r="G49" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H49" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" s="0" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="0">
-        <v>23010</v>
+      <c r="K49" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -3166,7 +3229,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E50" s="0">
         <v>5000</v>
@@ -3177,14 +3240,17 @@
       <c r="G50" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H50" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I50" s="0" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="0">
-        <v>12350</v>
+      <c r="K50" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -3198,7 +3264,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E51" s="0">
         <v>100</v>
@@ -3209,7 +3275,16 @@
       <c r="G51" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3224,7 +3299,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E52" s="0">
         <v>1000</v>
@@ -3235,14 +3310,17 @@
       <c r="G52" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H52" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" s="0" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="0">
-        <v>21970</v>
+      <c r="K52" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -3256,7 +3334,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E53" s="0">
         <v>2000</v>
@@ -3267,7 +3345,16 @@
       <c r="G53" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3282,7 +3369,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E54" s="0">
         <v>5000</v>
@@ -3293,7 +3380,16 @@
       <c r="G54" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3308,7 +3404,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E55" s="0">
         <v>2000</v>
@@ -3319,7 +3415,16 @@
       <c r="G55" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3334,7 +3439,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E56" s="0">
         <v>2000</v>
@@ -3345,14 +3450,17 @@
       <c r="G56" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H56" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I56" s="0" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="0">
-        <v>11700</v>
+      <c r="K56" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3366,7 +3474,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E57" s="0">
         <v>2000</v>
@@ -3377,14 +3485,17 @@
       <c r="G57" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H57" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I57" s="0" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="0">
-        <v>11700</v>
+      <c r="K57" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -3398,7 +3509,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E58" s="0">
         <v>2000</v>
@@ -3409,7 +3520,16 @@
       <c r="G58" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3424,7 +3544,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E59" s="0">
         <v>3000</v>
@@ -3435,7 +3555,16 @@
       <c r="G59" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3450,7 +3579,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E60" s="0">
         <v>200</v>
@@ -3461,7 +3590,16 @@
       <c r="G60" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3476,7 +3614,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E61" s="0">
         <v>200</v>
@@ -3487,14 +3625,17 @@
       <c r="G61" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H61" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I61" s="0" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="0">
-        <v>8580</v>
+      <c r="K61" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3508,7 +3649,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E62" s="0">
         <v>200</v>
@@ -3519,7 +3660,16 @@
       <c r="G62" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3534,7 +3684,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E63" s="0">
         <v>200</v>
@@ -3545,7 +3695,16 @@
       <c r="G63" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3560,7 +3719,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E64" s="0">
         <v>200</v>
@@ -3571,7 +3730,16 @@
       <c r="G64" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3586,7 +3754,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E65" s="0">
         <v>200</v>
@@ -3597,7 +3765,16 @@
       <c r="G65" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3612,7 +3789,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E66" s="0">
         <v>5000</v>
@@ -3623,7 +3800,16 @@
       <c r="G66" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3638,7 +3824,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="E67" s="0">
         <v>5000</v>
@@ -3649,7 +3835,16 @@
       <c r="G67" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3664,7 +3859,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E68" s="0">
         <v>5000</v>
@@ -3675,7 +3870,16 @@
       <c r="G68" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3690,7 +3894,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E69" s="0">
         <v>5000</v>
@@ -3701,7 +3905,16 @@
       <c r="G69" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3716,7 +3929,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E70" s="0">
         <v>5000</v>
@@ -3727,7 +3940,16 @@
       <c r="G70" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3742,7 +3964,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E71" s="0">
         <v>500</v>
@@ -3753,14 +3975,17 @@
       <c r="G71" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H71" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I71" s="0" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="0">
-        <v>5135</v>
+      <c r="K71" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -3774,7 +3999,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E72" s="0">
         <v>2000</v>
@@ -3785,14 +4010,17 @@
       <c r="G72" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H72" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I72" s="0" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="0">
-        <v>4940</v>
+      <c r="K72" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -3806,7 +4034,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E73" s="0">
         <v>2000</v>
@@ -3817,14 +4045,17 @@
       <c r="G73" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H73" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I73" s="0" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="0">
-        <v>4940</v>
+      <c r="K73" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -3838,7 +4069,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E74" s="0">
         <v>2000</v>
@@ -3849,14 +4080,17 @@
       <c r="G74" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H74" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I74" s="0" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="0">
-        <v>4940</v>
+      <c r="K74" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3870,7 +4104,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E75" s="0">
         <v>2000</v>
@@ -3881,14 +4115,17 @@
       <c r="G75" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H75" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I75" s="0" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="0">
-        <v>4940</v>
+      <c r="K75" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3902,7 +4139,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E76" s="0">
         <v>2000</v>
@@ -3913,14 +4150,17 @@
       <c r="G76" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H76" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I76" s="0" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="0">
-        <v>4940</v>
+      <c r="K76" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -3934,7 +4174,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E77" s="0">
         <v>2000</v>
@@ -3945,14 +4185,17 @@
       <c r="G77" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H77" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I77" s="0" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K77" s="0">
-        <v>46800</v>
+      <c r="K77" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -3966,7 +4209,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="E78" s="0">
         <v>3000</v>
@@ -3977,14 +4220,17 @@
       <c r="G78" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H78" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I78" s="0" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="0">
-        <v>70200</v>
+      <c r="K78" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -3998,7 +4244,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E79" s="0">
         <v>3000</v>
@@ -4009,14 +4255,17 @@
       <c r="G79" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H79" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I79" s="0" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K79" s="0">
-        <v>70200</v>
+      <c r="K79" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -4030,7 +4279,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E80" s="0">
         <v>3000</v>
@@ -4041,14 +4290,17 @@
       <c r="G80" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H80" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I80" s="0" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K80" s="0">
-        <v>70200</v>
+      <c r="K80" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4062,7 +4314,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="E81" s="0">
         <v>300</v>
@@ -4073,7 +4325,16 @@
       <c r="G81" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H81" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J81" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4088,7 +4349,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E82" s="0">
         <v>300</v>
@@ -4099,7 +4360,16 @@
       <c r="G82" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H82" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J82" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4114,7 +4384,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E83" s="0">
         <v>3000</v>
@@ -4125,7 +4395,16 @@
       <c r="G83" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H83" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J83" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4140,7 +4419,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="E84" s="0">
         <v>10000</v>
@@ -4151,14 +4430,17 @@
       <c r="G84" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H84" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I84" s="0" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K84" s="0">
-        <v>76700</v>
+      <c r="K84" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -4172,7 +4454,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="E85" s="0">
         <v>2000</v>
@@ -4183,7 +4465,16 @@
       <c r="G85" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4198,7 +4489,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="E86" s="0">
         <v>2000</v>
@@ -4209,7 +4500,16 @@
       <c r="G86" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4224,7 +4524,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E87" s="0">
         <v>2000</v>
@@ -4235,7 +4535,16 @@
       <c r="G87" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4250,7 +4559,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E88" s="0">
         <v>2000</v>
@@ -4261,7 +4570,16 @@
       <c r="G88" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4276,7 +4594,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E89" s="0">
         <v>2000</v>
@@ -4287,7 +4605,16 @@
       <c r="G89" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4302,7 +4629,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E90" s="0">
         <v>2000</v>
@@ -4313,7 +4640,16 @@
       <c r="G90" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H90" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J90" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4328,7 +4664,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E91" s="0">
         <v>2000</v>
@@ -4339,7 +4675,16 @@
       <c r="G91" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H91" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J91" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4354,7 +4699,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E92" s="0">
         <v>2000</v>
@@ -4365,7 +4710,16 @@
       <c r="G92" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H92" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J92" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4380,7 +4734,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E93" s="0">
         <v>2000</v>
@@ -4391,7 +4745,16 @@
       <c r="G93" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H93" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J93" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4406,7 +4769,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E94" s="0">
         <v>2000</v>
@@ -4417,7 +4780,16 @@
       <c r="G94" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4432,7 +4804,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="E95" s="0">
         <v>2000</v>
@@ -4443,7 +4815,16 @@
       <c r="G95" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H95" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J95" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4458,7 +4839,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E96" s="0">
         <v>30</v>
@@ -4469,7 +4850,16 @@
       <c r="G96" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H96" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J96" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4484,7 +4874,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="E97" s="0">
         <v>2000</v>
@@ -4495,14 +4885,17 @@
       <c r="G97" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H97" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I97" s="0" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K97" s="0">
-        <v>65000</v>
+      <c r="K97" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -4516,7 +4909,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E98" s="0">
         <v>2000</v>
@@ -4527,14 +4920,17 @@
       <c r="G98" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H98" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I98" s="0" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K98" s="0">
-        <v>660</v>
+      <c r="K98" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -4548,7 +4944,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E99" s="0">
         <v>2000</v>
@@ -4559,14 +4955,17 @@
       <c r="G99" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H99" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I99" s="0" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K99" s="0">
-        <v>660</v>
+      <c r="K99" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -4580,7 +4979,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E100" s="0">
         <v>2000</v>
@@ -4591,14 +4990,17 @@
       <c r="G100" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H100" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I100" s="0" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K100" s="0">
-        <v>660</v>
+      <c r="K100" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -4612,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E101" s="0">
         <v>2000</v>
@@ -4623,14 +5025,17 @@
       <c r="G101" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H101" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I101" s="0" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K101" s="0">
-        <v>720</v>
+      <c r="K101" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -4644,7 +5049,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E102" s="0">
         <v>3000</v>
@@ -4655,14 +5060,17 @@
       <c r="G102" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H102" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I102" s="0" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K102" s="0">
-        <v>2550</v>
+      <c r="K102" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -4676,7 +5084,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="E103" s="0">
         <v>3000</v>
@@ -4687,14 +5095,17 @@
       <c r="G103" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H103" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I103" s="0" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K103" s="0">
-        <v>2340</v>
+      <c r="K103" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -4708,7 +5119,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="E104" s="0">
         <v>3000</v>
@@ -4719,7 +5130,16 @@
       <c r="G104" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4734,7 +5154,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="E105" s="0">
         <v>5000</v>
@@ -4745,14 +5165,17 @@
       <c r="G105" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H105" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I105" s="0" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K105" s="0">
-        <v>7150</v>
+      <c r="K105" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -4766,7 +5189,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="E106" s="0">
         <v>10000</v>
@@ -4777,14 +5200,17 @@
       <c r="G106" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H106" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I106" s="0" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="J106" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K106" s="0">
-        <v>5200</v>
+      <c r="K106" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -4798,7 +5224,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="E107" s="0">
         <v>3000</v>
@@ -4809,14 +5235,17 @@
       <c r="G107" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H107" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I107" s="0" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="J107" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K107" s="0">
-        <v>1440</v>
+      <c r="K107" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -4830,7 +5259,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="E108" s="0">
         <v>3000</v>
@@ -4841,14 +5270,17 @@
       <c r="G108" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H108" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I108" s="0" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="J108" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K108" s="0">
-        <v>1440</v>
+      <c r="K108" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -4862,7 +5294,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="E109" s="0">
         <v>3000</v>
@@ -4873,14 +5305,17 @@
       <c r="G109" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H109" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I109" s="0" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K109" s="0">
-        <v>1680</v>
+      <c r="K109" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -4894,7 +5329,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="E110" s="0">
         <v>3000</v>
@@ -4905,14 +5340,17 @@
       <c r="G110" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H110" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I110" s="0" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="J110" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K110" s="0">
-        <v>1680</v>
+      <c r="K110" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -4926,7 +5364,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="E111" s="0">
         <v>15000</v>
@@ -4937,14 +5375,17 @@
       <c r="G111" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H111" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I111" s="0" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K111" s="0">
-        <v>6900</v>
+      <c r="K111" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -4958,7 +5399,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="E112" s="0">
         <v>2000</v>
@@ -4969,7 +5410,16 @@
       <c r="G112" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H112" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J112" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4984,7 +5434,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E113" s="0">
         <v>4000</v>
@@ -4995,7 +5445,16 @@
       <c r="G113" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H113" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J113" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5010,7 +5469,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E114" s="0">
         <v>8000</v>
@@ -5021,7 +5480,16 @@
       <c r="G114" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H114" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J114" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5036,7 +5504,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="E115" s="0">
         <v>5000</v>
@@ -5047,7 +5515,16 @@
       <c r="G115" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H115" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J115" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5062,7 +5539,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E116" s="0">
         <v>10000</v>
@@ -5073,7 +5550,16 @@
       <c r="G116" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5088,7 +5574,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E117" s="0">
         <v>5000</v>
@@ -5099,7 +5585,16 @@
       <c r="G117" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5114,7 +5609,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E118" s="0">
         <v>5000</v>
@@ -5125,7 +5620,16 @@
       <c r="G118" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H118" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J118" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5140,7 +5644,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E119" s="0">
         <v>100</v>
@@ -5151,7 +5655,16 @@
       <c r="G119" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H119" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J119" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5166,7 +5679,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E120" s="0">
         <v>100</v>
@@ -5177,7 +5690,16 @@
       <c r="G120" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H120" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J120" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5192,7 +5714,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="E121" s="0">
         <v>100</v>
@@ -5203,7 +5725,16 @@
       <c r="G121" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K121" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5218,7 +5749,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="E122" s="0">
         <v>100</v>
@@ -5229,7 +5760,16 @@
       <c r="G122" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5244,7 +5784,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="E123" s="0">
         <v>100</v>
@@ -5255,7 +5795,16 @@
       <c r="G123" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H123" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J123" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5270,7 +5819,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="E124" s="0">
         <v>100</v>
@@ -5281,7 +5830,16 @@
       <c r="G124" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H124" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J124" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K124" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5296,7 +5854,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="E125" s="0">
         <v>100</v>
@@ -5307,7 +5865,16 @@
       <c r="G125" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H125" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J125" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K125" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5322,7 +5889,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="E126" s="0">
         <v>1000</v>
@@ -5333,7 +5900,16 @@
       <c r="G126" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H126" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J126" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K126" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5348,7 +5924,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="E127" s="0">
         <v>3000</v>
@@ -5359,14 +5935,17 @@
       <c r="G127" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H127" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I127" s="0" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="J127" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K127" s="0">
-        <v>27270</v>
+      <c r="K127" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="128">
@@ -5380,7 +5959,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="E128" s="0">
         <v>10000</v>
@@ -5391,14 +5970,17 @@
       <c r="G128" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H128" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I128" s="0" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K128" s="0">
-        <v>93600</v>
+      <c r="K128" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -5412,7 +5994,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E129" s="0">
         <v>3000</v>
@@ -5423,7 +6005,16 @@
       <c r="G129" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H129" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J129" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K129" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5438,7 +6029,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="E130" s="0">
         <v>1000</v>
@@ -5449,7 +6040,16 @@
       <c r="G130" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H130" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J130" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K130" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5464,7 +6064,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="E131" s="0">
         <v>1500</v>
@@ -5475,14 +6075,17 @@
       <c r="G131" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H131" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I131" s="0" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="J131" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K131" s="0">
-        <v>76050</v>
+      <c r="K131" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="132">
@@ -5496,7 +6099,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="E132" s="0">
         <v>500</v>
@@ -5507,14 +6110,17 @@
       <c r="G132" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H132" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I132" s="0" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="J132" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K132" s="0">
-        <v>5850</v>
+      <c r="K132" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="133">
@@ -5528,7 +6134,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E133" s="0">
         <v>200</v>
@@ -5539,14 +6145,17 @@
       <c r="G133" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H133" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I133" s="0" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="J133" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K133" s="0">
-        <v>28600</v>
+      <c r="K133" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="134">
@@ -5560,7 +6169,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="E134" s="0">
         <v>50</v>
@@ -5571,7 +6180,16 @@
       <c r="G134" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H134" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J134" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K134" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5586,7 +6204,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="E135" s="0">
         <v>100</v>
@@ -5597,7 +6215,16 @@
       <c r="G135" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H135" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J135" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K135" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5612,7 +6239,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="E136" s="0">
         <v>300</v>
@@ -5623,7 +6250,16 @@
       <c r="G136" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H136" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J136" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K136" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5638,7 +6274,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="E137" s="0">
         <v>500</v>
@@ -5649,7 +6285,16 @@
       <c r="G137" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H137" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J137" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K137" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5664,7 +6309,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="E138" s="0">
         <v>500</v>
@@ -5675,7 +6320,16 @@
       <c r="G138" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H138" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J138" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K138" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5690,7 +6344,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="E139" s="0">
         <v>5000</v>
@@ -5701,7 +6355,16 @@
       <c r="G139" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H139" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J139" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K139" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5716,7 +6379,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="E140" s="0">
         <v>5000</v>
@@ -5727,7 +6390,16 @@
       <c r="G140" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H140" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J140" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5742,7 +6414,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="E141" s="0">
         <v>5000</v>
@@ -5753,7 +6425,16 @@
       <c r="G141" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H141" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J141" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K141" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5768,7 +6449,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="E142" s="0">
         <v>200</v>
@@ -5779,7 +6460,16 @@
       <c r="G142" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H142" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J142" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5794,7 +6484,7 @@
         <v>142</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="E143" s="0">
         <v>300</v>
@@ -5805,14 +6495,17 @@
       <c r="G143" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H143" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I143" s="0" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="J143" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K143" s="0">
-        <v>3510</v>
+      <c r="K143" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -5826,7 +6519,7 @@
         <v>143</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="E144" s="0">
         <v>100</v>
@@ -5837,14 +6530,17 @@
       <c r="G144" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H144" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I144" s="0" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="J144" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K144" s="0">
-        <v>1807</v>
+      <c r="K144" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -5858,7 +6554,7 @@
         <v>144</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="E145" s="0">
         <v>2000</v>
@@ -5869,7 +6565,16 @@
       <c r="G145" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H145" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J145" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5884,7 +6589,7 @@
         <v>145</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="E146" s="0">
         <v>100</v>
@@ -5895,7 +6600,16 @@
       <c r="G146" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H146" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J146" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K146" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5910,7 +6624,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="E147" s="0">
         <v>30</v>
@@ -5921,7 +6635,16 @@
       <c r="G147" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H147" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J147" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K147" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5936,7 +6659,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="E148" s="0">
         <v>30</v>
@@ -5947,7 +6670,16 @@
       <c r="G148" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H148" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J148" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K148" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5962,7 +6694,7 @@
         <v>148</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="E149" s="0">
         <v>20</v>
@@ -5973,7 +6705,16 @@
       <c r="G149" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H149" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J149" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5988,7 +6729,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="E150" s="0">
         <v>30</v>
@@ -5999,7 +6740,16 @@
       <c r="G150" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H150" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J150" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K150" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6014,7 +6764,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="E151" s="0">
         <v>30</v>
@@ -6025,7 +6775,16 @@
       <c r="G151" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H151" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J151" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K151" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6040,7 +6799,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="E152" s="0">
         <v>100</v>
@@ -6051,7 +6810,16 @@
       <c r="G152" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H152" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J152" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K152" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6066,7 +6834,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="E153" s="0">
         <v>10</v>
@@ -6077,7 +6845,16 @@
       <c r="G153" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H153" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J153" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K153" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6092,7 +6869,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="E154" s="0">
         <v>10</v>
@@ -6103,7 +6880,16 @@
       <c r="G154" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H154" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J154" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K154" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6118,7 +6904,7 @@
         <v>154</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="E155" s="0">
         <v>10</v>
@@ -6129,7 +6915,16 @@
       <c r="G155" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H155" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J155" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K155" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6144,7 +6939,7 @@
         <v>155</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="E156" s="0">
         <v>30</v>
@@ -6155,7 +6950,16 @@
       <c r="G156" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H156" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J156" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K156" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6170,7 +6974,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="E157" s="0">
         <v>20</v>
@@ -6181,7 +6985,16 @@
       <c r="G157" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H157" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J157" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K157" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6196,7 +7009,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="E158" s="0">
         <v>10</v>
@@ -6207,7 +7020,16 @@
       <c r="G158" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H158" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J158" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K158" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6222,7 +7044,7 @@
         <v>158</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="E159" s="0">
         <v>200</v>
@@ -6233,7 +7055,16 @@
       <c r="G159" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H159" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J159" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K159" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6248,7 +7079,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="E160" s="0">
         <v>50</v>
@@ -6259,7 +7090,16 @@
       <c r="G160" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H160" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J160" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K160" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6274,7 +7114,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="E161" s="0">
         <v>30</v>
@@ -6285,7 +7125,16 @@
       <c r="G161" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H161" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J161" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K161" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6300,7 +7149,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="E162" s="0">
         <v>500</v>
@@ -6311,7 +7160,16 @@
       <c r="G162" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H162" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J162" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K162" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6326,7 +7184,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="E163" s="0">
         <v>500</v>
@@ -6337,7 +7195,16 @@
       <c r="G163" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H163" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J163" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K163" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6352,7 +7219,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="E164" s="0">
         <v>500</v>
@@ -6363,7 +7230,16 @@
       <c r="G164" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H164" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J164" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K164" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6378,7 +7254,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="E165" s="0">
         <v>500</v>
@@ -6389,7 +7265,16 @@
       <c r="G165" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H165" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J165" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K165" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6404,7 +7289,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="E166" s="0">
         <v>500</v>
@@ -6415,7 +7300,16 @@
       <c r="G166" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H166" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J166" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K166" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6430,7 +7324,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="E167" s="0">
         <v>200</v>
@@ -6441,14 +7335,17 @@
       <c r="G167" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H167" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I167" s="0" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="J167" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K167" s="0">
-        <v>51740</v>
+      <c r="K167" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -6462,7 +7359,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="E168" s="0">
         <v>30</v>
@@ -6473,7 +7370,16 @@
       <c r="G168" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H168" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J168" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K168" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6488,7 +7394,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="E169" s="0">
         <v>10</v>
@@ -6499,7 +7405,16 @@
       <c r="G169" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H169" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J169" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K169" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6514,7 +7429,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="E170" s="0">
         <v>20</v>
@@ -6525,7 +7440,16 @@
       <c r="G170" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H170" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J170" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K170" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6540,7 +7464,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="E171" s="0">
         <v>200</v>
@@ -6551,7 +7475,16 @@
       <c r="G171" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H171" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J171" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K171" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6566,7 +7499,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="E172" s="0">
         <v>100</v>
@@ -6577,7 +7510,16 @@
       <c r="G172" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H172" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J172" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K172" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6592,7 +7534,7 @@
         <v>172</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="E173" s="0">
         <v>100</v>
@@ -6603,7 +7545,16 @@
       <c r="G173" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H173" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J173" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K173" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6618,7 +7569,7 @@
         <v>173</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="E174" s="0">
         <v>100</v>
@@ -6629,7 +7580,16 @@
       <c r="G174" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H174" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J174" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K174" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6644,7 +7604,7 @@
         <v>174</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="E175" s="0">
         <v>100</v>
@@ -6655,7 +7615,16 @@
       <c r="G175" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H175" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J175" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K175" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6670,7 +7639,7 @@
         <v>175</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="E176" s="0">
         <v>100</v>
@@ -6681,7 +7650,16 @@
       <c r="G176" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H176" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J176" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K176" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6696,7 +7674,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="E177" s="0">
         <v>100</v>
@@ -6707,7 +7685,16 @@
       <c r="G177" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H177" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J177" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K177" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6722,7 +7709,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="E178" s="0">
         <v>100</v>
@@ -6733,7 +7720,16 @@
       <c r="G178" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H178" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J178" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K178" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6748,7 +7744,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="E179" s="0">
         <v>100</v>
@@ -6759,7 +7755,16 @@
       <c r="G179" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H179" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J179" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K179" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6774,7 +7779,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="E180" s="0">
         <v>100</v>
@@ -6785,7 +7790,16 @@
       <c r="G180" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H180" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J180" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K180" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6800,7 +7814,7 @@
         <v>180</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="E181" s="0">
         <v>100</v>
@@ -6811,7 +7825,16 @@
       <c r="G181" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H181" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J181" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6826,7 +7849,7 @@
         <v>181</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="E182" s="0">
         <v>100</v>
@@ -6837,7 +7860,16 @@
       <c r="G182" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H182" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J182" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K182" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6852,7 +7884,7 @@
         <v>182</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="E183" s="0">
         <v>100</v>
@@ -6863,7 +7895,16 @@
       <c r="G183" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H183" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J183" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K183" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6878,7 +7919,7 @@
         <v>183</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="E184" s="0">
         <v>100</v>
@@ -6889,7 +7930,16 @@
       <c r="G184" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H184" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J184" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K184" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6904,7 +7954,7 @@
         <v>184</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="E185" s="0">
         <v>100</v>
@@ -6915,7 +7965,16 @@
       <c r="G185" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H185" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J185" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K185" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6930,7 +7989,7 @@
         <v>185</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="E186" s="0">
         <v>100</v>
@@ -6941,7 +8000,16 @@
       <c r="G186" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H186" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J186" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K186" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6956,7 +8024,7 @@
         <v>186</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="E187" s="0">
         <v>100</v>
@@ -6967,7 +8035,16 @@
       <c r="G187" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H187" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J187" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K187" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6982,7 +8059,7 @@
         <v>187</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="E188" s="0">
         <v>100</v>
@@ -6993,7 +8070,16 @@
       <c r="G188" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H188" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J188" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K188" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7008,7 +8094,7 @@
         <v>188</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="E189" s="0">
         <v>100</v>
@@ -7019,7 +8105,16 @@
       <c r="G189" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H189" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J189" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K189" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7034,7 +8129,7 @@
         <v>189</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="E190" s="0">
         <v>1000</v>
@@ -7045,7 +8140,16 @@
       <c r="G190" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H190" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J190" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K190" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7060,7 +8164,7 @@
         <v>190</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="E191" s="0">
         <v>10</v>
@@ -7071,7 +8175,16 @@
       <c r="G191" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H191" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J191" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K191" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7086,7 +8199,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="E192" s="0">
         <v>100</v>
@@ -7097,7 +8210,16 @@
       <c r="G192" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H192" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J192" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K192" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7112,7 +8234,7 @@
         <v>192</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="E193" s="0">
         <v>20</v>
@@ -7123,7 +8245,16 @@
       <c r="G193" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H193" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J193" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K193" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7138,7 +8269,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="E194" s="0">
         <v>20</v>
@@ -7149,7 +8280,16 @@
       <c r="G194" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H194" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J194" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K194" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7164,7 +8304,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="E195" s="0">
         <v>20</v>
@@ -7175,7 +8315,16 @@
       <c r="G195" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H195" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J195" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K195" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7190,7 +8339,7 @@
         <v>195</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="E196" s="0">
         <v>2000</v>
@@ -7201,14 +8350,17 @@
       <c r="G196" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H196" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I196" s="0" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="J196" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K196" s="0">
-        <v>16380</v>
+      <c r="K196" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="197">
@@ -7222,7 +8374,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="E197" s="0">
         <v>2000</v>
@@ -7233,7 +8385,16 @@
       <c r="G197" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H197" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J197" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K197" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7248,7 +8409,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="E198" s="0">
         <v>20</v>
@@ -7259,7 +8420,16 @@
       <c r="G198" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H198" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I198" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J198" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K198" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7274,7 +8444,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="E199" s="0">
         <v>30</v>
@@ -7285,7 +8455,16 @@
       <c r="G199" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H199" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J199" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K199" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7300,7 +8479,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="E200" s="0">
         <v>30</v>
@@ -7311,7 +8490,16 @@
       <c r="G200" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H200" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J200" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K200" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/PropProAssistant/Models/PortalCompPubl/PCP_01.xlsx
+++ b/PropProAssistant/Models/PortalCompPubl/PCP_01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Número do Processo (Não edite)</t>
   </si>
@@ -73,24 +73,57 @@
     <t>AGUA PARA INJEÇÃO 10ML CAIXA COM 200 UND,</t>
   </si>
   <si>
+    <t>Farmace</t>
+  </si>
+  <si>
+    <t>ÁCIDO ASCÓRBICO 100MG/MLIV/IM 5ML SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
     <t>AGUA PARA INJEÇÃO 20 ML- CAIXA COM 200 UNIDADEES, MATERIAL MEDICO HOSPITALAR</t>
   </si>
   <si>
+    <t>Hipolabor</t>
+  </si>
+  <si>
+    <t>ACIDO TRANEXAMICO 50MG/ML 5ML</t>
+  </si>
+  <si>
     <t>AGULHA 13X0,45 CM,</t>
   </si>
   <si>
+    <t>Hypofarma</t>
+  </si>
+  <si>
+    <t>ADRENALINA 1MG/ML (HEMITARTARATO DE EPINEFRINA) 1ML</t>
+  </si>
+  <si>
     <t>AGULHA 25X0,70CM,</t>
   </si>
   <si>
+    <t>Isofarma</t>
+  </si>
+  <si>
+    <t>AGUA DESTILADA PARA INJECAO 10ML</t>
+  </si>
+  <si>
     <t>AGULHA 40X1,20CM,</t>
   </si>
   <si>
     <t>AGULHA 25X0,6CM,</t>
   </si>
   <si>
+    <t>AMINOFILINA 24MG 10ML</t>
+  </si>
+  <si>
     <t>ALCOOL EM GEL70% ANTI-SEPTICO PARA AS MAOS COM GALÃOICERINA e vitamina e, embalagem de 500 gramas</t>
   </si>
   <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>AMOXICILINA + CLAV. DE POTASSIO 250MG/62,5MG 75ML</t>
+  </si>
+  <si>
     <t>ALCOOL ETILICO 70% DE 1 LITRO,</t>
   </si>
   <si>
@@ -121,6 +154,12 @@
     <t>ATADURA CREPOM 10CM X 4,5 MT 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 fios</t>
   </si>
   <si>
+    <t>Teuto</t>
+  </si>
+  <si>
+    <t>BENZILPENICILINA BENZATINA 1.200.000 UI</t>
+  </si>
+  <si>
     <t>ATADURA CREPON 12CM X4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
   </si>
   <si>
@@ -139,6 +178,9 @@
     <t>BATERIA CR2032 PARA GALÃOICOSIMETROS, APARELHOS DE PRESSÃO DIGITAIS, BALANÇA ELETRONICAS, 3V</t>
   </si>
   <si>
+    <t>BUTILBROMETO DE ESCOPOLAMINA 4MG/ML + DIPIRONA SÓDICA 500MG/ML 5ML</t>
+  </si>
+  <si>
     <t>BALANÇA DIGITAL para banheiro , suporta ate 180 kg com 04 sensores de alta com visor lcd grande, balança de controle corporal alimentação por bateria cr2032 garantia de 12 meses</t>
   </si>
   <si>
@@ -163,12 +205,24 @@
     <t>CATETER JELCO Nº 24, Cateter jelco de teflon, estéril, descartável, flexível, nº 24, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
   </si>
   <si>
+    <t>Blau</t>
+  </si>
+  <si>
+    <t>CEFALOTINA 1G IM/IV</t>
+  </si>
+  <si>
     <t>CATETER TIPO OCULOS P/ OXIGENIO, Cateter nasal, tipo óculos, estéril, descartável, com extensão de aproximadamente 2,1mt em PVC, flexível, com ajuste e adaptação confortável no paciente, sendo que o conector da cavidade nasal deverá ser composto por PVC de alta qualidade, flexível, que não cause ferimentos no paciente, embalagem individual, em papel grau cirúrgico e filme plástico nº12, 3,85</t>
   </si>
   <si>
+    <t>CEFEPIMA 1G PÓ P/ SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
     <t>COLETOR DE FEZES COMUM, COM PAR, EMBALAGEM DE 80ML, ESTERIL E DESCARTAVEL,</t>
   </si>
   <si>
+    <t>CEFTRIAXONA 1G IV</t>
+  </si>
+  <si>
     <t>COLETOR DE URINA COMUM, EMBALAGEM DE 80ML, ESTERIL E DESCARTAVEL, SEM PAR,</t>
   </si>
   <si>
@@ -181,12 +235,18 @@
     <t>COMPRESSA DE GASE 7,5 CM X 7,5 CM 13 FIOS, Compressa de gaze hidrófila, em algodão puro e branco, sem falhas ou fiapos soltos, 13 fios por cm quadrado, dobras uniformes e perfeitas, variando de 5 a 8 dobras, com filamento radiopaco, com formato quadrado, confeccionada em fios 100% algodão - UNIDADE com 500 COMPRESSAS,</t>
   </si>
   <si>
+    <t>CIMETIDINA 150 MG/ML INJETAVEL 2 ML</t>
+  </si>
+  <si>
     <t>COMPRESSA DE GASE 7,5CM X 7,5CM 9 FIOS, Compressa de gaze hidrófila, em algodão puro e branco, sem falhas ou fiapos soltos, 9 fios por cm quadrado, dobras uniformes e perfeitas, variando de 5 a 8 dobras, com filamento radiopaco, com formato quadrado, confeccionada em fios 100% algodão UNIDADE com 500 COMPRESSAS,</t>
   </si>
   <si>
     <t>DISPOSITIVO PARA INCONTINÊNCIA URINARIA MASCULINO TAMANHO G COM EXTENSÃO, em látex atóxico puro em forma de preservativo com extremidade, afunilada e reforçado com tubo condutor, com registro no ministério da saúde,</t>
   </si>
   <si>
+    <t>CIPROFLOXACINO FR 200MG 100ML</t>
+  </si>
+  <si>
     <t>DISPOSITIVO PARA INCONTINÊNCIA URINARIA MASCULINO TAMANHO M COM EXTENSÃO, em látex atóxico puro em forma de preservativo com extremidade, afunilada e reforçado com tubo condutor, com registro no ministério da saúde,</t>
   </si>
   <si>
@@ -247,15 +307,30 @@
     <t>KIT P/ NEBULIZADOR ADULTO Conjunto completo com micro nebulizador, extensão com, CONECTOR PARA AR COMPRIMIDO OU OXIGÊNIO, MÁSCARA ADULTO, DE FÁCIL LIMPEZA E PRÁTICO MANUSEIO,</t>
   </si>
   <si>
+    <t>Sanval</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROMETAZINA 50 MG 2ML</t>
+  </si>
+  <si>
     <t>KIT P/ NEBULIZADOR INFANTIL, Conjunto completo com micro nebulizador, extensão com conector para ar comprimido ou oxigênio, máscara infantil, de fácil limpeza e prático manuseio,</t>
   </si>
   <si>
+    <t>Cristália</t>
+  </si>
+  <si>
+    <t>COMPLEXO B + ÁCIDO ASCÓRBICO + FRUTOSE SOLUÇÃO INJETÁVEL EV CONTÉM1 AMPOLA A DE 10ML E 1 AMPOLA B DE 10ML</t>
+  </si>
+  <si>
     <t>LENÇOL PARA MACA, ALGODAO CRU EXP, L, COM 1,70X1,00 COM NO MINIMO 180 FIOS, COM ELASTICO NAS LATERAIS,</t>
   </si>
   <si>
     <t>LAMINA BISTURI Nº 11, descartável, estéril, em aço inoxidável, sem rebarbas, com corte afiado e que adaptem aos cabos de bisturi padrão, Embalagem individual, em papel laminado, abertura em pétala,</t>
   </si>
   <si>
+    <t>DEXAMETAXONA 4MG/ML 2,5ML</t>
+  </si>
+  <si>
     <t>LAMINA BISTURI Nº 15 DESCARTÁVEL, ESTÉRIL, EM AÇO INOXIDÁVEL, SEM REBARBAS,, ,COM CORTE AFIADO E QUE ADAPTEM AOS CABOS DE BISTURI PADRÃO, EMBALAGEM INDIVIDUAL, EM PAPEL LAMINADO, ABERTURA EM PÉTALA,</t>
   </si>
   <si>
@@ -271,18 +346,30 @@
     <t>LANCETA ESTÉRIL E DESCARTAVÉL SIMPLES PARA PUNÇÃO DIGITAL EM DIABÉTICOS, CAIXA COM 100 UNIDADEES</t>
   </si>
   <si>
+    <t>DICLOFENACO DE SÓDIO 25MG/ML 3ML</t>
+  </si>
+  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 6,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
     <t>LUVA CIRURGICA ESTERIL Nº 7,0 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
+    <t>Takeda</t>
+  </si>
+  <si>
+    <t>DIMENIDRINATO 30 MG + PIRIDOXINA 50 MG INJ. + GLICOSE 1000 MG + FRUTOSE 1000 MG ENDOVENOSO 10 ML</t>
+  </si>
+  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 7,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
     <t>LUVA CIRURGICA ESTERIL Nº 8,0 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
+    <t>DIPIRONA SÓDICA 1G/2ML</t>
+  </si>
+  <si>
     <t>LUVA CIRURGICA ESTERIL Nº 8,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
@@ -301,9 +388,18 @@
     <t>LUVA FORRADA PARA LIMPEZA, TAMANHO G, DE BORRACHA, MATERIAL LÁTEX NATURAL, AVELUDADA INTERNAMENTE E ANTIDERRAPANTE EMBALADA O PAR</t>
   </si>
   <si>
+    <t>ENOXAPARINA SODICA 60MG/0,6 ML SOLUCAO INJETAVEL USO SUBCUTANEO/INTRAVENOSO COM 2 SERINGAS PRE-ENCHIDAS COM 0,6 ML</t>
+  </si>
+  <si>
     <t>LUVA FORRADA PARA LIMPEZA, TAMANHO M, DE BORRACHA, MATERIAL LÁTEX NATURAL, AVELUDADA INTERNAMENTE E ANTIDERRAPANTE EMBALADA O PAR</t>
   </si>
   <si>
+    <t>Mylan</t>
+  </si>
+  <si>
+    <t>ENOXAPARINA SÓDICA 40MG/0,4ML SOL. INJETÁVEL VIA SUBCUTÂNEA/ IV</t>
+  </si>
+  <si>
     <t>LUVA FORRADA PARA LIMPEZA, TAMANHO P, DE BORRACHA, MATERIAL LÁTEX NATURAL, AVELUDADA INTERNAMENTE E ANTIDERRAPANTE EMBALADA O PAR</t>
   </si>
   <si>
@@ -334,12 +430,18 @@
     <t>FIO DE NYLON 5,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO</t>
   </si>
   <si>
+    <t>FOSFATO DE CLINDAMICINA 150 MG/ML 4ML USO IV/IM INJETAVEL</t>
+  </si>
+  <si>
     <t>FIO DE NYLON 5,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
   </si>
   <si>
     <t>FIO DE NYLON 6,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
   </si>
   <si>
+    <t>FUROSEMIDA 20MG.2ML</t>
+  </si>
+  <si>
     <t>FIO DE NYLON 6,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
   </si>
   <si>
@@ -358,6 +460,9 @@
     <t>SCALP Nº 25 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
   </si>
   <si>
+    <t>GLICOSE 50% 10ML</t>
+  </si>
+  <si>
     <t>SCALP Nº 27 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
   </si>
   <si>
@@ -367,6 +472,9 @@
     <t>SERINGA DESC 10ML COM AGULHA 25X7 ESTERIL,</t>
   </si>
   <si>
+    <t>HEPARINA SÓDICA SUBCUTÂNEA 5000 UI/0,25ML</t>
+  </si>
+  <si>
     <t>SERINGA DESCARTÁVEL 20 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
   </si>
   <si>
@@ -379,9 +487,15 @@
     <t>SERINGA DESCARTÁVEL 03 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
   </si>
   <si>
+    <t>HIDROCORTISONA 100 MG</t>
+  </si>
+  <si>
     <t>SERINGA DESCARTÁVEL 03 ML C/ AGULHA 25 X 7 estéril,,</t>
   </si>
   <si>
+    <t>HIDROCORTISONA 500MG</t>
+  </si>
+  <si>
     <t>SERINGA DESCARTÁVEL 05 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
   </si>
   <si>
@@ -427,6 +541,12 @@
     <t>SONDA FOLEN Nº 18, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
   </si>
   <si>
+    <t>Halex Istar</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 5MG/ML 100ML INJETÁVEL BOLSA</t>
+  </si>
+  <si>
     <t>SONDA FOLEN Nº 20, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
   </si>
   <si>
@@ -460,12 +580,18 @@
     <t>TERMOMETRO DIGITAL, VISOR EM DISPLAY LED, AUTO MEMÓRIA, MOSTRA A ÚLTIMA TEMPERATURA PARA COMPARAÇÃO, PRECISÃO DE + OU - 01°C</t>
   </si>
   <si>
+    <t>OMEPRAZOL 40 MG INJETAVEL</t>
+  </si>
+  <si>
     <t>FIXADOR CITOLÓGICO DESTINADO À FIXAÇÃO DE ESFREGAçOS FEITOS A PARTIR DE MATERIAL, COLHIDO DA EXTO CÉRVICE, ENDOCÉRVICE, PAREDE VAGINAL E ESFREGAÇOS DE MATERIAL COLHIDO EM OUTRAS ÁREAS DO ORGANISMO À BASE DE PROPILENOGALÃOICOL E ÁLCOOL SISTEMA TIPO SPRAY COM PROPRIEDADES PARA FIXAÇÃO E SUSTENTAÇÃO DA INTEGRIDADE CELULAR DE ESFREGAÇOS DE MATERIAL BIOLÓGICO ESTENDIDOS EM LÂMINA DE VIDRO EMBALAGEM DE 100ML</t>
   </si>
   <si>
     <t>PRO-PÉ PRODUZIDO TECIDO 100% POLIPROPILENO, SISTEMA DE ELÁSTICO DUPLO DE ALTA QUALIDADE SOLDADO EM TODA VOLTA PRODUTO DESCARTÁVEL, UNIDADE COM NO MÍNIMO 100 UNIDADEES</t>
   </si>
   <si>
+    <t>ONDANSETRONA 8MG AMPOLAS 4ML</t>
+  </si>
+  <si>
     <t>ÓCULOS DE PROTEÇÃO INDIVIDUAL, USO HOSPITALAR LENTE EM POLICARBONATO, TRANSPARENTE, COM PELÍCULA ANTE EMBAÇANTE, ARMAÇÃO EM NYLON PRETO E FLEXÍVEL, LENTES COM APOIO NASAL E PROTEÇÃO LATERAL EM POLICARBONATO, HASTES TIPO ESPÁTULA COM AJUSTE DE COMPRIMENTO LAVÁVEL E PASSÍVEL DE DESINFECÇÃO QUÍMICA</t>
   </si>
   <si>
@@ -484,18 +610,39 @@
     <t>CAMISOLAS HOSPITALAR, NA COR VERDE CLARO BEBÊ OU BEGE, MATERIAL TRICOLINI 100% ALGODÃO TAMANHO P, M E G,DE AMARRAÇÃO COM FITAS TRESPASSADOS</t>
   </si>
   <si>
+    <t>PIPERACILINA + TAZOBACTAM 4G + 500MG INJETÁVEL FRASCO AMPOLA</t>
+  </si>
+  <si>
     <t>LENÇOL DESCARTAVEL TNT com elastico para maca 90cm x 2m, cor branco, UNIDADE com 10 UNIDADEes</t>
   </si>
   <si>
+    <t>POLIVITAMÍNICO COMPLEXO B 2ML</t>
+  </si>
+  <si>
     <t>PAPEL LENÇOL HOSPITALAR 70CM X 50 METROS, 100% CELULOSE VIRGEM, BRANCO, QUALIDADE IGUAL OU SUPERIOR A MARCA PLUMAX</t>
   </si>
   <si>
+    <t>POMADA COLAGENASE + CLORANFENICOL 30 GR</t>
+  </si>
+  <si>
     <t>FIXADOR DE CANULA TRAQUIOSTOMIA INFANTIL,</t>
   </si>
   <si>
+    <t>Belfar</t>
+  </si>
+  <si>
+    <t>POMADA NEOMICINA + BACITRACINA 10 G</t>
+  </si>
+  <si>
     <t>OXIMETRO DE DEDO, PORTATIL PARA MEDIR SPO2 (OXIGENIO NO SANGUE) AFERIÇÃO DE FREQUENCIA CARDIACA COM CURVA PLESTIMOGRAFICA, RESULTADO RAPIDO, NAO INVASIVO, SEM DOR, AFERIÇÃO DE HEMOGALÃOOBINA 35/100% PRECISÃO DE +- 2% AFERIÇÃO DEBATIMENTOS CARDIACOS 30-250 BPM (PRECISÃO DE MAIS OU MENOS 1BPM) AUTO DESLIGAMENTO EM 08 SEGUNDOS, SINALIZADOR VISUAL DO NIVEL DE BATERIA, AUTONOMIA DE 20HORASUTILIZANDO PILHAS 2X AAA</t>
   </si>
   <si>
+    <t>Nativita</t>
+  </si>
+  <si>
+    <t>POMADA SULFADIAZINA DE PRATA 1% BISNAGA 50G</t>
+  </si>
+  <si>
     <t>KIT PARA RETIRADA DE PONTOS, CONTENDO UM ESTOJO INOX, 10X0,50X0,2 CM, 1 MANTA DE SILICONE 12X0,5X0,2CM - PINÇA DE RETIRADA DE PONTOS 10CM TESOURA SPENCER RETA</t>
   </si>
   <si>
@@ -523,21 +670,42 @@
     <t>CADEIRA DE BANHO, CONFECCIONADA EM AÇO CARBONO IDEAL PARA USO SANITÁRIO E CHUVEIRO ASSENTO SANITÁRIO REMOVÍVEL, APOIO PARA OS BRAÇOS FIXOS APOIO PARA OS PÉS FIXOS, FREIOS BILATERAIS RODAS TRASEIRAS ARO 06, GIRATÓRIAS COM PNEUS MACIÇOS RODAS DIANTEIRAS ARO 06, COM PNEUS MACIÇOS POSICIONADAS NA PARTE INTERNA DA CADEIRA, ENCOSTO EM NYLON LARGURA DO ASSENTO 40 CM PROFUNDIDADE DO ASSENTO 40 CM ALTURA ENCOSTO 38 CM ALTURA DO ASSENTO AO CHÃO 50 CM COMPRIMENTO TOTAL DA CADEIRA 54 CM LARGURA TOTAL ABERTA 44 CM, LARGURA TOTAL FECHADA NÃO FECHA, ALTURA DO CHÃO À MANOPLA 93 CM, PESO DA CADEIRA 8 KG, CAPACIDADE MÁXIMA DE PESO 150 KG, ALTURA DO CHÃO AO AP DE BRAÇO 64 CM ALTURA DO ASSENTO AO AP DE BRAÇO 14 CM, GARANTIA DE 01 ANO</t>
   </si>
   <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>SORO GLISOFIOLÓGICO 500ML SISTEMA FECHADO</t>
+  </si>
+  <si>
     <t>NEBULIZADOR/INALADOR PORTÁTIL, CONTENDO FILTROS, MANGUEIRA, MÁSCARA PARA ADULTO, MÁSCARA PARA CRIANÇA, PIPETA NEBULIZADOR, VOLTAGEM 110W/220W GARANTIA DE 01 ANO</t>
   </si>
   <si>
+    <t>SORO FISIOLÓGICO 0,9% 100ML SISTEMA FECHADO</t>
+  </si>
+  <si>
     <t>MACA HOSPITALAR, PRÓPRIO PARA EXAMES, REPOUSO E MASSAGEM, LEITO ESTOFADO, DENSIDADE 23, ARMAÇÃO TUBULAR EM PINTURA EPÓXI, CABECEIRA RECLINÁVEL, SUPORTE PARA LENÇOL DESCARTÁVEL, PÉS COM PONTEIRAS PVC, CAPACIDADE ATÉ 150 KG DIMENSÕES EXTERNAS COMPRIMENTO 181CM, LARGURA 0,61 CM ALTURA 0,81 CM GARANTIA DE 01 ANO</t>
   </si>
   <si>
+    <t>SORO FISIOLÓGICO 0,9% 250ML SISTEMA FECHADO</t>
+  </si>
+  <si>
     <t>MESA GINECOLÓGICA, ASSENTO FIXO, SUPORTE PARA BALDE, ENCOSTO REGULÁVEL, APOIO PARA OS PÉS, PINTURA EM EPÓXI, REVESTIMENTO EM COURVIN, PÉS COM PONTEIRAS PLÁSTICAS, LEITO ESTOFADO DIVIDIDO EM TRÊS PARTES, CAPACIDADE SUPORTADA APROXIMADA 90 KG, PESO APROXIMADO DA MESA GINECOLÓGICA 20 KG, DIMENSÕES DA MESA GINECOLÓGICA ABERTA140CM (A) X 53CM (L) 180CM (C)GARANTIA DE 01 ANO</t>
   </si>
   <si>
+    <t>SORO FISIOLÓGICO 0,9% 500ML SISTEMA FECHADO</t>
+  </si>
+  <si>
     <t>TESTE RÁPIDO SWAB NASAL PARA COVID-19 – TESTE RÁPIDO DE DIAGNÓSTICO IN VITRO PAR, Teste Rápido SWAB nasal para COVID-19 – teste rápido de diagnóstico in vitro para detecção qualitativa do antígeno SARS-CoV-2 (Ag) em amostra de esfregaço nasofaríngeo humano, Caixa contendo: - 25 dispositivos de teste com dessecante em bolsa individual, - Tampão (1 x 9 ml/frasco) - 25 tubos de extração, - 1 swab controle positivo, - 1 swab controle negativo, - 25 swabs nasofaríngeos esterilizados para coleta de amostra, - 1 suporte para tubos, - 1 guia de referência rápida (nasofaríngea) - 1 instrução de uso, Caixa com 25 UNIDADEes,</t>
   </si>
   <si>
+    <t>SORO FISIOLÓGICO 0,9% 1000ML SISTEMA FECHADO</t>
+  </si>
+  <si>
     <t>FITA ANTROPOMÉTRICA PARA REALIZAR MEDIÇÕES PRECISAS DO CORPO, COMO CABEÇA, ABDÔMEN E CINTURA, MATERIAL PLÁSTICA ABS RESOLUÇÃO EM MILÍMETROS RETRAÇÃO AUTOMÁTICA FAIXA DE MEDIÇÃO 150CM,</t>
   </si>
   <si>
+    <t>SORO GLICOSADO 5% 500 ML SISTEMA FECHADO</t>
+  </si>
+  <si>
     <t>ADIPÔMETRO (PLICÔMETRO) PORTÁTIL DESTINADO A MEDIR A ESPESSURA DO TECIDO ADIPOSO, EM DOBRAS CUTÂNEAS TRICIPTAL, SUBESCAPULAR, AXILAR MÉDIA, SUPRA-ILÍACA, ABDOMINAL, BICIPTAL, TORÁXICA, SUPRA-ESPINAL, PANTURRILHA MEDIAL E COXA,DESCRICAO DIPÔMETRO CIENTÍFICO EM POLÍMERO MATERIAL TERMO PLÁSTICO INJETÁVEL ABS ESCALA GRADUADA DE MEDIÇÃO DÉCIMOS DE MILÍMETRO APALPADORES OVALADOS COM ÁREA DE APROXIMADAMENTE 97MM² AMPLITUDE DE 0 A 65MM TOLERÂNCIA DE MEDIÇÃO +/- 0,5MM DIMENSÕES 25X15X50CM (CAIXALXA) PESO LÍQUIDO 320G, ACOMPANHA LAUDO DE CALIBRAÇÃO,GARANTIA 06 MESES</t>
   </si>
   <si>
@@ -547,9 +715,15 @@
     <t>SONDA ASPIRAÇÃO TRAQUEAL C/ VALVULA TUBO DESCARTAVEL N08,</t>
   </si>
   <si>
+    <t>SORO RINGER COM LACTADO 500ML SISTEMA FECHADO</t>
+  </si>
+  <si>
     <t>SONDA ASPIRAÇÃO TRAQUEAL C/ VALVULA TUBO DESCARTAVEL N10,</t>
   </si>
   <si>
+    <t>SULFATO DE ATROPINA 0,250 MG/ML</t>
+  </si>
+  <si>
     <t>SONDA ASPIRAÇÃO TRAQUEAL C/ VALVULA TUBO DESCARTAVEL N12,</t>
   </si>
   <si>
@@ -568,18 +742,27 @@
     <t>PAPAGAIO NOVA LUMINOX 26X13 MARRECO,</t>
   </si>
   <si>
+    <t>SULFATO DE SALBUTAMOL 100MCG/DOSE AEROSOL 200 DOSES</t>
+  </si>
+  <si>
     <t>SONDA ENTERICA P/ALIMENTAÇÃO E C/PESO E COM FIO GUIA INSERIDO, LUMEM INTENO E, SISTEMA DE PESO REVESTIDO POR UMA SUBSTANCIA LUBRIFICANTE HIDROFILA (HYDROMER), 100º POLIURETO RADIOPACO, CONECTOR EM Y Nº12 (43-109CM)</t>
   </si>
   <si>
     <t>SONDA NASOGÁSTRICA CURTA Nº04, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
   </si>
   <si>
+    <t>TENOXICAN 20 MG FR/AP</t>
+  </si>
+  <si>
     <t>SONDA NASOGÁSTRICA CURTA Nº06, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
   </si>
   <si>
     <t>SONDA NASOGÁSTRICA CURTA Nº08, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
   </si>
   <si>
+    <t>TRAMANDOL 50 MG/ML AMPOLA 2ML</t>
+  </si>
+  <si>
     <t>SONDA NASOGÁSTRICA CURTA Nº10, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
   </si>
   <si>
@@ -607,12 +790,18 @@
     <t>SONDA NASOGÁSTRICA longa Nº 08 em PVC, flexível, atóxico e estéril,</t>
   </si>
   <si>
+    <t>DIPIRONA SÓDICA 500 MILIGRAMAS/MILILITRO, SOLUÇÃO INJETÁVEL, AMPOLA COM 02 ML</t>
+  </si>
+  <si>
     <t>SONDA NASOGÁSTRICA LONGA Nº 10 em PVC, flexível, atóxico e estéril,,</t>
   </si>
   <si>
     <t>SONDA NASOGÁSTRICA LONGA Nº 12 em PVC, flexível, atóxico e estéril,,</t>
   </si>
   <si>
+    <t>AMOXICILINA+CLAVULANATO 1G+200MG PÓ PARA SOLUÇÃO INJETAVEL INTRAVENOSO</t>
+  </si>
+  <si>
     <t>SONDA NASOGÁSTRICA LONGA Nº 14 em PVC, flexível, atóxico e estéril,,</t>
   </si>
   <si>
@@ -631,9 +820,18 @@
     <t>TUBO DE LÁTEX NATURAL Nº 201 15MTS, - Tamanho: 15 metros, - Cor: Amarelo, - Diâmetro externo: 8,0mm, - Diâmetro interno: 4,0mm, - Reg, ANVISA: 80286000006, - Tubo de Látex, - Não estéril, - Para uso único, - Produto com validade,</t>
   </si>
   <si>
+    <t>CLORIDRATO DE CLONIDINA 150MCG/ML SOL INJETAVEL 1ML</t>
+  </si>
+  <si>
     <t>UMIDIFICADOR COM FRASCO 250 ML ROSCA METAL P/ OXIGÊNIO COM EXTENÇÃO E MASCARA,</t>
   </si>
   <si>
+    <t>União Química</t>
+  </si>
+  <si>
+    <t>CETOPROFENO 100MG INJETAVEL INTRAVENOSO</t>
+  </si>
+  <si>
     <t>VALVULA E BOLSA RESERVATORIO DE OXIGÊNIO AMBU ADULTO VOL, 120ML,</t>
   </si>
   <si>
@@ -644,6 +842,12 @@
   </si>
   <si>
     <t>SOLUÇÃO FISIOLOGICA 0,9% DE USO TOPICO VOL 500 ML COM GOTEJADOR,</t>
+  </si>
+  <si>
+    <t>Eurofarma</t>
+  </si>
+  <si>
+    <t>CEFTRIAXONA 1G IM/IV</t>
   </si>
   <si>
     <t>TESTE DE GRAVIDEZ, CONTEM UMA TIRA DE TESTE, E UM FRASCO COLETOR,</t>
@@ -1566,8 +1770,8 @@
       <c r="I2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>13</v>
+      <c r="J2" s="0">
+        <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>13</v>
@@ -1601,8 +1805,8 @@
       <c r="I3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>13</v>
+      <c r="J3" s="0">
+        <v>0</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>13</v>
@@ -1636,8 +1840,8 @@
       <c r="I4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>13</v>
+      <c r="J4" s="0">
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>13</v>
@@ -1660,22 +1864,22 @@
         <v>200</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="J5" s="0">
+        <v>4.42</v>
+      </c>
+      <c r="K5" s="0">
+        <v>884</v>
       </c>
     </row>
     <row r="6">
@@ -1689,28 +1893,28 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0">
         <v>200</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="0">
+        <v>7.15</v>
+      </c>
+      <c r="K6" s="0">
+        <v>3575</v>
       </c>
     </row>
     <row r="7">
@@ -1724,28 +1928,28 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0">
         <v>5000</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="J7" s="0">
+        <v>2.99</v>
+      </c>
+      <c r="K7" s="0">
+        <v>2541.5</v>
       </c>
     </row>
     <row r="8">
@@ -1759,28 +1963,28 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8" s="0">
         <v>5000</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.65</v>
+      </c>
+      <c r="K8" s="0">
+        <v>6500</v>
       </c>
     </row>
     <row r="9">
@@ -1794,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0">
         <v>5000</v>
@@ -1811,8 +2015,8 @@
       <c r="I9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>13</v>
+      <c r="J9" s="0">
+        <v>0</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>13</v>
@@ -1829,28 +2033,28 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0">
         <v>5000</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="J10" s="0">
+        <v>12.87</v>
+      </c>
+      <c r="K10" s="0">
+        <v>2574</v>
       </c>
     </row>
     <row r="11">
@@ -1864,28 +2068,28 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E11" s="0">
         <v>10000</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="J11" s="0">
+        <v>76.7</v>
+      </c>
+      <c r="K11" s="0">
+        <v>4602</v>
       </c>
     </row>
     <row r="12">
@@ -1899,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E12" s="0">
         <v>10000</v>
@@ -1916,8 +2120,8 @@
       <c r="I12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>13</v>
+      <c r="J12" s="0">
+        <v>0</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>13</v>
@@ -1934,7 +2138,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0">
         <v>1000</v>
@@ -1951,8 +2155,8 @@
       <c r="I13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>13</v>
+      <c r="J13" s="0">
+        <v>0</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>13</v>
@@ -1969,7 +2173,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0">
         <v>500</v>
@@ -1986,8 +2190,8 @@
       <c r="I14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>13</v>
+      <c r="J14" s="0">
+        <v>0</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>13</v>
@@ -2004,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E15" s="0">
         <v>500</v>
@@ -2021,8 +2225,8 @@
       <c r="I15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>13</v>
+      <c r="J15" s="0">
+        <v>0</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>13</v>
@@ -2039,7 +2243,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E16" s="0">
         <v>500</v>
@@ -2056,8 +2260,8 @@
       <c r="I16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>13</v>
+      <c r="J16" s="0">
+        <v>0</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>13</v>
@@ -2074,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E17" s="0">
         <v>500</v>
@@ -2091,8 +2295,8 @@
       <c r="I17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>13</v>
+      <c r="J17" s="0">
+        <v>0</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>13</v>
@@ -2109,7 +2313,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E18" s="0">
         <v>500</v>
@@ -2126,8 +2330,8 @@
       <c r="I18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>13</v>
+      <c r="J18" s="0">
+        <v>0</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>13</v>
@@ -2144,7 +2348,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E19" s="0">
         <v>500</v>
@@ -2161,8 +2365,8 @@
       <c r="I19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>13</v>
+      <c r="J19" s="0">
+        <v>0</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>13</v>
@@ -2179,7 +2383,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E20" s="0">
         <v>3000</v>
@@ -2196,8 +2400,8 @@
       <c r="I20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>13</v>
+      <c r="J20" s="0">
+        <v>0</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>13</v>
@@ -2214,28 +2418,28 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="0">
         <v>3000</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="J21" s="0">
+        <v>12.35</v>
+      </c>
+      <c r="K21" s="0">
+        <v>17290</v>
       </c>
     </row>
     <row r="22">
@@ -2249,7 +2453,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E22" s="0">
         <v>3000</v>
@@ -2266,8 +2470,8 @@
       <c r="I22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>13</v>
+      <c r="J22" s="0">
+        <v>0</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>13</v>
@@ -2284,7 +2488,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E23" s="0">
         <v>3000</v>
@@ -2301,8 +2505,8 @@
       <c r="I23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>13</v>
+      <c r="J23" s="0">
+        <v>0</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>13</v>
@@ -2319,7 +2523,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E24" s="0">
         <v>3000</v>
@@ -2336,8 +2540,8 @@
       <c r="I24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>13</v>
+      <c r="J24" s="0">
+        <v>0</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>13</v>
@@ -2354,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E25" s="0">
         <v>4000</v>
@@ -2371,8 +2575,8 @@
       <c r="I25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>13</v>
+      <c r="J25" s="0">
+        <v>0</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>13</v>
@@ -2389,7 +2593,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E26" s="0">
         <v>3000</v>
@@ -2406,8 +2610,8 @@
       <c r="I26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>13</v>
+      <c r="J26" s="0">
+        <v>0</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>13</v>
@@ -2424,28 +2628,28 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E27" s="0">
         <v>200</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="J27" s="0">
+        <v>3.38</v>
+      </c>
+      <c r="K27" s="0">
+        <v>10140</v>
       </c>
     </row>
     <row r="28">
@@ -2459,7 +2663,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E28" s="0">
         <v>200</v>
@@ -2476,8 +2680,8 @@
       <c r="I28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>13</v>
+      <c r="J28" s="0">
+        <v>0</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>13</v>
@@ -2494,7 +2698,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E29" s="0">
         <v>15</v>
@@ -2511,8 +2715,8 @@
       <c r="I29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>13</v>
+      <c r="J29" s="0">
+        <v>0</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>13</v>
@@ -2529,7 +2733,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E30" s="0">
         <v>2000</v>
@@ -2546,8 +2750,8 @@
       <c r="I30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>13</v>
+      <c r="J30" s="0">
+        <v>0</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>13</v>
@@ -2564,7 +2768,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E31" s="0">
         <v>2000</v>
@@ -2581,8 +2785,8 @@
       <c r="I31" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="0" t="s">
-        <v>13</v>
+      <c r="J31" s="0">
+        <v>0</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>13</v>
@@ -2599,7 +2803,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E32" s="0">
         <v>2000</v>
@@ -2616,8 +2820,8 @@
       <c r="I32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="0" t="s">
-        <v>13</v>
+      <c r="J32" s="0">
+        <v>0</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>13</v>
@@ -2634,7 +2838,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E33" s="0">
         <v>2000</v>
@@ -2651,8 +2855,8 @@
       <c r="I33" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="0" t="s">
-        <v>13</v>
+      <c r="J33" s="0">
+        <v>0</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>13</v>
@@ -2669,7 +2873,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E34" s="0">
         <v>2000</v>
@@ -2686,8 +2890,8 @@
       <c r="I34" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="0" t="s">
-        <v>13</v>
+      <c r="J34" s="0">
+        <v>0</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>13</v>
@@ -2704,28 +2908,28 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E35" s="0">
         <v>2000</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="J35" s="0">
+        <v>8.97</v>
+      </c>
+      <c r="K35" s="0">
+        <v>17940</v>
       </c>
     </row>
     <row r="36">
@@ -2739,28 +2943,28 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E36" s="0">
         <v>2000</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="J36" s="0">
+        <v>17.55</v>
+      </c>
+      <c r="K36" s="0">
+        <v>8775</v>
       </c>
     </row>
     <row r="37">
@@ -2774,28 +2978,28 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E37" s="0">
         <v>4000</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="J37" s="0">
+        <v>6.37</v>
+      </c>
+      <c r="K37" s="0">
+        <v>19110</v>
       </c>
     </row>
     <row r="38">
@@ -2809,7 +3013,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E38" s="0">
         <v>4000</v>
@@ -2826,8 +3030,8 @@
       <c r="I38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="0" t="s">
-        <v>13</v>
+      <c r="J38" s="0">
+        <v>0</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>13</v>
@@ -2844,7 +3048,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E39" s="0">
         <v>4000</v>
@@ -2861,8 +3065,8 @@
       <c r="I39" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="0" t="s">
-        <v>13</v>
+      <c r="J39" s="0">
+        <v>0</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>13</v>
@@ -2879,7 +3083,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E40" s="0">
         <v>5000</v>
@@ -2896,8 +3100,8 @@
       <c r="I40" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="0" t="s">
-        <v>13</v>
+      <c r="J40" s="0">
+        <v>0</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>13</v>
@@ -2914,28 +3118,28 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E41" s="0">
         <v>5000</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="J41" s="0">
+        <v>3.25</v>
+      </c>
+      <c r="K41" s="0">
+        <v>4550</v>
       </c>
     </row>
     <row r="42">
@@ -2949,7 +3153,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E42" s="0">
         <v>5000</v>
@@ -2966,8 +3170,8 @@
       <c r="I42" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="0" t="s">
-        <v>13</v>
+      <c r="J42" s="0">
+        <v>0</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>13</v>
@@ -2984,28 +3188,28 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E43" s="0">
         <v>2000</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="J43" s="0">
+        <v>44.2</v>
+      </c>
+      <c r="K43" s="0">
+        <v>17680</v>
       </c>
     </row>
     <row r="44">
@@ -3019,7 +3223,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E44" s="0">
         <v>6000</v>
@@ -3036,8 +3240,8 @@
       <c r="I44" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="0" t="s">
-        <v>13</v>
+      <c r="J44" s="0">
+        <v>0</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>13</v>
@@ -3054,7 +3258,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E45" s="0">
         <v>2000</v>
@@ -3071,8 +3275,8 @@
       <c r="I45" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="0" t="s">
-        <v>13</v>
+      <c r="J45" s="0">
+        <v>0</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>13</v>
@@ -3089,7 +3293,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E46" s="0">
         <v>100</v>
@@ -3106,8 +3310,8 @@
       <c r="I46" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="0" t="s">
-        <v>13</v>
+      <c r="J46" s="0">
+        <v>0</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>13</v>
@@ -3124,7 +3328,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E47" s="0">
         <v>10000</v>
@@ -3141,8 +3345,8 @@
       <c r="I47" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="0" t="s">
-        <v>13</v>
+      <c r="J47" s="0">
+        <v>0</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>13</v>
@@ -3159,7 +3363,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E48" s="0">
         <v>5000</v>
@@ -3176,8 +3380,8 @@
       <c r="I48" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="0" t="s">
-        <v>13</v>
+      <c r="J48" s="0">
+        <v>0</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>13</v>
@@ -3194,7 +3398,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E49" s="0">
         <v>3000</v>
@@ -3211,8 +3415,8 @@
       <c r="I49" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="0" t="s">
-        <v>13</v>
+      <c r="J49" s="0">
+        <v>0</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>13</v>
@@ -3229,7 +3433,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E50" s="0">
         <v>5000</v>
@@ -3246,8 +3450,8 @@
       <c r="I50" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="0" t="s">
-        <v>13</v>
+      <c r="J50" s="0">
+        <v>0</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>13</v>
@@ -3264,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E51" s="0">
         <v>100</v>
@@ -3281,8 +3485,8 @@
       <c r="I51" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="0" t="s">
-        <v>13</v>
+      <c r="J51" s="0">
+        <v>0</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>13</v>
@@ -3299,7 +3503,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E52" s="0">
         <v>1000</v>
@@ -3316,8 +3520,8 @@
       <c r="I52" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="0" t="s">
-        <v>13</v>
+      <c r="J52" s="0">
+        <v>0</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>13</v>
@@ -3334,7 +3538,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E53" s="0">
         <v>2000</v>
@@ -3351,8 +3555,8 @@
       <c r="I53" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="0" t="s">
-        <v>13</v>
+      <c r="J53" s="0">
+        <v>0</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>13</v>
@@ -3369,7 +3573,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E54" s="0">
         <v>5000</v>
@@ -3386,8 +3590,8 @@
       <c r="I54" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="0" t="s">
-        <v>13</v>
+      <c r="J54" s="0">
+        <v>0</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>13</v>
@@ -3404,7 +3608,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E55" s="0">
         <v>2000</v>
@@ -3421,8 +3625,8 @@
       <c r="I55" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J55" s="0" t="s">
-        <v>13</v>
+      <c r="J55" s="0">
+        <v>0</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>13</v>
@@ -3439,7 +3643,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E56" s="0">
         <v>2000</v>
@@ -3456,8 +3660,8 @@
       <c r="I56" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="0" t="s">
-        <v>13</v>
+      <c r="J56" s="0">
+        <v>0</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>13</v>
@@ -3474,7 +3678,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E57" s="0">
         <v>2000</v>
@@ -3491,8 +3695,8 @@
       <c r="I57" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="0" t="s">
-        <v>13</v>
+      <c r="J57" s="0">
+        <v>0</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>13</v>
@@ -3509,7 +3713,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E58" s="0">
         <v>2000</v>
@@ -3526,8 +3730,8 @@
       <c r="I58" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="0" t="s">
-        <v>13</v>
+      <c r="J58" s="0">
+        <v>0</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>13</v>
@@ -3544,7 +3748,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E59" s="0">
         <v>3000</v>
@@ -3561,8 +3765,8 @@
       <c r="I59" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="0" t="s">
-        <v>13</v>
+      <c r="J59" s="0">
+        <v>0</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>13</v>
@@ -3579,7 +3783,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E60" s="0">
         <v>200</v>
@@ -3596,8 +3800,8 @@
       <c r="I60" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="0" t="s">
-        <v>13</v>
+      <c r="J60" s="0">
+        <v>0</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>13</v>
@@ -3614,7 +3818,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E61" s="0">
         <v>200</v>
@@ -3631,8 +3835,8 @@
       <c r="I61" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="0" t="s">
-        <v>13</v>
+      <c r="J61" s="0">
+        <v>0</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>13</v>
@@ -3649,7 +3853,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E62" s="0">
         <v>200</v>
@@ -3666,8 +3870,8 @@
       <c r="I62" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="0" t="s">
-        <v>13</v>
+      <c r="J62" s="0">
+        <v>0</v>
       </c>
       <c r="K62" s="0" t="s">
         <v>13</v>
@@ -3684,28 +3888,28 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E63" s="0">
         <v>200</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>13</v>
+        <v>96</v>
+      </c>
+      <c r="J63" s="0">
+        <v>3.9</v>
+      </c>
+      <c r="K63" s="0">
+        <v>4680</v>
       </c>
     </row>
     <row r="64">
@@ -3719,28 +3923,28 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E64" s="0">
         <v>200</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="J64" s="0">
+        <v>10.4</v>
+      </c>
+      <c r="K64" s="0">
+        <v>20800</v>
       </c>
     </row>
     <row r="65">
@@ -3754,7 +3958,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E65" s="0">
         <v>200</v>
@@ -3771,8 +3975,8 @@
       <c r="I65" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="0" t="s">
-        <v>13</v>
+      <c r="J65" s="0">
+        <v>0</v>
       </c>
       <c r="K65" s="0" t="s">
         <v>13</v>
@@ -3789,28 +3993,28 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E66" s="0">
         <v>5000</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="J66" s="0">
+        <v>3.51</v>
+      </c>
+      <c r="K66" s="0">
+        <v>28080</v>
       </c>
     </row>
     <row r="67">
@@ -3824,7 +4028,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E67" s="0">
         <v>5000</v>
@@ -3841,8 +4045,8 @@
       <c r="I67" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J67" s="0" t="s">
-        <v>13</v>
+      <c r="J67" s="0">
+        <v>0</v>
       </c>
       <c r="K67" s="0" t="s">
         <v>13</v>
@@ -3859,7 +4063,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E68" s="0">
         <v>5000</v>
@@ -3876,8 +4080,8 @@
       <c r="I68" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="0" t="s">
-        <v>13</v>
+      <c r="J68" s="0">
+        <v>0</v>
       </c>
       <c r="K68" s="0" t="s">
         <v>13</v>
@@ -3894,7 +4098,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E69" s="0">
         <v>5000</v>
@@ -3911,8 +4115,8 @@
       <c r="I69" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="0" t="s">
-        <v>13</v>
+      <c r="J69" s="0">
+        <v>0</v>
       </c>
       <c r="K69" s="0" t="s">
         <v>13</v>
@@ -3929,7 +4133,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E70" s="0">
         <v>5000</v>
@@ -3946,8 +4150,8 @@
       <c r="I70" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="0" t="s">
-        <v>13</v>
+      <c r="J70" s="0">
+        <v>0</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>13</v>
@@ -3964,28 +4168,28 @@
         <v>70</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E71" s="0">
         <v>500</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>13</v>
+        <v>108</v>
+      </c>
+      <c r="J71" s="0">
+        <v>1.95</v>
+      </c>
+      <c r="K71" s="0">
+        <v>9750</v>
       </c>
     </row>
     <row r="72">
@@ -3999,7 +4203,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E72" s="0">
         <v>2000</v>
@@ -4016,8 +4220,8 @@
       <c r="I72" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="0" t="s">
-        <v>13</v>
+      <c r="J72" s="0">
+        <v>0</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>13</v>
@@ -4034,28 +4238,28 @@
         <v>72</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E73" s="0">
         <v>2000</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="J73" s="0">
+        <v>24.7</v>
+      </c>
+      <c r="K73" s="0">
+        <v>24700</v>
       </c>
     </row>
     <row r="74">
@@ -4069,7 +4273,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E74" s="0">
         <v>2000</v>
@@ -4086,8 +4290,8 @@
       <c r="I74" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J74" s="0" t="s">
-        <v>13</v>
+      <c r="J74" s="0">
+        <v>0</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>13</v>
@@ -4104,28 +4308,28 @@
         <v>74</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E75" s="0">
         <v>2000</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>13</v>
+        <v>115</v>
+      </c>
+      <c r="J75" s="0">
+        <v>2.08</v>
+      </c>
+      <c r="K75" s="0">
+        <v>16640</v>
       </c>
     </row>
     <row r="76">
@@ -4139,7 +4343,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E76" s="0">
         <v>2000</v>
@@ -4156,8 +4360,8 @@
       <c r="I76" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="0" t="s">
-        <v>13</v>
+      <c r="J76" s="0">
+        <v>0</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>13</v>
@@ -4174,7 +4378,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E77" s="0">
         <v>2000</v>
@@ -4191,8 +4395,8 @@
       <c r="I77" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="0" t="s">
-        <v>13</v>
+      <c r="J77" s="0">
+        <v>0</v>
       </c>
       <c r="K77" s="0" t="s">
         <v>13</v>
@@ -4209,7 +4413,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E78" s="0">
         <v>3000</v>
@@ -4226,8 +4430,8 @@
       <c r="I78" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J78" s="0" t="s">
-        <v>13</v>
+      <c r="J78" s="0">
+        <v>0</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>13</v>
@@ -4244,7 +4448,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="E79" s="0">
         <v>3000</v>
@@ -4261,8 +4465,8 @@
       <c r="I79" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J79" s="0" t="s">
-        <v>13</v>
+      <c r="J79" s="0">
+        <v>0</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>13</v>
@@ -4279,7 +4483,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E80" s="0">
         <v>3000</v>
@@ -4296,8 +4500,8 @@
       <c r="I80" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J80" s="0" t="s">
-        <v>13</v>
+      <c r="J80" s="0">
+        <v>0</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>13</v>
@@ -4314,28 +4518,28 @@
         <v>80</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="E81" s="0">
         <v>300</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="J81" s="0">
+        <v>89.7</v>
+      </c>
+      <c r="K81" s="0">
+        <v>44850</v>
       </c>
     </row>
     <row r="82">
@@ -4349,28 +4553,28 @@
         <v>81</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E82" s="0">
         <v>300</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>13</v>
+        <v>125</v>
+      </c>
+      <c r="J82" s="0">
+        <v>29.9</v>
+      </c>
+      <c r="K82" s="0">
+        <v>29900</v>
       </c>
     </row>
     <row r="83">
@@ -4384,7 +4588,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E83" s="0">
         <v>3000</v>
@@ -4401,8 +4605,8 @@
       <c r="I83" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J83" s="0" t="s">
-        <v>13</v>
+      <c r="J83" s="0">
+        <v>0</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>13</v>
@@ -4419,7 +4623,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E84" s="0">
         <v>10000</v>
@@ -4436,8 +4640,8 @@
       <c r="I84" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J84" s="0" t="s">
-        <v>13</v>
+      <c r="J84" s="0">
+        <v>0</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>13</v>
@@ -4454,7 +4658,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E85" s="0">
         <v>2000</v>
@@ -4471,8 +4675,8 @@
       <c r="I85" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="0" t="s">
-        <v>13</v>
+      <c r="J85" s="0">
+        <v>0</v>
       </c>
       <c r="K85" s="0" t="s">
         <v>13</v>
@@ -4489,7 +4693,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="E86" s="0">
         <v>2000</v>
@@ -4506,8 +4710,8 @@
       <c r="I86" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J86" s="0" t="s">
-        <v>13</v>
+      <c r="J86" s="0">
+        <v>0</v>
       </c>
       <c r="K86" s="0" t="s">
         <v>13</v>
@@ -4524,7 +4728,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E87" s="0">
         <v>2000</v>
@@ -4541,8 +4745,8 @@
       <c r="I87" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J87" s="0" t="s">
-        <v>13</v>
+      <c r="J87" s="0">
+        <v>0</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>13</v>
@@ -4559,7 +4763,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E88" s="0">
         <v>2000</v>
@@ -4576,8 +4780,8 @@
       <c r="I88" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="0" t="s">
-        <v>13</v>
+      <c r="J88" s="0">
+        <v>0</v>
       </c>
       <c r="K88" s="0" t="s">
         <v>13</v>
@@ -4594,7 +4798,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E89" s="0">
         <v>2000</v>
@@ -4611,8 +4815,8 @@
       <c r="I89" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J89" s="0" t="s">
-        <v>13</v>
+      <c r="J89" s="0">
+        <v>0</v>
       </c>
       <c r="K89" s="0" t="s">
         <v>13</v>
@@ -4629,7 +4833,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E90" s="0">
         <v>2000</v>
@@ -4646,8 +4850,8 @@
       <c r="I90" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="0" t="s">
-        <v>13</v>
+      <c r="J90" s="0">
+        <v>0</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>13</v>
@@ -4664,7 +4868,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E91" s="0">
         <v>2000</v>
@@ -4681,8 +4885,8 @@
       <c r="I91" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="0" t="s">
-        <v>13</v>
+      <c r="J91" s="0">
+        <v>0</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>13</v>
@@ -4699,28 +4903,28 @@
         <v>91</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="E92" s="0">
         <v>2000</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>13</v>
+        <v>136</v>
+      </c>
+      <c r="J92" s="0">
+        <v>7.15</v>
+      </c>
+      <c r="K92" s="0">
+        <v>4290</v>
       </c>
     </row>
     <row r="93">
@@ -4734,7 +4938,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="E93" s="0">
         <v>2000</v>
@@ -4751,8 +4955,8 @@
       <c r="I93" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J93" s="0" t="s">
-        <v>13</v>
+      <c r="J93" s="0">
+        <v>0</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>13</v>
@@ -4769,28 +4973,28 @@
         <v>93</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="E94" s="0">
         <v>2000</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>13</v>
+        <v>139</v>
+      </c>
+      <c r="J94" s="0">
+        <v>2.47</v>
+      </c>
+      <c r="K94" s="0">
+        <v>1482</v>
       </c>
     </row>
     <row r="95">
@@ -4804,7 +5008,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="E95" s="0">
         <v>2000</v>
@@ -4821,8 +5025,8 @@
       <c r="I95" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J95" s="0" t="s">
-        <v>13</v>
+      <c r="J95" s="0">
+        <v>0</v>
       </c>
       <c r="K95" s="0" t="s">
         <v>13</v>
@@ -4839,7 +5043,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="E96" s="0">
         <v>30</v>
@@ -4856,8 +5060,8 @@
       <c r="I96" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J96" s="0" t="s">
-        <v>13</v>
+      <c r="J96" s="0">
+        <v>0</v>
       </c>
       <c r="K96" s="0" t="s">
         <v>13</v>
@@ -4874,7 +5078,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="E97" s="0">
         <v>2000</v>
@@ -4891,8 +5095,8 @@
       <c r="I97" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J97" s="0" t="s">
-        <v>13</v>
+      <c r="J97" s="0">
+        <v>0</v>
       </c>
       <c r="K97" s="0" t="s">
         <v>13</v>
@@ -4909,7 +5113,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E98" s="0">
         <v>2000</v>
@@ -4926,8 +5130,8 @@
       <c r="I98" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J98" s="0" t="s">
-        <v>13</v>
+      <c r="J98" s="0">
+        <v>0</v>
       </c>
       <c r="K98" s="0" t="s">
         <v>13</v>
@@ -4944,7 +5148,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E99" s="0">
         <v>2000</v>
@@ -4961,8 +5165,8 @@
       <c r="I99" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J99" s="0" t="s">
-        <v>13</v>
+      <c r="J99" s="0">
+        <v>0</v>
       </c>
       <c r="K99" s="0" t="s">
         <v>13</v>
@@ -4979,28 +5183,28 @@
         <v>99</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E100" s="0">
         <v>2000</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" s="0" t="s">
-        <v>13</v>
+        <v>146</v>
+      </c>
+      <c r="J100" s="0">
+        <v>1.24</v>
+      </c>
+      <c r="K100" s="0">
+        <v>2852</v>
       </c>
     </row>
     <row r="101">
@@ -5014,7 +5218,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="E101" s="0">
         <v>2000</v>
@@ -5031,8 +5235,8 @@
       <c r="I101" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J101" s="0" t="s">
-        <v>13</v>
+      <c r="J101" s="0">
+        <v>0</v>
       </c>
       <c r="K101" s="0" t="s">
         <v>13</v>
@@ -5049,7 +5253,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E102" s="0">
         <v>3000</v>
@@ -5066,8 +5270,8 @@
       <c r="I102" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="0" t="s">
-        <v>13</v>
+      <c r="J102" s="0">
+        <v>0</v>
       </c>
       <c r="K102" s="0" t="s">
         <v>13</v>
@@ -5084,28 +5288,28 @@
         <v>102</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="E103" s="0">
         <v>3000</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K103" s="0" t="s">
-        <v>13</v>
+        <v>150</v>
+      </c>
+      <c r="J103" s="0">
+        <v>11.57</v>
+      </c>
+      <c r="K103" s="0">
+        <v>11570</v>
       </c>
     </row>
     <row r="104">
@@ -5119,7 +5323,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E104" s="0">
         <v>3000</v>
@@ -5136,8 +5340,8 @@
       <c r="I104" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J104" s="0" t="s">
-        <v>13</v>
+      <c r="J104" s="0">
+        <v>0</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>13</v>
@@ -5154,7 +5358,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E105" s="0">
         <v>5000</v>
@@ -5171,8 +5375,8 @@
       <c r="I105" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J105" s="0" t="s">
-        <v>13</v>
+      <c r="J105" s="0">
+        <v>0</v>
       </c>
       <c r="K105" s="0" t="s">
         <v>13</v>
@@ -5189,7 +5393,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E106" s="0">
         <v>10000</v>
@@ -5206,8 +5410,8 @@
       <c r="I106" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J106" s="0" t="s">
-        <v>13</v>
+      <c r="J106" s="0">
+        <v>0</v>
       </c>
       <c r="K106" s="0" t="s">
         <v>13</v>
@@ -5224,28 +5428,28 @@
         <v>106</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E107" s="0">
         <v>3000</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K107" s="0" t="s">
-        <v>13</v>
+        <v>155</v>
+      </c>
+      <c r="J107" s="0">
+        <v>6.37</v>
+      </c>
+      <c r="K107" s="0">
+        <v>10192</v>
       </c>
     </row>
     <row r="108">
@@ -5259,28 +5463,28 @@
         <v>107</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E108" s="0">
         <v>3000</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J108" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K108" s="0" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="J108" s="0">
+        <v>9.09</v>
+      </c>
+      <c r="K108" s="0">
+        <v>9090</v>
       </c>
     </row>
     <row r="109">
@@ -5294,7 +5498,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="E109" s="0">
         <v>3000</v>
@@ -5311,8 +5515,8 @@
       <c r="I109" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J109" s="0" t="s">
-        <v>13</v>
+      <c r="J109" s="0">
+        <v>0</v>
       </c>
       <c r="K109" s="0" t="s">
         <v>13</v>
@@ -5329,7 +5533,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E110" s="0">
         <v>3000</v>
@@ -5346,8 +5550,8 @@
       <c r="I110" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J110" s="0" t="s">
-        <v>13</v>
+      <c r="J110" s="0">
+        <v>0</v>
       </c>
       <c r="K110" s="0" t="s">
         <v>13</v>
@@ -5364,7 +5568,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E111" s="0">
         <v>15000</v>
@@ -5381,8 +5585,8 @@
       <c r="I111" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J111" s="0" t="s">
-        <v>13</v>
+      <c r="J111" s="0">
+        <v>0</v>
       </c>
       <c r="K111" s="0" t="s">
         <v>13</v>
@@ -5399,7 +5603,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E112" s="0">
         <v>2000</v>
@@ -5416,8 +5620,8 @@
       <c r="I112" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J112" s="0" t="s">
-        <v>13</v>
+      <c r="J112" s="0">
+        <v>0</v>
       </c>
       <c r="K112" s="0" t="s">
         <v>13</v>
@@ -5434,7 +5638,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E113" s="0">
         <v>4000</v>
@@ -5451,8 +5655,8 @@
       <c r="I113" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J113" s="0" t="s">
-        <v>13</v>
+      <c r="J113" s="0">
+        <v>0</v>
       </c>
       <c r="K113" s="0" t="s">
         <v>13</v>
@@ -5469,7 +5673,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="E114" s="0">
         <v>8000</v>
@@ -5486,8 +5690,8 @@
       <c r="I114" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="0" t="s">
-        <v>13</v>
+      <c r="J114" s="0">
+        <v>0</v>
       </c>
       <c r="K114" s="0" t="s">
         <v>13</v>
@@ -5504,7 +5708,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E115" s="0">
         <v>5000</v>
@@ -5521,8 +5725,8 @@
       <c r="I115" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J115" s="0" t="s">
-        <v>13</v>
+      <c r="J115" s="0">
+        <v>0</v>
       </c>
       <c r="K115" s="0" t="s">
         <v>13</v>
@@ -5539,7 +5743,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="E116" s="0">
         <v>10000</v>
@@ -5556,8 +5760,8 @@
       <c r="I116" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J116" s="0" t="s">
-        <v>13</v>
+      <c r="J116" s="0">
+        <v>0</v>
       </c>
       <c r="K116" s="0" t="s">
         <v>13</v>
@@ -5574,7 +5778,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E117" s="0">
         <v>5000</v>
@@ -5591,8 +5795,8 @@
       <c r="I117" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J117" s="0" t="s">
-        <v>13</v>
+      <c r="J117" s="0">
+        <v>0</v>
       </c>
       <c r="K117" s="0" t="s">
         <v>13</v>
@@ -5609,7 +5813,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E118" s="0">
         <v>5000</v>
@@ -5626,8 +5830,8 @@
       <c r="I118" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J118" s="0" t="s">
-        <v>13</v>
+      <c r="J118" s="0">
+        <v>0</v>
       </c>
       <c r="K118" s="0" t="s">
         <v>13</v>
@@ -5644,7 +5848,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E119" s="0">
         <v>100</v>
@@ -5661,8 +5865,8 @@
       <c r="I119" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J119" s="0" t="s">
-        <v>13</v>
+      <c r="J119" s="0">
+        <v>0</v>
       </c>
       <c r="K119" s="0" t="s">
         <v>13</v>
@@ -5679,7 +5883,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E120" s="0">
         <v>100</v>
@@ -5696,8 +5900,8 @@
       <c r="I120" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J120" s="0" t="s">
-        <v>13</v>
+      <c r="J120" s="0">
+        <v>0</v>
       </c>
       <c r="K120" s="0" t="s">
         <v>13</v>
@@ -5714,7 +5918,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E121" s="0">
         <v>100</v>
@@ -5731,8 +5935,8 @@
       <c r="I121" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J121" s="0" t="s">
-        <v>13</v>
+      <c r="J121" s="0">
+        <v>0</v>
       </c>
       <c r="K121" s="0" t="s">
         <v>13</v>
@@ -5749,7 +5953,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E122" s="0">
         <v>100</v>
@@ -5766,8 +5970,8 @@
       <c r="I122" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J122" s="0" t="s">
-        <v>13</v>
+      <c r="J122" s="0">
+        <v>0</v>
       </c>
       <c r="K122" s="0" t="s">
         <v>13</v>
@@ -5784,28 +5988,28 @@
         <v>122</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="E123" s="0">
         <v>100</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K123" s="0" t="s">
-        <v>13</v>
+        <v>174</v>
+      </c>
+      <c r="J123" s="0">
+        <v>8.97</v>
+      </c>
+      <c r="K123" s="0">
+        <v>5382</v>
       </c>
     </row>
     <row r="124">
@@ -5819,7 +6023,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E124" s="0">
         <v>100</v>
@@ -5836,8 +6040,8 @@
       <c r="I124" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J124" s="0" t="s">
-        <v>13</v>
+      <c r="J124" s="0">
+        <v>0</v>
       </c>
       <c r="K124" s="0" t="s">
         <v>13</v>
@@ -5854,7 +6058,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E125" s="0">
         <v>100</v>
@@ -5871,8 +6075,8 @@
       <c r="I125" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J125" s="0" t="s">
-        <v>13</v>
+      <c r="J125" s="0">
+        <v>0</v>
       </c>
       <c r="K125" s="0" t="s">
         <v>13</v>
@@ -5889,7 +6093,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E126" s="0">
         <v>1000</v>
@@ -5906,8 +6110,8 @@
       <c r="I126" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J126" s="0" t="s">
-        <v>13</v>
+      <c r="J126" s="0">
+        <v>0</v>
       </c>
       <c r="K126" s="0" t="s">
         <v>13</v>
@@ -5924,7 +6128,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E127" s="0">
         <v>3000</v>
@@ -5941,8 +6145,8 @@
       <c r="I127" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J127" s="0" t="s">
-        <v>13</v>
+      <c r="J127" s="0">
+        <v>0</v>
       </c>
       <c r="K127" s="0" t="s">
         <v>13</v>
@@ -5959,7 +6163,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E128" s="0">
         <v>10000</v>
@@ -5976,8 +6180,8 @@
       <c r="I128" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J128" s="0" t="s">
-        <v>13</v>
+      <c r="J128" s="0">
+        <v>0</v>
       </c>
       <c r="K128" s="0" t="s">
         <v>13</v>
@@ -5994,7 +6198,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="E129" s="0">
         <v>3000</v>
@@ -6011,8 +6215,8 @@
       <c r="I129" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J129" s="0" t="s">
-        <v>13</v>
+      <c r="J129" s="0">
+        <v>0</v>
       </c>
       <c r="K129" s="0" t="s">
         <v>13</v>
@@ -6029,7 +6233,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E130" s="0">
         <v>1000</v>
@@ -6046,8 +6250,8 @@
       <c r="I130" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J130" s="0" t="s">
-        <v>13</v>
+      <c r="J130" s="0">
+        <v>0</v>
       </c>
       <c r="K130" s="0" t="s">
         <v>13</v>
@@ -6064,7 +6268,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="E131" s="0">
         <v>1500</v>
@@ -6081,8 +6285,8 @@
       <c r="I131" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J131" s="0" t="s">
-        <v>13</v>
+      <c r="J131" s="0">
+        <v>0</v>
       </c>
       <c r="K131" s="0" t="s">
         <v>13</v>
@@ -6099,7 +6303,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E132" s="0">
         <v>500</v>
@@ -6116,8 +6320,8 @@
       <c r="I132" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J132" s="0" t="s">
-        <v>13</v>
+      <c r="J132" s="0">
+        <v>0</v>
       </c>
       <c r="K132" s="0" t="s">
         <v>13</v>
@@ -6134,7 +6338,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E133" s="0">
         <v>200</v>
@@ -6151,8 +6355,8 @@
       <c r="I133" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J133" s="0" t="s">
-        <v>13</v>
+      <c r="J133" s="0">
+        <v>0</v>
       </c>
       <c r="K133" s="0" t="s">
         <v>13</v>
@@ -6169,28 +6373,28 @@
         <v>133</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="E134" s="0">
         <v>50</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J134" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K134" s="0" t="s">
-        <v>13</v>
+        <v>186</v>
+      </c>
+      <c r="J134" s="0">
+        <v>12.09</v>
+      </c>
+      <c r="K134" s="0">
+        <v>36270</v>
       </c>
     </row>
     <row r="135">
@@ -6204,7 +6408,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="E135" s="0">
         <v>100</v>
@@ -6221,8 +6425,8 @@
       <c r="I135" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J135" s="0" t="s">
-        <v>13</v>
+      <c r="J135" s="0">
+        <v>0</v>
       </c>
       <c r="K135" s="0" t="s">
         <v>13</v>
@@ -6239,28 +6443,28 @@
         <v>135</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E136" s="0">
         <v>300</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K136" s="0" t="s">
-        <v>13</v>
+        <v>189</v>
+      </c>
+      <c r="J136" s="0">
+        <v>3.77</v>
+      </c>
+      <c r="K136" s="0">
+        <v>15080</v>
       </c>
     </row>
     <row r="137">
@@ -6274,7 +6478,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E137" s="0">
         <v>500</v>
@@ -6291,8 +6495,8 @@
       <c r="I137" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J137" s="0" t="s">
-        <v>13</v>
+      <c r="J137" s="0">
+        <v>0</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>13</v>
@@ -6309,7 +6513,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="E138" s="0">
         <v>500</v>
@@ -6326,8 +6530,8 @@
       <c r="I138" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J138" s="0" t="s">
-        <v>13</v>
+      <c r="J138" s="0">
+        <v>0</v>
       </c>
       <c r="K138" s="0" t="s">
         <v>13</v>
@@ -6344,7 +6548,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E139" s="0">
         <v>5000</v>
@@ -6361,8 +6565,8 @@
       <c r="I139" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J139" s="0" t="s">
-        <v>13</v>
+      <c r="J139" s="0">
+        <v>0</v>
       </c>
       <c r="K139" s="0" t="s">
         <v>13</v>
@@ -6379,7 +6583,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="E140" s="0">
         <v>5000</v>
@@ -6396,8 +6600,8 @@
       <c r="I140" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J140" s="0" t="s">
-        <v>13</v>
+      <c r="J140" s="0">
+        <v>0</v>
       </c>
       <c r="K140" s="0" t="s">
         <v>13</v>
@@ -6414,7 +6618,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E141" s="0">
         <v>5000</v>
@@ -6431,8 +6635,8 @@
       <c r="I141" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J141" s="0" t="s">
-        <v>13</v>
+      <c r="J141" s="0">
+        <v>0</v>
       </c>
       <c r="K141" s="0" t="s">
         <v>13</v>
@@ -6449,28 +6653,28 @@
         <v>141</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="E142" s="0">
         <v>200</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J142" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K142" s="0" t="s">
-        <v>13</v>
+        <v>196</v>
+      </c>
+      <c r="J142" s="0">
+        <v>36.4</v>
+      </c>
+      <c r="K142" s="0">
+        <v>21840</v>
       </c>
     </row>
     <row r="143">
@@ -6484,28 +6688,28 @@
         <v>142</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E143" s="0">
         <v>300</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J143" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K143" s="0" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="J143" s="0">
+        <v>3.89</v>
+      </c>
+      <c r="K143" s="0">
+        <v>7780</v>
       </c>
     </row>
     <row r="144">
@@ -6519,28 +6723,28 @@
         <v>143</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="E144" s="0">
         <v>100</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J144" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K144" s="0" t="s">
-        <v>13</v>
+        <v>200</v>
+      </c>
+      <c r="J144" s="0">
+        <v>20.8</v>
+      </c>
+      <c r="K144" s="0">
+        <v>4160</v>
       </c>
     </row>
     <row r="145">
@@ -6554,28 +6758,28 @@
         <v>144</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="E145" s="0">
         <v>2000</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J145" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K145" s="0" t="s">
-        <v>13</v>
+        <v>203</v>
+      </c>
+      <c r="J145" s="0">
+        <v>4</v>
+      </c>
+      <c r="K145" s="0">
+        <v>4000</v>
       </c>
     </row>
     <row r="146">
@@ -6589,28 +6793,28 @@
         <v>145</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="E146" s="0">
         <v>100</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J146" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K146" s="0" t="s">
-        <v>13</v>
+        <v>206</v>
+      </c>
+      <c r="J146" s="0">
+        <v>14.82</v>
+      </c>
+      <c r="K146" s="0">
+        <v>2964</v>
       </c>
     </row>
     <row r="147">
@@ -6624,7 +6828,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="E147" s="0">
         <v>30</v>
@@ -6641,8 +6845,8 @@
       <c r="I147" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J147" s="0" t="s">
-        <v>13</v>
+      <c r="J147" s="0">
+        <v>0</v>
       </c>
       <c r="K147" s="0" t="s">
         <v>13</v>
@@ -6659,7 +6863,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="E148" s="0">
         <v>30</v>
@@ -6676,8 +6880,8 @@
       <c r="I148" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J148" s="0" t="s">
-        <v>13</v>
+      <c r="J148" s="0">
+        <v>0</v>
       </c>
       <c r="K148" s="0" t="s">
         <v>13</v>
@@ -6694,7 +6898,7 @@
         <v>148</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E149" s="0">
         <v>20</v>
@@ -6711,8 +6915,8 @@
       <c r="I149" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J149" s="0" t="s">
-        <v>13</v>
+      <c r="J149" s="0">
+        <v>0</v>
       </c>
       <c r="K149" s="0" t="s">
         <v>13</v>
@@ -6729,7 +6933,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E150" s="0">
         <v>30</v>
@@ -6746,8 +6950,8 @@
       <c r="I150" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J150" s="0" t="s">
-        <v>13</v>
+      <c r="J150" s="0">
+        <v>0</v>
       </c>
       <c r="K150" s="0" t="s">
         <v>13</v>
@@ -6764,7 +6968,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="E151" s="0">
         <v>30</v>
@@ -6781,8 +6985,8 @@
       <c r="I151" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J151" s="0" t="s">
-        <v>13</v>
+      <c r="J151" s="0">
+        <v>0</v>
       </c>
       <c r="K151" s="0" t="s">
         <v>13</v>
@@ -6799,7 +7003,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="E152" s="0">
         <v>100</v>
@@ -6816,8 +7020,8 @@
       <c r="I152" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J152" s="0" t="s">
-        <v>13</v>
+      <c r="J152" s="0">
+        <v>0</v>
       </c>
       <c r="K152" s="0" t="s">
         <v>13</v>
@@ -6834,7 +7038,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="E153" s="0">
         <v>10</v>
@@ -6851,8 +7055,8 @@
       <c r="I153" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J153" s="0" t="s">
-        <v>13</v>
+      <c r="J153" s="0">
+        <v>0</v>
       </c>
       <c r="K153" s="0" t="s">
         <v>13</v>
@@ -6869,7 +7073,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="E154" s="0">
         <v>10</v>
@@ -6886,8 +7090,8 @@
       <c r="I154" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J154" s="0" t="s">
-        <v>13</v>
+      <c r="J154" s="0">
+        <v>0</v>
       </c>
       <c r="K154" s="0" t="s">
         <v>13</v>
@@ -6904,28 +7108,28 @@
         <v>154</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="E155" s="0">
         <v>10</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J155" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K155" s="0" t="s">
-        <v>13</v>
+        <v>217</v>
+      </c>
+      <c r="J155" s="0">
+        <v>12.35</v>
+      </c>
+      <c r="K155" s="0">
+        <v>4940</v>
       </c>
     </row>
     <row r="156">
@@ -6939,28 +7143,28 @@
         <v>155</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="E156" s="0">
         <v>30</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J156" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K156" s="0" t="s">
-        <v>13</v>
+        <v>219</v>
+      </c>
+      <c r="J156" s="0">
+        <v>8.32</v>
+      </c>
+      <c r="K156" s="0">
+        <v>83200</v>
       </c>
     </row>
     <row r="157">
@@ -6974,28 +7178,28 @@
         <v>156</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="E157" s="0">
         <v>20</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J157" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K157" s="0" t="s">
-        <v>13</v>
+        <v>221</v>
+      </c>
+      <c r="J157" s="0">
+        <v>9.36</v>
+      </c>
+      <c r="K157" s="0">
+        <v>56160</v>
       </c>
     </row>
     <row r="158">
@@ -7009,28 +7213,28 @@
         <v>157</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="E158" s="0">
         <v>10</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="H158" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J158" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K158" s="0" t="s">
-        <v>13</v>
+        <v>223</v>
+      </c>
+      <c r="J158" s="0">
+        <v>9.88</v>
+      </c>
+      <c r="K158" s="0">
+        <v>79040</v>
       </c>
     </row>
     <row r="159">
@@ -7044,28 +7248,28 @@
         <v>158</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="E159" s="0">
         <v>200</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J159" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K159" s="0" t="s">
-        <v>13</v>
+        <v>225</v>
+      </c>
+      <c r="J159" s="0">
+        <v>14.17</v>
+      </c>
+      <c r="K159" s="0">
+        <v>28340</v>
       </c>
     </row>
     <row r="160">
@@ -7079,28 +7283,28 @@
         <v>159</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="E160" s="0">
         <v>50</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="H160" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J160" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K160" s="0" t="s">
-        <v>13</v>
+        <v>227</v>
+      </c>
+      <c r="J160" s="0">
+        <v>12.87</v>
+      </c>
+      <c r="K160" s="0">
+        <v>12870</v>
       </c>
     </row>
     <row r="161">
@@ -7114,7 +7318,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="E161" s="0">
         <v>30</v>
@@ -7131,8 +7335,8 @@
       <c r="I161" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J161" s="0" t="s">
-        <v>13</v>
+      <c r="J161" s="0">
+        <v>0</v>
       </c>
       <c r="K161" s="0" t="s">
         <v>13</v>
@@ -7149,7 +7353,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="E162" s="0">
         <v>500</v>
@@ -7166,8 +7370,8 @@
       <c r="I162" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J162" s="0" t="s">
-        <v>13</v>
+      <c r="J162" s="0">
+        <v>0</v>
       </c>
       <c r="K162" s="0" t="s">
         <v>13</v>
@@ -7184,28 +7388,28 @@
         <v>162</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="E163" s="0">
         <v>500</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H163" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J163" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K163" s="0" t="s">
-        <v>13</v>
+        <v>231</v>
+      </c>
+      <c r="J163" s="0">
+        <v>12.87</v>
+      </c>
+      <c r="K163" s="0">
+        <v>19305</v>
       </c>
     </row>
     <row r="164">
@@ -7219,28 +7423,28 @@
         <v>163</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="E164" s="0">
         <v>500</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J164" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K164" s="0" t="s">
-        <v>13</v>
+        <v>233</v>
+      </c>
+      <c r="J164" s="0">
+        <v>3.77</v>
+      </c>
+      <c r="K164" s="0">
+        <v>3016</v>
       </c>
     </row>
     <row r="165">
@@ -7254,7 +7458,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="E165" s="0">
         <v>500</v>
@@ -7271,8 +7475,8 @@
       <c r="I165" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J165" s="0" t="s">
-        <v>13</v>
+      <c r="J165" s="0">
+        <v>0</v>
       </c>
       <c r="K165" s="0" t="s">
         <v>13</v>
@@ -7289,7 +7493,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="E166" s="0">
         <v>500</v>
@@ -7306,8 +7510,8 @@
       <c r="I166" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J166" s="0" t="s">
-        <v>13</v>
+      <c r="J166" s="0">
+        <v>0</v>
       </c>
       <c r="K166" s="0" t="s">
         <v>13</v>
@@ -7324,7 +7528,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="E167" s="0">
         <v>200</v>
@@ -7341,8 +7545,8 @@
       <c r="I167" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J167" s="0" t="s">
-        <v>13</v>
+      <c r="J167" s="0">
+        <v>0</v>
       </c>
       <c r="K167" s="0" t="s">
         <v>13</v>
@@ -7359,7 +7563,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="E168" s="0">
         <v>30</v>
@@ -7376,8 +7580,8 @@
       <c r="I168" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J168" s="0" t="s">
-        <v>13</v>
+      <c r="J168" s="0">
+        <v>0</v>
       </c>
       <c r="K168" s="0" t="s">
         <v>13</v>
@@ -7394,7 +7598,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="E169" s="0">
         <v>10</v>
@@ -7411,8 +7615,8 @@
       <c r="I169" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J169" s="0" t="s">
-        <v>13</v>
+      <c r="J169" s="0">
+        <v>0</v>
       </c>
       <c r="K169" s="0" t="s">
         <v>13</v>
@@ -7429,28 +7633,28 @@
         <v>169</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="E170" s="0">
         <v>20</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H170" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J170" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K170" s="0" t="s">
-        <v>13</v>
+        <v>240</v>
+      </c>
+      <c r="J170" s="0">
+        <v>21.48</v>
+      </c>
+      <c r="K170" s="0">
+        <v>2148</v>
       </c>
     </row>
     <row r="171">
@@ -7464,7 +7668,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="E171" s="0">
         <v>200</v>
@@ -7481,8 +7685,8 @@
       <c r="I171" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J171" s="0" t="s">
-        <v>13</v>
+      <c r="J171" s="0">
+        <v>0</v>
       </c>
       <c r="K171" s="0" t="s">
         <v>13</v>
@@ -7499,28 +7703,28 @@
         <v>171</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="E172" s="0">
         <v>100</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H172" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J172" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K172" s="0" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="J172" s="0">
+        <v>11.7</v>
+      </c>
+      <c r="K172" s="0">
+        <v>23400</v>
       </c>
     </row>
     <row r="173">
@@ -7534,7 +7738,7 @@
         <v>172</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="E173" s="0">
         <v>100</v>
@@ -7551,8 +7755,8 @@
       <c r="I173" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J173" s="0" t="s">
-        <v>13</v>
+      <c r="J173" s="0">
+        <v>0</v>
       </c>
       <c r="K173" s="0" t="s">
         <v>13</v>
@@ -7569,28 +7773,28 @@
         <v>173</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="E174" s="0">
         <v>100</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H174" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J174" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K174" s="0" t="s">
-        <v>13</v>
+        <v>246</v>
+      </c>
+      <c r="J174" s="0">
+        <v>3.25</v>
+      </c>
+      <c r="K174" s="0">
+        <v>13000</v>
       </c>
     </row>
     <row r="175">
@@ -7604,7 +7808,7 @@
         <v>174</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="E175" s="0">
         <v>100</v>
@@ -7621,8 +7825,8 @@
       <c r="I175" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J175" s="0" t="s">
-        <v>13</v>
+      <c r="J175" s="0">
+        <v>0</v>
       </c>
       <c r="K175" s="0" t="s">
         <v>13</v>
@@ -7639,7 +7843,7 @@
         <v>175</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="E176" s="0">
         <v>100</v>
@@ -7656,8 +7860,8 @@
       <c r="I176" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J176" s="0" t="s">
-        <v>13</v>
+      <c r="J176" s="0">
+        <v>0</v>
       </c>
       <c r="K176" s="0" t="s">
         <v>13</v>
@@ -7674,7 +7878,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E177" s="0">
         <v>100</v>
@@ -7691,8 +7895,8 @@
       <c r="I177" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J177" s="0" t="s">
-        <v>13</v>
+      <c r="J177" s="0">
+        <v>0</v>
       </c>
       <c r="K177" s="0" t="s">
         <v>13</v>
@@ -7709,7 +7913,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="E178" s="0">
         <v>100</v>
@@ -7726,8 +7930,8 @@
       <c r="I178" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J178" s="0" t="s">
-        <v>13</v>
+      <c r="J178" s="0">
+        <v>0</v>
       </c>
       <c r="K178" s="0" t="s">
         <v>13</v>
@@ -7744,7 +7948,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="E179" s="0">
         <v>100</v>
@@ -7761,8 +7965,8 @@
       <c r="I179" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J179" s="0" t="s">
-        <v>13</v>
+      <c r="J179" s="0">
+        <v>0</v>
       </c>
       <c r="K179" s="0" t="s">
         <v>13</v>
@@ -7779,7 +7983,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="E180" s="0">
         <v>100</v>
@@ -7796,8 +8000,8 @@
       <c r="I180" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J180" s="0" t="s">
-        <v>13</v>
+      <c r="J180" s="0">
+        <v>0</v>
       </c>
       <c r="K180" s="0" t="s">
         <v>13</v>
@@ -7814,7 +8018,7 @@
         <v>180</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="E181" s="0">
         <v>100</v>
@@ -7831,8 +8035,8 @@
       <c r="I181" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J181" s="0" t="s">
-        <v>13</v>
+      <c r="J181" s="0">
+        <v>0</v>
       </c>
       <c r="K181" s="0" t="s">
         <v>13</v>
@@ -7849,7 +8053,7 @@
         <v>181</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="E182" s="0">
         <v>100</v>
@@ -7866,8 +8070,8 @@
       <c r="I182" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J182" s="0" t="s">
-        <v>13</v>
+      <c r="J182" s="0">
+        <v>0</v>
       </c>
       <c r="K182" s="0" t="s">
         <v>13</v>
@@ -7884,28 +8088,28 @@
         <v>182</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="E183" s="0">
         <v>100</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J183" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K183" s="0" t="s">
-        <v>13</v>
+        <v>256</v>
+      </c>
+      <c r="J183" s="0">
+        <v>2.08</v>
+      </c>
+      <c r="K183" s="0">
+        <v>2080</v>
       </c>
     </row>
     <row r="184">
@@ -7919,7 +8123,7 @@
         <v>183</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="E184" s="0">
         <v>100</v>
@@ -7936,8 +8140,8 @@
       <c r="I184" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J184" s="0" t="s">
-        <v>13</v>
+      <c r="J184" s="0">
+        <v>0</v>
       </c>
       <c r="K184" s="0" t="s">
         <v>13</v>
@@ -7954,28 +8158,28 @@
         <v>184</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="E185" s="0">
         <v>100</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J185" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K185" s="0" t="s">
-        <v>13</v>
+        <v>259</v>
+      </c>
+      <c r="J185" s="0">
+        <v>23.4</v>
+      </c>
+      <c r="K185" s="0">
+        <v>18720</v>
       </c>
     </row>
     <row r="186">
@@ -7989,7 +8193,7 @@
         <v>185</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="E186" s="0">
         <v>100</v>
@@ -8006,8 +8210,8 @@
       <c r="I186" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J186" s="0" t="s">
-        <v>13</v>
+      <c r="J186" s="0">
+        <v>0</v>
       </c>
       <c r="K186" s="0" t="s">
         <v>13</v>
@@ -8024,7 +8228,7 @@
         <v>186</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="E187" s="0">
         <v>100</v>
@@ -8041,8 +8245,8 @@
       <c r="I187" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J187" s="0" t="s">
-        <v>13</v>
+      <c r="J187" s="0">
+        <v>0</v>
       </c>
       <c r="K187" s="0" t="s">
         <v>13</v>
@@ -8059,7 +8263,7 @@
         <v>187</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="E188" s="0">
         <v>100</v>
@@ -8076,8 +8280,8 @@
       <c r="I188" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J188" s="0" t="s">
-        <v>13</v>
+      <c r="J188" s="0">
+        <v>0</v>
       </c>
       <c r="K188" s="0" t="s">
         <v>13</v>
@@ -8094,7 +8298,7 @@
         <v>188</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E189" s="0">
         <v>100</v>
@@ -8111,8 +8315,8 @@
       <c r="I189" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J189" s="0" t="s">
-        <v>13</v>
+      <c r="J189" s="0">
+        <v>0</v>
       </c>
       <c r="K189" s="0" t="s">
         <v>13</v>
@@ -8129,7 +8333,7 @@
         <v>189</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="E190" s="0">
         <v>1000</v>
@@ -8146,8 +8350,8 @@
       <c r="I190" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J190" s="0" t="s">
-        <v>13</v>
+      <c r="J190" s="0">
+        <v>0</v>
       </c>
       <c r="K190" s="0" t="s">
         <v>13</v>
@@ -8164,28 +8368,28 @@
         <v>190</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="E191" s="0">
         <v>10</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H191" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J191" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K191" s="0" t="s">
-        <v>13</v>
+        <v>266</v>
+      </c>
+      <c r="J191" s="0">
+        <v>14.3</v>
+      </c>
+      <c r="K191" s="0">
+        <v>1716</v>
       </c>
     </row>
     <row r="192">
@@ -8199,28 +8403,28 @@
         <v>191</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="E192" s="0">
         <v>100</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="H192" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J192" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K192" s="0" t="s">
-        <v>13</v>
+        <v>269</v>
+      </c>
+      <c r="J192" s="0">
+        <v>7.67</v>
+      </c>
+      <c r="K192" s="0">
+        <v>7670</v>
       </c>
     </row>
     <row r="193">
@@ -8234,7 +8438,7 @@
         <v>192</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="E193" s="0">
         <v>20</v>
@@ -8251,8 +8455,8 @@
       <c r="I193" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J193" s="0" t="s">
-        <v>13</v>
+      <c r="J193" s="0">
+        <v>0</v>
       </c>
       <c r="K193" s="0" t="s">
         <v>13</v>
@@ -8269,7 +8473,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="E194" s="0">
         <v>20</v>
@@ -8286,8 +8490,8 @@
       <c r="I194" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J194" s="0" t="s">
-        <v>13</v>
+      <c r="J194" s="0">
+        <v>0</v>
       </c>
       <c r="K194" s="0" t="s">
         <v>13</v>
@@ -8304,7 +8508,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="E195" s="0">
         <v>20</v>
@@ -8321,8 +8525,8 @@
       <c r="I195" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J195" s="0" t="s">
-        <v>13</v>
+      <c r="J195" s="0">
+        <v>0</v>
       </c>
       <c r="K195" s="0" t="s">
         <v>13</v>
@@ -8339,28 +8543,28 @@
         <v>195</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="E196" s="0">
         <v>2000</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J196" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K196" s="0" t="s">
-        <v>13</v>
+        <v>275</v>
+      </c>
+      <c r="J196" s="0">
+        <v>11.7</v>
+      </c>
+      <c r="K196" s="0">
+        <v>11700</v>
       </c>
     </row>
     <row r="197">
@@ -8374,7 +8578,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="E197" s="0">
         <v>2000</v>
@@ -8391,8 +8595,8 @@
       <c r="I197" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J197" s="0" t="s">
-        <v>13</v>
+      <c r="J197" s="0">
+        <v>0</v>
       </c>
       <c r="K197" s="0" t="s">
         <v>13</v>
@@ -8409,7 +8613,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="E198" s="0">
         <v>20</v>
@@ -8426,8 +8630,8 @@
       <c r="I198" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J198" s="0" t="s">
-        <v>13</v>
+      <c r="J198" s="0">
+        <v>0</v>
       </c>
       <c r="K198" s="0" t="s">
         <v>13</v>
@@ -8444,7 +8648,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="E199" s="0">
         <v>30</v>
@@ -8461,8 +8665,8 @@
       <c r="I199" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J199" s="0" t="s">
-        <v>13</v>
+      <c r="J199" s="0">
+        <v>0</v>
       </c>
       <c r="K199" s="0" t="s">
         <v>13</v>
@@ -8479,7 +8683,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="E200" s="0">
         <v>30</v>
@@ -8496,8 +8700,8 @@
       <c r="I200" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J200" s="0" t="s">
-        <v>13</v>
+      <c r="J200" s="0">
+        <v>0</v>
       </c>
       <c r="K200" s="0" t="s">
         <v>13</v>

--- a/PropProAssistant/Models/PortalCompPubl/PCP_01.xlsx
+++ b/PropProAssistant/Models/PortalCompPubl/PCP_01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Número do Processo (Não edite)</t>
   </si>
@@ -58,808 +58,160 @@
     <t>011/2023</t>
   </si>
   <si>
-    <t>ABAIXADOR DE LÍNGUA DE MADEIRA, DESCARTÁVEL, USO ÚNICO – UNIDADE COM 100 UNIDADEES,</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>AGUA DESTILADA 5 LITROS,</t>
-  </si>
-  <si>
-    <t>AGUA PARA INJEÇÃO 5MLCAIXA C/200 UNID,</t>
-  </si>
-  <si>
-    <t>AGUA PARA INJEÇÃO 10ML CAIXA COM 200 UND,</t>
-  </si>
-  <si>
-    <t>Farmace</t>
   </si>
   <si>
     <t>ÁCIDO ASCÓRBICO 100MG/MLIV/IM 5ML SOLUÇÃO INJETÁVEL</t>
   </si>
   <si>
-    <t>AGUA PARA INJEÇÃO 20 ML- CAIXA COM 200 UNIDADEES, MATERIAL MEDICO HOSPITALAR</t>
-  </si>
-  <si>
-    <t>Hipolabor</t>
-  </si>
-  <si>
     <t>ACIDO TRANEXAMICO 50MG/ML 5ML</t>
-  </si>
-  <si>
-    <t>AGULHA 13X0,45 CM,</t>
-  </si>
-  <si>
-    <t>Hypofarma</t>
   </si>
   <si>
     <t>ADRENALINA 1MG/ML (HEMITARTARATO DE EPINEFRINA) 1ML</t>
   </si>
   <si>
-    <t>AGULHA 25X0,70CM,</t>
-  </si>
-  <si>
-    <t>Isofarma</t>
-  </si>
-  <si>
     <t>AGUA DESTILADA PARA INJECAO 10ML</t>
-  </si>
-  <si>
-    <t>AGULHA 40X1,20CM,</t>
-  </si>
-  <si>
-    <t>AGULHA 25X0,6CM,</t>
   </si>
   <si>
     <t>AMINOFILINA 24MG 10ML</t>
   </si>
   <si>
-    <t>ALCOOL EM GEL70% ANTI-SEPTICO PARA AS MAOS COM GALÃOICERINA e vitamina e, embalagem de 500 gramas</t>
-  </si>
-  <si>
-    <t>EMS</t>
-  </si>
-  <si>
     <t>AMOXICILINA + CLAV. DE POTASSIO 250MG/62,5MG 75ML</t>
-  </si>
-  <si>
-    <t>ALCOOL ETILICO 70% DE 1 LITRO,</t>
-  </si>
-  <si>
-    <t>ALCOOL ETILICO 96% DE 1 LITRO, DESINFETANTE HOSPITALAR PARA SUPERFICIES FIXAS</t>
-  </si>
-  <si>
-    <t>ALGODÃO HIDROFILO - ROLO 500GRS,</t>
-  </si>
-  <si>
-    <t>ALMOTOLIA 250ML MARROM Plástica e bico reto,</t>
-  </si>
-  <si>
-    <t>ALMOTOLIA 250ML - TRANSPARENTE Plástica e bico reto,</t>
-  </si>
-  <si>
-    <t>ALMOTOLIA 500ML - MARROM Plástica e bico reto,</t>
-  </si>
-  <si>
-    <t>ALMOTOLIA 500ML - TRANSPARENTE Plástica e bico reto,</t>
-  </si>
-  <si>
-    <t>AVENTAL (CAPOTE) DESCARTÁVEL MANGA LONGA COMPLÁSTICO NO PUNHO, COM CAPUZ DESCARTAVEL, CONFECCIONADO TNT (TECIDO NÃO TECIDO) EM 100% POLIPROPILENO 40G, TIRAS NA CINTURA E PESCOÇO, COMPRIMENTO DE 115CM, LARGURA DE 70CMS, MATERIAL DE ALTA RESISTÊNCIA E MALEÁVEL, PROPORCIONANDO MAIS CONFORTO AO USUÁRIO, PRODUTO NÃO ESTÉRIL, UNIDADE COM 10 UNIDADEES</t>
-  </si>
-  <si>
-    <t>ATADURA CREPON 08CM X4,5MT 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
-  </si>
-  <si>
-    <t>ATADURA CREPOM 10CM X 4,5 MT 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 fios</t>
-  </si>
-  <si>
-    <t>Teuto</t>
   </si>
   <si>
     <t>BENZILPENICILINA BENZATINA 1.200.000 UI</t>
   </si>
   <si>
-    <t>ATADURA CREPON 12CM X4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
-  </si>
-  <si>
-    <t>ATADURA CREPON 15CM X 4,5MT 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
-  </si>
-  <si>
-    <t>ATADURA CREPON 20 CM X 4,5MT, 11 FIOS, MACIA, ELÁSTICA E RESISTENTE, Atadura de crepom, 100% algodão cru, fios de alta torção, com alta resistência, possuindo bastante elasticidade no sentido longitudinal, comprimento da embalagem em repouso, enrolada em si mesma, com fio retorcido ou singelo, não estéril, atóxica, aparência uniforme, sem emendas UNIDADE com 12 UNIDADEes</t>
-  </si>
-  <si>
-    <t>BOLSA COLETORA ESTERIL DE FEZES, Bolsa de Colostomia drenável recortável com barreira protetora de pele é um dispositivo de uma peça, composto de uma bolsa drenável, um disco protetor de pele Stomahesive e um suporte adesivo flexível, Tela perfurada fixada à face posterior da bolsa, aumentando o conforto quando a bolsa toca a pele, Suporte adesivo flexível, que elimina a necessidade de utilizar adesivos cirúrgicos, Bolsa de plástico macio, silencioso e à prova de odores,</t>
-  </si>
-  <si>
-    <t>FIO DE SUTURA AGULHADO DE NYLON 5-0, 45CM ,</t>
-  </si>
-  <si>
-    <t>BATERIA CR2032 PARA GALÃOICOSIMETROS, APARELHOS DE PRESSÃO DIGITAIS, BALANÇA ELETRONICAS, 3V</t>
-  </si>
-  <si>
     <t>BUTILBROMETO DE ESCOPOLAMINA 4MG/ML + DIPIRONA SÓDICA 500MG/ML 5ML</t>
-  </si>
-  <si>
-    <t>BALANÇA DIGITAL para banheiro , suporta ate 180 kg com 04 sensores de alta com visor lcd grande, balança de controle corporal alimentação por bateria cr2032 garantia de 12 meses</t>
-  </si>
-  <si>
-    <t>CAIXA TERMICA PARA USO DE VACINA, CAPACIDADE DE NO MINIMO 12L COM TERMOMETRO DIGITALALIMENTAÇÃO POR 2X LR 44 BATERIA, BOTÃO FAIXA DE TEMPERATURA-50~+110°C - GARANTIA DE 12 MESES</t>
-  </si>
-  <si>
-    <t>CATETER JELCO Nº14, Cateter jelco de teflon, estéril, descartável, flexível, nº 14, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
-  </si>
-  <si>
-    <t>CATETER JELCO Nº16, Cateter jelco de teflon, estéril, descartável, flexível, nº 16, embalagem individual, papel grau cirúrgico e filme termoplástico, 0,61 abertura em pétala,</t>
-  </si>
-  <si>
-    <t>CATETER JELCO Nº18, Cateter jelco de teflon, estéril, descartável, flexível, nº 18, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
-  </si>
-  <si>
-    <t>CATETER JELCO Nº 20, Cateter jelco de teflon, estéril, descartável, flexível, nº 20, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
-  </si>
-  <si>
-    <t>CATETER JELCO Nº 22, Cateter jelco de teflon, estéril, descartável, flexível, nº 22, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
-  </si>
-  <si>
-    <t>CATETER JELCO Nº 24, Cateter jelco de teflon, estéril, descartável, flexível, nº 24, embalagem individual, papel grau cirúrgico e filme termoplástico, abertura em pétala,</t>
-  </si>
-  <si>
-    <t>Blau</t>
   </si>
   <si>
     <t>CEFALOTINA 1G IM/IV</t>
   </si>
   <si>
-    <t>CATETER TIPO OCULOS P/ OXIGENIO, Cateter nasal, tipo óculos, estéril, descartável, com extensão de aproximadamente 2,1mt em PVC, flexível, com ajuste e adaptação confortável no paciente, sendo que o conector da cavidade nasal deverá ser composto por PVC de alta qualidade, flexível, que não cause ferimentos no paciente, embalagem individual, em papel grau cirúrgico e filme plástico nº12, 3,85</t>
-  </si>
-  <si>
     <t>CEFEPIMA 1G PÓ P/ SOLUÇÃO INJETÁVEL</t>
-  </si>
-  <si>
-    <t>COLETOR DE FEZES COMUM, COM PAR, EMBALAGEM DE 80ML, ESTERIL E DESCARTAVEL,</t>
   </si>
   <si>
     <t>CEFTRIAXONA 1G IV</t>
   </si>
   <si>
-    <t>COLETOR DE URINA COMUM, EMBALAGEM DE 80ML, ESTERIL E DESCARTAVEL, SEM PAR,</t>
-  </si>
-  <si>
-    <t>COLETOR DE URINA COMPOSTO POR FITA ADESIVA DUPLA FACE, HIPOALÉRGICA, RESISTENTE E QUE NÃO DESPRENDE DO CONJUNTO, COMPOSTO POR SACO COM COMPRIMENTO DE 17 CM E LARGURA DE 10 CM, COM UM FURO PRÉ-CORTADO E COM PELÍCULA PROTETORA NÃO ADERENTE E DESTACÁVEL</t>
-  </si>
-  <si>
-    <t>COLETOR PARA MATERIAL PERFURO CORTANTE 13 LT, Confeccionado em papel incinerável, cor amarela, revestido internamente com produto impermeabilizante que evita umidade e vazamento, acompanhado de saco plástico ou não, com instruções de montagem e uso impressas externamente, cinta em material resistente à perfurações, alça para transporte fixa ao coletor, tampa fixa ao coletor, bocal com abertura que facilite o descarte de material e linha que apresente o limite máximo de enchimento, Fabricado de acordo com a NR 32 (MTE), constando externamente a simbologia de material infectante conforme NBR 7500, Deve atender as normas NBR 13853,</t>
-  </si>
-  <si>
-    <t>COMPRESSA DE GASE 7,5 CM X 7,5 CM 13 FIOS, Compressa de gaze hidrófila, em algodão puro e branco, sem falhas ou fiapos soltos, 13 fios por cm quadrado, dobras uniformes e perfeitas, variando de 5 a 8 dobras, com filamento radiopaco, com formato quadrado, confeccionada em fios 100% algodão - UNIDADE com 500 COMPRESSAS,</t>
-  </si>
-  <si>
     <t>CIMETIDINA 150 MG/ML INJETAVEL 2 ML</t>
-  </si>
-  <si>
-    <t>COMPRESSA DE GASE 7,5CM X 7,5CM 9 FIOS, Compressa de gaze hidrófila, em algodão puro e branco, sem falhas ou fiapos soltos, 9 fios por cm quadrado, dobras uniformes e perfeitas, variando de 5 a 8 dobras, com filamento radiopaco, com formato quadrado, confeccionada em fios 100% algodão UNIDADE com 500 COMPRESSAS,</t>
-  </si>
-  <si>
-    <t>DISPOSITIVO PARA INCONTINÊNCIA URINARIA MASCULINO TAMANHO G COM EXTENSÃO, em látex atóxico puro em forma de preservativo com extremidade, afunilada e reforçado com tubo condutor, com registro no ministério da saúde,</t>
   </si>
   <si>
     <t>CIPROFLOXACINO FR 200MG 100ML</t>
   </si>
   <si>
-    <t>DISPOSITIVO PARA INCONTINÊNCIA URINARIA MASCULINO TAMANHO M COM EXTENSÃO, em látex atóxico puro em forma de preservativo com extremidade, afunilada e reforçado com tubo condutor, com registro no ministério da saúde,</t>
-  </si>
-  <si>
-    <t>DISPOSITIVO PARA INCONTINÊNCIA URINARIA MASCULINO TAMANHO P COM EXTENSÃO, em látex atóxico puro em forma de preservativo com extremidade, afunilada e reforçado com tubo condutor, com registro no ministério da saúde,</t>
-  </si>
-  <si>
-    <t>ENEMA – SOLUÇÃO GALÃOICERINADA 500 ML,</t>
-  </si>
-  <si>
-    <t>EQUIPO MACRO GOTAS COM INJETOR LATERAL, PARA INFUSÕES ENDOVENOSAS DE USO ÚNICO, ESTÉRIL E APIROGÊNICA, PROJETADA DE FORMA A GARANTIR UMA PERFEITA ADAPTAÇÃO E FUNCIONALIDADE EM RECIPIENTES DE SOLUÇÃO PARENTAL EM TODAS AS VARIAÇÕES EMBALADO INDIVIDUALMENTE EM BLISTER DE FILME PLÁSTICO TERMOFORMÁVEL E PAPEL GRAU CIRÚRGICO, PONTA PERFURANTE DE ACORDO COM AS NORMAS NACIONAIS E INTERNACIONAIS, COM PROJETOR, TUBO DE PVC ATÓXICO E TRANSPARENTE, CÂMARA DE GOTEJAMENTO FLEXÍVEL TRANSPARENTE, COM ENTRADA DE AR, ESTERILIZADO A ÓXIDO DE ETILENO</t>
-  </si>
-  <si>
-    <t>EQUIPO MICRO GOTAS COM INJETOR FOTOSSENSÍVEL, Equipo micro gotas com lanceta perfurante para conexão ao recipiente de solução, injetor lateral, sem látex, tubo de PVC de 1,5mt, atóxico e fotossensível, produto foto-protetor, de cor âmbar ou alaranjada, com um protetor plástico da mesma cor para envolver a medicação contra a luz, ele é indicado para a infusão de medicamentos, sensíveis a luz, os mesmos sofrem alterações em suas propriedades originais sob a ação, dos raios ultra violetas da luz, possui ponta perfurante que se adapta com facilidade a qualquer frasco/ampola/bolsa, com câmara de micro gotejamento flexível, contém injetor lateral e filtro partícula, entrada de ar hidrofóbica acompanha capa para frascos que contenham soluções fotossensíveis, Esterilizado pelo processo de óxido de etileno, Acondicionado individualmente em saco tipo blíster e em papel grau cirúrgico com abertura asséptica,</t>
-  </si>
-  <si>
-    <t>EQUIPO MICRO GOTAS, com lanceta perfurante para conexão ao recipiente de solução, injetor lateral, sem látex, tubo de PVC de 1,5mt, atóxico e transparente, controlador de fluxo (gotejamento) tipo pinça rolete em polietileno, conexão luer lock para dispositivo de acesso venoso, câmara gotejadora flexível transparente sem entrada de ar, filtro de partículas de 15 micras, acondicionado individualmente em saco tipo blíster e em papel grau cirúrgico com abertura asséptica</t>
-  </si>
-  <si>
-    <t>EQUIPO DE NUTRIÇÃO ENTERAL, DESENVOLVIDO PARA ENTREMEAR A LIGAÇÃO DA SONDA DE ALIMENTAÇÃO ENTERAL (LIGADA AO PACIENTE) AO RECIPIENTE DE SOLUÇÕES (FRASCO OU BOLSA) QUE CONTEM O ALIMENTO A SER MINISTRADO, ESTERIL, FABRICADO EM PVC FLEXIVEL, POSSUI PONTA PERFURANTE COM TAMPA PROTETORA, CAMARA DE GOTEJAMENTO, VIABILIZA O CONTROLE DE FLUXO DE SOLUÇÕES, UMA VEZ QUE, POSSUI PINÇA ROLETE QUE GARANTE PRECISÃO NO CONTROLE DE GOTEJAMENTO, TUBO DISPONIVEL NA COR AZUL QUE EVITA A CONEXÃO ACIDENTAL COM O ACESSO VENOSO, CONECTOR TTIPO LUER SLIP ATOXICO E APIROGENICO, DESCARTAVEL E DE USO UNICO</t>
-  </si>
-  <si>
-    <t>ESFIGMOMANÔMETRO ADULTO COM BRAÇADEIRA EM METAL COMPLETO, COMPOSTO DE MANÔMETRO MECÂNICO TIPO RELÓGIO, COM MOSTRADOR GRADUADO EM MMHG, BRAÇADEIRA COM FECHO DE VELCRO, CONFECCIONADA EM LONA DE ALGODÃO, RESISTENTE, FLEXÍVEL E SE MOLDA FACILMENTE AO BRAÇO, MANGUITO E PERA FABRICADOS SEM EMENDAS DE SUBPECAS, COM BORRACHA ESPECIAL, QUE RECEBE TRATAMENTO TÉRMICO, RECOZIMENTO E POLIMENTO, APRESENTAM RESISTÊNCIA E PERFEITA VEDAÇÃO, ACONDICIONADA EM BOLSA APROPRIADA, EMBALAGEM INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>ESPARADRAPO IMPERMEÁVEL 10CM X 4,5M, com capa, em rolo, composição: fabricado em tecido 100% algodão, com uma camada de impermeabilização em uma das faces e uma camada adesiva a base de óxido e zinco, borracha natural e resinas, na outra face apresentando bobinado em carretel plástico, com a identificação do produto, marca e nome do fabricante,</t>
-  </si>
-  <si>
-    <t>ESPÉCULO VAGINAL TAMANHO P, KIT P/ EXAME PREVENÇÃO COLO UTERINO – EMBALAGEM COM 01 ESPECULO DESCARTÁVEL E ESTÉRIL, PAR DE LUVAS ESTÉRIL, LAMÍNA, ESPÁTULA DE AIRES E ESCOVA PARA PROCEDIMENTO GINECOLÓGICO</t>
-  </si>
-  <si>
-    <t>ESPÉCULO VAGINAL TAMANHO m, KIT P/ EXAME PREVENÇÃO COLO UTERINO – EMBALAGEM COM 01 ESPECULO DESCARTÁVEL E ESTÉRIL, PAR DE LUVAS ESTÉRIL, LAMÍNA, ESPÁTULA DE AIRES E ESCOVA PARA PROCEDIMENTO GINECOLÓGICO</t>
-  </si>
-  <si>
-    <t>ESPÉCULO VAGINAL TAMANHO G, KIT P/ EXAME PREVENÇÃO COLO UTERINO – EMBALAGEM COM 01 ESPECULO DESCARTÁVEL E ESTÉRIL, PAR DE LUVAS ESTÉRIL, LAMÍNA, ESPÁTULA DE AIRES E ESCOVA PARA PROCEDIMENTO GINECOLÓGICO</t>
-  </si>
-  <si>
-    <t>FITA ADESIVA BRANCA HOSPITALAR, CONFECCIONADA COM DORSO PAPEL CREPE 19MM X 50M,</t>
-  </si>
-  <si>
-    <t>FITA ADESIVA INDICADORA PARA AUTOCLAVE 19MM X 30M, RESISTENTE À ALTA TEMPERATURA, NA COR BRANCA</t>
-  </si>
-  <si>
-    <t>FITA CIRÚRGICA MICROPORE 25MM X 10M, TECIDO À BASE DE VISCOSE COM ADESIVO</t>
-  </si>
-  <si>
-    <t>FRASCO PARA NUTRIÇÃO ENTERAL 300 ML,</t>
-  </si>
-  <si>
-    <t>GEL P/ ECG E ULTRASON 1000G,</t>
-  </si>
-  <si>
-    <t>IODOPOLIVIDONA DEGERMANTE 10% C/ 1 LITRO,</t>
-  </si>
-  <si>
-    <t>IODOPOLIVIDONA TÓPICO 10% C/ 1 LITRO,</t>
-  </si>
-  <si>
-    <t>KIT P/ NEBULIZADOR ADULTO Conjunto completo com micro nebulizador, extensão com, CONECTOR PARA AR COMPRIMIDO OU OXIGÊNIO, MÁSCARA ADULTO, DE FÁCIL LIMPEZA E PRÁTICO MANUSEIO,</t>
-  </si>
-  <si>
-    <t>Sanval</t>
-  </si>
-  <si>
     <t>CLORIDRATO DE PROMETAZINA 50 MG 2ML</t>
-  </si>
-  <si>
-    <t>KIT P/ NEBULIZADOR INFANTIL, Conjunto completo com micro nebulizador, extensão com conector para ar comprimido ou oxigênio, máscara infantil, de fácil limpeza e prático manuseio,</t>
-  </si>
-  <si>
-    <t>Cristália</t>
   </si>
   <si>
     <t>COMPLEXO B + ÁCIDO ASCÓRBICO + FRUTOSE SOLUÇÃO INJETÁVEL EV CONTÉM1 AMPOLA A DE 10ML E 1 AMPOLA B DE 10ML</t>
   </si>
   <si>
-    <t>LENÇOL PARA MACA, ALGODAO CRU EXP, L, COM 1,70X1,00 COM NO MINIMO 180 FIOS, COM ELASTICO NAS LATERAIS,</t>
-  </si>
-  <si>
-    <t>LAMINA BISTURI Nº 11, descartável, estéril, em aço inoxidável, sem rebarbas, com corte afiado e que adaptem aos cabos de bisturi padrão, Embalagem individual, em papel laminado, abertura em pétala,</t>
-  </si>
-  <si>
     <t>DEXAMETAXONA 4MG/ML 2,5ML</t>
-  </si>
-  <si>
-    <t>LAMINA BISTURI Nº 15 DESCARTÁVEL, ESTÉRIL, EM AÇO INOXIDÁVEL, SEM REBARBAS,, ,COM CORTE AFIADO E QUE ADAPTEM AOS CABOS DE BISTURI PADRÃO, EMBALAGEM INDIVIDUAL, EM PAPEL LAMINADO, ABERTURA EM PÉTALA,</t>
-  </si>
-  <si>
-    <t>LAMINA BISTURI Nº 21 DESCARTÁVEL, ESTÉRIL, EM AÇO INOXIDÁVEL, SEM REBARBAS, , COM CORTE AFIADO E QUE ADAPTEM AOS CABOS DE BISTURI PADRÃO, EMBALAGEM INDIVIDUAL, EM PAPEL LAMINADO, ABERTURA EM PÉTALA,</t>
-  </si>
-  <si>
-    <t>LAMINA BISTURI Nº 22 DESCARTÁVEL, ESTÉRIL, EM AÇO INOXIDÁVEL, SEM REBARBAS,, COM CORTE AFIADO E QUE ADAPTEM AOS CABOS DE BISTURI PADRÃO, EMBALAGEM INDIVIDUAL, EM PAPEL LAMINADO, ABERTURA EM PÉTALA,</t>
-  </si>
-  <si>
-    <t>LAMINA BISTURI Nº 24 DESCARTÁVEL, ESTÉRIL, EM AÇO INOXIDÁVEL, SEM REBARBAS, , COM CORTE AFIADO E QUE ADAPTEM AOS CABOS DE BISTURI PADRÃO, EMBALAGEM INDIVIDUAL, EM PAPEL LAMINADO, ABERTURA EM PÉTALA,</t>
-  </si>
-  <si>
-    <t>LANCETA ESTÉRIL E DESCARTAVÉL SIMPLES PARA PUNÇÃO DIGITAL EM DIABÉTICOS, CAIXA COM 100 UNIDADEES</t>
   </si>
   <si>
     <t>DICLOFENACO DE SÓDIO 25MG/ML 3ML</t>
   </si>
   <si>
-    <t>LUVA CIRURGICA ESTERIL Nº 6,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
-  </si>
-  <si>
-    <t>LUVA CIRURGICA ESTERIL Nº 7,0 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
-  </si>
-  <si>
-    <t>Takeda</t>
-  </si>
-  <si>
     <t>DIMENIDRINATO 30 MG + PIRIDOXINA 50 MG INJ. + GLICOSE 1000 MG + FRUTOSE 1000 MG ENDOVENOSO 10 ML</t>
-  </si>
-  <si>
-    <t>LUVA CIRURGICA ESTERIL Nº 7,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
-  </si>
-  <si>
-    <t>LUVA CIRURGICA ESTERIL Nº 8,0 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
   </si>
   <si>
     <t>DIPIRONA SÓDICA 1G/2ML</t>
   </si>
   <si>
-    <t>LUVA CIRURGICA ESTERIL Nº 8,5 (PAR) - UND, ), em látex natural, com textura uniforme, sem falhas, lubrificada, com alta sensibilidade tátil, boa elasticidade e resistência, com acabamento no punho de formato anatômico, perfeita adaptação, Embalada o par e envelopada,</t>
-  </si>
-  <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO G, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL - caixa com 100 UNIDADEes</t>
-  </si>
-  <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO M, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL - caixa com 100 UNIDADEes</t>
-  </si>
-  <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO P, LÁTEX DE BORRACHA NATURAL, SUPERFÍCIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL caixa com 100 UNIDADEes</t>
-  </si>
-  <si>
-    <t>LUVA DE PROCEDIMENTO TAMANHO PP, LATEX DE BORRACHA NATURAL, SUPERFICIE LISA, AMBIDESTRA, NÃO ESTERIL COM PÓ BIOABSORVIVEL embalagem com 100 UNIDADEes</t>
-  </si>
-  <si>
-    <t>LUVA FORRADA PARA LIMPEZA, TAMANHO G, DE BORRACHA, MATERIAL LÁTEX NATURAL, AVELUDADA INTERNAMENTE E ANTIDERRAPANTE EMBALADA O PAR</t>
-  </si>
-  <si>
     <t>ENOXAPARINA SODICA 60MG/0,6 ML SOLUCAO INJETAVEL USO SUBCUTANEO/INTRAVENOSO COM 2 SERINGAS PRE-ENCHIDAS COM 0,6 ML</t>
-  </si>
-  <si>
-    <t>LUVA FORRADA PARA LIMPEZA, TAMANHO M, DE BORRACHA, MATERIAL LÁTEX NATURAL, AVELUDADA INTERNAMENTE E ANTIDERRAPANTE EMBALADA O PAR</t>
-  </si>
-  <si>
-    <t>Mylan</t>
   </si>
   <si>
     <t>ENOXAPARINA SÓDICA 40MG/0,4ML SOL. INJETÁVEL VIA SUBCUTÂNEA/ IV</t>
   </si>
   <si>
-    <t>LUVA FORRADA PARA LIMPEZA, TAMANHO P, DE BORRACHA, MATERIAL LÁTEX NATURAL, AVELUDADA INTERNAMENTE E ANTIDERRAPANTE EMBALADA O PAR</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTaVEL C/ ELASTICO, com tripla camada e filtro bacteriano, antialergica, na cor branca, caixa com 50 UNIDADEes</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 1,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 1,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 2,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEl, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 3,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 3,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 4,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 4,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 5,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO</t>
-  </si>
-  <si>
     <t>FOSFATO DE CLINDAMICINA 150 MG/ML 4ML USO IV/IM INJETAVEL</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 5,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>FIO DE NYLON 6,0 COM AGULHA DE 3CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
   </si>
   <si>
     <t>FUROSEMIDA 20MG.2ML</t>
   </si>
   <si>
-    <t>FIO DE NYLON 6,0 COM AGULHA DE 5CM, ESTÉRIL E DESCARTÁVEL, MONOFILAMENTAR, TRIANGULAR, CUTICULAR, EMBALADO EM ENVELOPE INDIVIDUAL EM PAPEL ALUMINIZADO OU PAPEL GRAU CIRÚRGICO E FILME TERMOPLÁSTICO,</t>
-  </si>
-  <si>
-    <t>PAPEL CREPADO PARA ESTERILIZAÇÃO 60 X 60 PAPEL SMS 60 X 60 CM PARA ESTERILIZAÇÃO, BARREIRA DE PROTEÇÃO MICROBIANA, BAIXA LIBERAÇÃO DE PARTICULAS, TRAMA REGULAR, ANTI- ESTATICO, NÃO-TÓXICO, DOBRADURA ASSÉPTICA, MALEÁVEL E DE FÁCIL MANUSEIO, INCINERÁVEL, COR BRANCO - CAIXA COM 500 UNIDADEES</t>
-  </si>
-  <si>
-    <t>SCALP Nº 19 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA,, ESTÉRIL COM REGISTRO NA ANVISA CAIXA COM 100 UNIDADEES</t>
-  </si>
-  <si>
-    <t>SCALP Nº 21 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
-  </si>
-  <si>
-    <t>SCALP Nº 23 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA,, ESTÉRIL, COM REGISTRO NA ANVISA,</t>
-  </si>
-  <si>
-    <t>SCALP Nº 25 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
-  </si>
-  <si>
     <t>GLICOSE 50% 10ML</t>
-  </si>
-  <si>
-    <t>SCALP Nº 27 HIPODÉRMICO, DESCARTÁVEL, DISPOSITIVO DE INFUSÃO INTRAVENOSA, , ESTÉRIL, COM REGISTRO NA ANVISA,</t>
-  </si>
-  <si>
-    <t>SERINGA DESC 10ML COM AGULHA 25X7 COM BICO LUER LOCK ESTÉRIL,</t>
-  </si>
-  <si>
-    <t>SERINGA DESC 10ML COM AGULHA 25X7 ESTERIL,</t>
   </si>
   <si>
     <t>HEPARINA SÓDICA SUBCUTÂNEA 5000 UI/0,25ML</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 20 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
-  </si>
-  <si>
-    <t>SERINGA DESCARTÁVEL 20 ML C/ AGULHA 25 X 7 estéril,,</t>
-  </si>
-  <si>
-    <t>SERINGA DESCARTAVEL 1ML C AGULHA 20MM X 0,55 COM BICO LUER LOCK, ESTERIL</t>
-  </si>
-  <si>
-    <t>SERINGA DESCARTÁVEL 03 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
-  </si>
-  <si>
     <t>HIDROCORTISONA 100 MG</t>
-  </si>
-  <si>
-    <t>SERINGA DESCARTÁVEL 03 ML C/ AGULHA 25 X 7 estéril,,</t>
   </si>
   <si>
     <t>HIDROCORTISONA 500MG</t>
   </si>
   <si>
-    <t>SERINGA DESCARTÁVEL 05 ML C/ AGULHA 25 X 7 COM BICO LUER LOCK estéril,,</t>
-  </si>
-  <si>
-    <t>SERINGA DESCARTÁVEL 05 ML C/ AGULHA 25 X 7 estéril,,</t>
-  </si>
-  <si>
-    <t>SERINGA PARA INSULINA DE 1ML, COM AGULHA 13MM X 0,45MM, CORPO TRANSPARENTE, CILINDRO COM ANEL DE RETENÇÃO, PRODUTO DE USO ÚNICO, ESTÉRIL, APIROGÊNICA, ATÓXICA, LÁTEX FREE</t>
-  </si>
-  <si>
-    <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 04,</t>
-  </si>
-  <si>
-    <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 06,</t>
-  </si>
-  <si>
-    <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 08,</t>
-  </si>
-  <si>
-    <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 10,</t>
-  </si>
-  <si>
-    <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 12,</t>
-  </si>
-  <si>
-    <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 14,</t>
-  </si>
-  <si>
-    <t>SONDA DE ALIVIO URETRAL DESCARTÁVEL Nº 16,</t>
-  </si>
-  <si>
-    <t>SONDA FOLEN Nº 10, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
-  </si>
-  <si>
-    <t>SONDA FOLEN Nº 12, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
-  </si>
-  <si>
-    <t>SONDA FOLEN Nº 14, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
-  </si>
-  <si>
-    <t>SONDA FOLEN Nº 16, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
-  </si>
-  <si>
-    <t>SONDA FOLEN Nº 18, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
-  </si>
-  <si>
-    <t>Halex Istar</t>
-  </si>
-  <si>
     <t>METRONIDAZOL 5MG/ML 100ML INJETÁVEL BOLSA</t>
-  </si>
-  <si>
-    <t>SONDA FOLEN Nº 20, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
-  </si>
-  <si>
-    <t>SONDA FOLEN Nº 22, comprimento 40 (+/-2) cm, com balão resistente e simétrico, em látex siliconizado, atóxica, flexível, atraumática, duas vias, uma via funil e outra via com válvula com perfeita vedação para enchimento de balão, ponta cilíndrica, macia, de fundo cego, dois orifícios grandes, lisos e arredondados nas laterais sem lados opostos (após o balão), Calibre e capacidade do balão estampados em local visível e permanente, Estéril e descartável, Embalagem individual com abertura em pétala e asséptica,</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO FISIOLOGICA A 0,9% 100 ML,</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO FISIOLOGICA A 0,9% 250 ML,</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO FISIOLOGICA A 0,9% 500 ML,</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO FISIOLOGICA A 0,9% 1000 ML,</t>
-  </si>
-  <si>
-    <t>SORO GALÃOICOSADO 5% 250 ML,</t>
-  </si>
-  <si>
-    <t>TIRAS REAGENTES PARA TESTE DE GALÃOICEMIA PARA USO COM O MONITOR, CAIXA COM 50 UN, OBS A EMPRESA VENCEDORA DESTE ITEM, DEVERÁ FORNECERA QUANTIDADE DE 50 MONITORES DE GALÃOICEMIA COMPATÍVEL COM A MARCA OFERTADA PARA ESTE ITEM</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL EM TNT UNIDADE COM 100 UNIDADEES,</t>
-  </si>
-  <si>
-    <t>TERMÔMETRO INFRA VERMELHO, MODO DE MEDIÇÃO DE TEMPERATURA 32C-43°C, FAIXA DE TEMPERATURA DO OBJETO 0-100 °C DENTRO DE 1-15CM DISTÂNCIA DE MEDIÇÃO, SEGURO, LIMPO, ESTÁVEL E COM DESEMPENHO CONFIÁVEL VISOR LCD,</t>
-  </si>
-  <si>
-    <t>TERMOMETRO DIGITAL, VISOR EM DISPLAY LED, AUTO MEMÓRIA, MOSTRA A ÚLTIMA TEMPERATURA PARA COMPARAÇÃO, PRECISÃO DE + OU - 01°C</t>
   </si>
   <si>
     <t>OMEPRAZOL 40 MG INJETAVEL</t>
   </si>
   <si>
-    <t>FIXADOR CITOLÓGICO DESTINADO À FIXAÇÃO DE ESFREGAçOS FEITOS A PARTIR DE MATERIAL, COLHIDO DA EXTO CÉRVICE, ENDOCÉRVICE, PAREDE VAGINAL E ESFREGAÇOS DE MATERIAL COLHIDO EM OUTRAS ÁREAS DO ORGANISMO À BASE DE PROPILENOGALÃOICOL E ÁLCOOL SISTEMA TIPO SPRAY COM PROPRIEDADES PARA FIXAÇÃO E SUSTENTAÇÃO DA INTEGRIDADE CELULAR DE ESFREGAÇOS DE MATERIAL BIOLÓGICO ESTENDIDOS EM LÂMINA DE VIDRO EMBALAGEM DE 100ML</t>
-  </si>
-  <si>
-    <t>PRO-PÉ PRODUZIDO TECIDO 100% POLIPROPILENO, SISTEMA DE ELÁSTICO DUPLO DE ALTA QUALIDADE SOLDADO EM TODA VOLTA PRODUTO DESCARTÁVEL, UNIDADE COM NO MÍNIMO 100 UNIDADEES</t>
-  </si>
-  <si>
     <t>ONDANSETRONA 8MG AMPOLAS 4ML</t>
-  </si>
-  <si>
-    <t>ÓCULOS DE PROTEÇÃO INDIVIDUAL, USO HOSPITALAR LENTE EM POLICARBONATO, TRANSPARENTE, COM PELÍCULA ANTE EMBAÇANTE, ARMAÇÃO EM NYLON PRETO E FLEXÍVEL, LENTES COM APOIO NASAL E PROTEÇÃO LATERAL EM POLICARBONATO, HASTES TIPO ESPÁTULA COM AJUSTE DE COMPRIMENTO LAVÁVEL E PASSÍVEL DE DESINFECÇÃO QUÍMICA</t>
-  </si>
-  <si>
-    <t>PROTETOR FACIAL DESENVOLVIDO ESPECIALMENTE PARA A ÁREA MEDICA, CIRÚRGICA E ODONTOLÓGICA, PROTETOR FACIAL CONTRA RESPINGOS COMPOSTO POR UM FILME DE PLÁSTICO E UMA ESPUMA PARA RETENÇÃO DO SUOR</t>
-  </si>
-  <si>
-    <t>MASCARA RESPIRATORIA MODELO PFF 2 S, na cor azul, com certificado de aprovaçao (ca), resistencia contra fluidos, eficacia de filtragem de particulas e bacterias, capacidade de filtrar materiais particulados</t>
-  </si>
-  <si>
-    <t>MÁSCARAS RESPIRATÓRIA, MODELO N95 PFF 2 S, NA COR BRANCA, COM CERTIFICADO DE APROVAÇÃO (CA), RESISTÊNCIA CONTRA FLUÍDOS, EFICÁCIA DE FILTRAGEM DE PARTÍCULAS E BACTÉRIAS, CAPACIDADE DE FILTRAR MATERIAIS PARTICULADOS</t>
-  </si>
-  <si>
-    <t>TESTE RAPIDO PARA DETECÇÃO QUALITATIVA ESPECIFICA IGC E IGM DA COVID 19,</t>
-  </si>
-  <si>
-    <t>CAMISOLAS HOSPITALAR, NA COR VERDE CLARO BEBÊ OU BEGE, MATERIAL TRICOLINI 100% ALGODÃO TAMANHO P, M E G,DE AMARRAÇÃO COM FITAS TRESPASSADOS</t>
   </si>
   <si>
     <t>PIPERACILINA + TAZOBACTAM 4G + 500MG INJETÁVEL FRASCO AMPOLA</t>
   </si>
   <si>
-    <t>LENÇOL DESCARTAVEL TNT com elastico para maca 90cm x 2m, cor branco, UNIDADE com 10 UNIDADEes</t>
-  </si>
-  <si>
     <t>POLIVITAMÍNICO COMPLEXO B 2ML</t>
-  </si>
-  <si>
-    <t>PAPEL LENÇOL HOSPITALAR 70CM X 50 METROS, 100% CELULOSE VIRGEM, BRANCO, QUALIDADE IGUAL OU SUPERIOR A MARCA PLUMAX</t>
   </si>
   <si>
     <t>POMADA COLAGENASE + CLORANFENICOL 30 GR</t>
   </si>
   <si>
-    <t>FIXADOR DE CANULA TRAQUIOSTOMIA INFANTIL,</t>
-  </si>
-  <si>
-    <t>Belfar</t>
-  </si>
-  <si>
     <t>POMADA NEOMICINA + BACITRACINA 10 G</t>
-  </si>
-  <si>
-    <t>OXIMETRO DE DEDO, PORTATIL PARA MEDIR SPO2 (OXIGENIO NO SANGUE) AFERIÇÃO DE FREQUENCIA CARDIACA COM CURVA PLESTIMOGRAFICA, RESULTADO RAPIDO, NAO INVASIVO, SEM DOR, AFERIÇÃO DE HEMOGALÃOOBINA 35/100% PRECISÃO DE +- 2% AFERIÇÃO DEBATIMENTOS CARDIACOS 30-250 BPM (PRECISÃO DE MAIS OU MENOS 1BPM) AUTO DESLIGAMENTO EM 08 SEGUNDOS, SINALIZADOR VISUAL DO NIVEL DE BATERIA, AUTONOMIA DE 20HORASUTILIZANDO PILHAS 2X AAA</t>
-  </si>
-  <si>
-    <t>Nativita</t>
   </si>
   <si>
     <t>POMADA SULFADIAZINA DE PRATA 1% BISNAGA 50G</t>
   </si>
   <si>
-    <t>KIT PARA RETIRADA DE PONTOS, CONTENDO UM ESTOJO INOX, 10X0,50X0,2 CM, 1 MANTA DE SILICONE 12X0,5X0,2CM - PINÇA DE RETIRADA DE PONTOS 10CM TESOURA SPENCER RETA</t>
-  </si>
-  <si>
-    <t>KIT PARA SUTURA CONTENDO UM CABO DE BISTURI , N°3, 1 ESTOJO INOX, 14X08X02CM 01 PINÇA ANATOMICA DENTE DE RATO, 12CM, UMA PINÇA ANATOMICA DISSECÇÃO 12CM 01 PINÇA DE MOSQUITO CURVA 12CM, 01 PORTA AGULHA MAYO HEGAR, SEM VIDEA 12CM, 01 TESOURA IRIS PONTA RETA 11 CM</t>
-  </si>
-  <si>
-    <t>FOCO CLINICO GINECOLOGICO, refletor de luz auxiliar para exames clinicos e ginecologicos com haste superior, flexivel e cromada, pedestal com haste inferior pintada, altura variavel entre 100 a 150 cm, pintura em epoxi a 250° c de alta resistencia, base do pedestal com 04 rodizios, proporcionando maior sustentação e segurança ao equipamento, alimentação eletrica automatica de 127 a 20 v 50/60hz incluso lampada de led, luz fria e branca, garantia de 1 ano contra defeitos de fabricação dimensões minimas comprimento 15 cm, largura 10,5 cm, altura 106cm produto projetado em conformidade aos requisitos das normas nbr-iec 60,601 1 e nbr-iec 60,601 1-2</t>
-  </si>
-  <si>
-    <t>DETECTOR FETAL PORTÁTIL, DISPLAY LCD,FAIXA DE MEDIÇÃO DE FCF 30 A 240BPM CICLAGEM 6000 A 60000 E FREQUÊNCIA DE TRABALHO 2MHZ ± 10% ALIMENTAÇÃO BATERIA 9V X 200 MAH ALCALINA RECARREGÁVEL DIÂMETRO MÁXIMO DO FOCO ULTRASSÔNICO 50MM PROFUNDIDADE MÁXIMA DO FEIXE ULTRASSÔNICO 200 A 250 MM ALARME DE BRADICARDIA E TAQUICARDIA CONTROLE DE VOLUME ALOJAMENTO PARA TRANSDUTOR NA LATERAL DO APARELHO SAÍDA PARA FONE DE OUVIDO OU GRAVADOR DE SOM POTENCIA ULTRASSÔNICA 5MH/CM² POTÊNCIA MÁXIMA DE CONSUMO 2VA GABINETE E TRANSDUTOR CONFECCIONADO EM PLÁSTICO ABS QUATRO MODOS DE FUNCIONAMENTO INDICADOR DE BATIMENTO CARDÍACO FETAL E BATERIA FRACA NO DISPLAY COM CONTADOR NUMÉRICO DIGITAL CARREGADOR PARA BATERIA UTILIZA REDE ELÉTRICA (110 V) OU (220 V) DESLIGAMENTO AUTOMÁTICO PARA ECONOMIA DE BATERIA APÓS 1 MINUTO SEM DETECÇÃO COMPARTIMENTO PARA A BATERIA LOCALIZADO NA TRASEIRA DIMENSÕES (LPA) 131 X 117 X 33 MM PESO LÍQUIDO 320GR INCLUSO FONE DE OUVIDO INTRA-AURICULAR, BATERIA 9V ALCALINA GARANTIA DE 01 ANO CONTRA DEFEITOS DE FABRICAÇÃO</t>
-  </si>
-  <si>
-    <t>DETECTOR FETAL DE MESA, FAIXA DE MEDIÇÃO DE FCF 30 A 240 BPM CICLAGEM DE 6000 A 60000 E FREQUÊNCIA DE TRABALHO 2MHZ ±10% ALIMENTAÇÃO CHAVEADA QUE OPERA DE 110 A 230 V ±10% E FREQUÊNCIA DE 50/60HZ DIÂMETRO MÁXIMO DO FOCO ULTRASSÔNICO 50 MM PROFUNDIDADE MÁXIMA DO FEIXE ULTRASSÔNICO 200 A 250 MM CONTROLE DE VOLUME DIGITAL 9 NÍVEIS (1 - 9) CONTROLE DE TONALIDADE DIGITAL 10 NÍVEIS (0 – 9) ALOJAMENTO PARA TRANSDUTOR NA LATERAL DO GABINETE SAÍDA PARA FONE DE OUVIDO OU GRAVADOR DE SOM POSSUI FUSÍVEL DE PROTEÇÃO CONTRA SOBRECARGA DA CORRENTE ELÉTRICA PESO LÍQUIDO 1,8KG DIMENSÕES (LPA) 217X250X100MM POTENCIA 32 VA/ 15W POTENCIA ULTRASSÔNICA 5MH/CM² GARANTIA 2 ANOSCONTEÚDO DA EMBALAGEM 01 – APARELHO SONAR DE MESA 01 – TRANSDUTOR 2MHZ 01 – FONE PARA OUVIDO 01 – FRASCO DE GEL 01 – CABO DE ALIMENTAÇÃO 01 – MANUAL DE INSTRUÇÕES</t>
-  </si>
-  <si>
-    <t>CAMPO CIRURGICO TAMANHO 50X50 ESTÉRIL, COM FENESTRA, PRODUTO FABRICADO EM FALSO TECIDO (TNT), PRODUTO ESTERIL</t>
-  </si>
-  <si>
-    <t>CADEIRA DE RODAS ADULTO FABRICADA EM AÇO CARBONO, COM ASSENTO/ENCOSTO EM NYLON, DOBRÁVEL, FREIOS BILATERAIS, ARO IMPULSOR BILATERAL, APOIO PARA BRAÇOS E PÉS FIXOS, RODAS DIANTEIRAS ARO 06 COM PNEUS MACIÇOS E RODAS TRASEIRAS ARO 24 EM ALUMÍNIO COM PNEUS INFLÁVEL LARGURA DO ASSENTO 40 CM, PROFUNDIDADE DO ASSENTO 41 CM, ALTURA ENCOSTO 36 CM, ALTURA DO ASSENTO AO CHÃO 52 CM, COMPRIMENTO TOTAL DA CADEIRA 100 CM, LARGURA TOTAL ABERTA 64 CM, LARGURA TOTAL FECHADA 30 CM, ALTURA DO CHÃO À MANOPLA 90 CM, PESO DA CADEIRA 14 KG, CAPACIDADE MÁXIMA DE PESO 85 KG, ALTURA DO CHÃO AO AP DE BRAÇO 69 CM, ALTURA DO ASSENTO AO AP DE BRAÇO 19 CM, OPÇÃO DE CORES CINZA-PRETA GARANTIA DE 24 MESES</t>
-  </si>
-  <si>
-    <t>CADEIRA DE RODAs INFANTIL, FABRICADA EM AÇO CARBONO, DOBRÁVEL, COM ENCOSTO ALMOFADADO, ASSENTO DUPLO ALMOFADADO EM NYLON, FREIOS BILATERAIS, ARO IMPULSOR BILATERAL, X DUPLO NA ESTRUTURA, APOIO PARA OS BRAÇOS ESCAMOTEÁVEIS, APOIO PARA OS PÉS COM REGULAGEM DE ALTURA RODAS TRASEIRAS ARO 20 EM ALUMÍNIO COM PNEUS INFLÁVEIS E DIANTEIRAS ARO 06 COM PNEUS MACIÇOS RODAS TRASEIRAS REMOVÍVEIS COM SISTEMA QUICK RELEASE ESPECIFICAÇOES LARGURA 36CM, PROFUNDIDADE DO ASSENTO 40CM, ALTURA DO ENCOSTO 43CM, ALTURA DO ASSENTO AO CHÃO 46CM, COMPRIMENTO TOTAL DA CADEIRA 81CM, LARGURA TOTAL ABERTA 58CM, LARGURA TOTAL FECHADA 35CM, ALTURA DO CHÃO À MANOPLA 85CM, PESO DA CADEIRA 18 KG, CAPACIDADE MÁXIMA DE PESO 60KG, ALTURA DO CHÃO AO APOIO DE BRAÇO 66CM, ALTURA DO ASSENTO AO APOIO DE BRAÇO 20CM GARANTIA DE 01 ANO</t>
-  </si>
-  <si>
-    <t>CADEIRA DE BANHO, CONFECCIONADA EM AÇO CARBONO IDEAL PARA USO SANITÁRIO E CHUVEIRO ASSENTO SANITÁRIO REMOVÍVEL, APOIO PARA OS BRAÇOS FIXOS APOIO PARA OS PÉS FIXOS, FREIOS BILATERAIS RODAS TRASEIRAS ARO 06, GIRATÓRIAS COM PNEUS MACIÇOS RODAS DIANTEIRAS ARO 06, COM PNEUS MACIÇOS POSICIONADAS NA PARTE INTERNA DA CADEIRA, ENCOSTO EM NYLON LARGURA DO ASSENTO 40 CM PROFUNDIDADE DO ASSENTO 40 CM ALTURA ENCOSTO 38 CM ALTURA DO ASSENTO AO CHÃO 50 CM COMPRIMENTO TOTAL DA CADEIRA 54 CM LARGURA TOTAL ABERTA 44 CM, LARGURA TOTAL FECHADA NÃO FECHA, ALTURA DO CHÃO À MANOPLA 93 CM, PESO DA CADEIRA 8 KG, CAPACIDADE MÁXIMA DE PESO 150 KG, ALTURA DO CHÃO AO AP DE BRAÇO 64 CM ALTURA DO ASSENTO AO AP DE BRAÇO 14 CM, GARANTIA DE 01 ANO</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
     <t>SORO GLISOFIOLÓGICO 500ML SISTEMA FECHADO</t>
-  </si>
-  <si>
-    <t>NEBULIZADOR/INALADOR PORTÁTIL, CONTENDO FILTROS, MANGUEIRA, MÁSCARA PARA ADULTO, MÁSCARA PARA CRIANÇA, PIPETA NEBULIZADOR, VOLTAGEM 110W/220W GARANTIA DE 01 ANO</t>
   </si>
   <si>
     <t>SORO FISIOLÓGICO 0,9% 100ML SISTEMA FECHADO</t>
   </si>
   <si>
-    <t>MACA HOSPITALAR, PRÓPRIO PARA EXAMES, REPOUSO E MASSAGEM, LEITO ESTOFADO, DENSIDADE 23, ARMAÇÃO TUBULAR EM PINTURA EPÓXI, CABECEIRA RECLINÁVEL, SUPORTE PARA LENÇOL DESCARTÁVEL, PÉS COM PONTEIRAS PVC, CAPACIDADE ATÉ 150 KG DIMENSÕES EXTERNAS COMPRIMENTO 181CM, LARGURA 0,61 CM ALTURA 0,81 CM GARANTIA DE 01 ANO</t>
-  </si>
-  <si>
     <t>SORO FISIOLÓGICO 0,9% 250ML SISTEMA FECHADO</t>
-  </si>
-  <si>
-    <t>MESA GINECOLÓGICA, ASSENTO FIXO, SUPORTE PARA BALDE, ENCOSTO REGULÁVEL, APOIO PARA OS PÉS, PINTURA EM EPÓXI, REVESTIMENTO EM COURVIN, PÉS COM PONTEIRAS PLÁSTICAS, LEITO ESTOFADO DIVIDIDO EM TRÊS PARTES, CAPACIDADE SUPORTADA APROXIMADA 90 KG, PESO APROXIMADO DA MESA GINECOLÓGICA 20 KG, DIMENSÕES DA MESA GINECOLÓGICA ABERTA140CM (A) X 53CM (L) 180CM (C)GARANTIA DE 01 ANO</t>
   </si>
   <si>
     <t>SORO FISIOLÓGICO 0,9% 500ML SISTEMA FECHADO</t>
   </si>
   <si>
-    <t>TESTE RÁPIDO SWAB NASAL PARA COVID-19 – TESTE RÁPIDO DE DIAGNÓSTICO IN VITRO PAR, Teste Rápido SWAB nasal para COVID-19 – teste rápido de diagnóstico in vitro para detecção qualitativa do antígeno SARS-CoV-2 (Ag) em amostra de esfregaço nasofaríngeo humano, Caixa contendo: - 25 dispositivos de teste com dessecante em bolsa individual, - Tampão (1 x 9 ml/frasco) - 25 tubos de extração, - 1 swab controle positivo, - 1 swab controle negativo, - 25 swabs nasofaríngeos esterilizados para coleta de amostra, - 1 suporte para tubos, - 1 guia de referência rápida (nasofaríngea) - 1 instrução de uso, Caixa com 25 UNIDADEes,</t>
-  </si>
-  <si>
     <t>SORO FISIOLÓGICO 0,9% 1000ML SISTEMA FECHADO</t>
-  </si>
-  <si>
-    <t>FITA ANTROPOMÉTRICA PARA REALIZAR MEDIÇÕES PRECISAS DO CORPO, COMO CABEÇA, ABDÔMEN E CINTURA, MATERIAL PLÁSTICA ABS RESOLUÇÃO EM MILÍMETROS RETRAÇÃO AUTOMÁTICA FAIXA DE MEDIÇÃO 150CM,</t>
   </si>
   <si>
     <t>SORO GLICOSADO 5% 500 ML SISTEMA FECHADO</t>
   </si>
   <si>
-    <t>ADIPÔMETRO (PLICÔMETRO) PORTÁTIL DESTINADO A MEDIR A ESPESSURA DO TECIDO ADIPOSO, EM DOBRAS CUTÂNEAS TRICIPTAL, SUBESCAPULAR, AXILAR MÉDIA, SUPRA-ILÍACA, ABDOMINAL, BICIPTAL, TORÁXICA, SUPRA-ESPINAL, PANTURRILHA MEDIAL E COXA,DESCRICAO DIPÔMETRO CIENTÍFICO EM POLÍMERO MATERIAL TERMO PLÁSTICO INJETÁVEL ABS ESCALA GRADUADA DE MEDIÇÃO DÉCIMOS DE MILÍMETRO APALPADORES OVALADOS COM ÁREA DE APROXIMADAMENTE 97MM² AMPLITUDE DE 0 A 65MM TOLERÂNCIA DE MEDIÇÃO +/- 0,5MM DIMENSÕES 25X15X50CM (CAIXALXA) PESO LÍQUIDO 320G, ACOMPANHA LAUDO DE CALIBRAÇÃO,GARANTIA 06 MESES</t>
-  </si>
-  <si>
-    <t>SONDA ASPIRAÇÃO TRAQUEAL C/ VALVULA TUBO DESCARTAVEL N06,</t>
-  </si>
-  <si>
-    <t>SONDA ASPIRAÇÃO TRAQUEAL C/ VALVULA TUBO DESCARTAVEL N08,</t>
-  </si>
-  <si>
     <t>SORO RINGER COM LACTADO 500ML SISTEMA FECHADO</t>
-  </si>
-  <si>
-    <t>SONDA ASPIRAÇÃO TRAQUEAL C/ VALVULA TUBO DESCARTAVEL N10,</t>
   </si>
   <si>
     <t>SULFATO DE ATROPINA 0,250 MG/ML</t>
   </si>
   <si>
-    <t>SONDA ASPIRAÇÃO TRAQUEAL C/ VALVULA TUBO DESCARTAVEL N12,</t>
-  </si>
-  <si>
-    <t>COLETOR DE URINA DE SISTEMA FECHADO COM CORDÃO, COMPOSTO DE01 BOLSA COLETORA GRADUADA CAPACIDADE DE 2000ML,TRANSPARENTE NA FRENTE E OPACO NO VERSO,COM VALVULA ANTI REFLUXO,PINÇA CORTA FLUXO PRENDEDOR,EXTENSOR COM 120CM DE COMPRIMENTO,MEMBRANA EM LATEX CICATRIZANTE,ALÇA PARA FIXAÇÃO NO LEITO,CONECTOR UNIVERSAL COM TAMPA PROTETORA,USO ÚNICO ESTÉRIL,DESCARTAVEL,ATOXICO,APIROGENICO,COM FILTRO ANTIBACTERIANO,EMBALAGEM INDIVIDUAL,PONTO DE COLETA PARA AMOSTRAS DEVE APRESENTAR DADOS DE IDENTIFICAÇÃO DO PRODUTO,DO FABRICANTE,DATA DE FABRICAÇÃO,PRAZO DE VALIDADE E TIPO DE ESTERELIZAÇÃO E QUE PERMITA ABERTURA TECNICA ASSEPTICA,REGISTRADO NA ANVISA,</t>
-  </si>
-  <si>
-    <t>COLETOR PARA MATERIAL PERFUROCORTANTE 20 LITROS, Confeccionado em papel incinerável, cor amarela, revestido internamente com produto impermeabilizante que evita umidade e vazamento, acompanhado de saco plástico ou não, com instruções de montagem e uso impressas externamente, cinta em material resistente à perfurações, alça para transporte fixa ao coletor, tampa fixa ao coletor, bocal com abertura que facilite o descarte de material e linha que apresente o limite máximo de enchimento Fabricado de acordo com a NR 32 (MTE), constando externamente a simbologia de material infectante conforme NBR 7500 Deve atender as normas NBR 13853 – caixa com 20 UNIDADEes</t>
-  </si>
-  <si>
-    <t>ESTETOSCÓPIO DUPLO, OLIVAS MACIAS E ANATÔMICAS EM PVC SILICONADO, ESTRUTURAS EM METAL CROMADO E POLIDO PARA MAIOR DURABILIDADE E DESINFECÇÃO,MOLA DO ÂNGULO EM AÇO ESPECIAL PARA AJUSTAR O ESTETOSCÓPIO SEM PRESSIONAR OS OUVIDOS,TUBO ``Y`` EM PVC LISO PARA MAIOR DURABILIDADE E DESINFECÇÃO,ANEL DE PVC COLORIDO PARA NÃO TOCAR O METAL DIRETAMENTE NO PACIENTE E TRANSMITIR SENSAÇÃO FRIA,AUSCULTADOR DUPLO EM METAL CROMADO E LISO,IDEAL PARA AUSCULTAÇÃO CARDÍACA E PULMONAR</t>
-  </si>
-  <si>
-    <t>OTOSCOPIO COM AS SEGUINTES CARACTERÍSTICAS: OTOSCÓPIO CABEÇA EM METAL, DE ALTA RESISTÊNCIA, CONEXÃO COM PÊRA DE INSUFLAÇÃO, PERMITINDO OTOSCOPIA PNEUMÁTICA, CABO EM METAL ANODIZADO ESTRIADO, 03 ESPECULOS DE DIFERENTES CALIBRES, TRANSMISSÃO DE LUZ DE FORMA DIRETA,LÂMPADA HALÓGENA, BOLSA EM COURVIN COM COMPARTIMENTOS PARA GUARDAR O OTOSCÓPIO E ESPECULOS, GARANTIA DE UM ANO, REGISTRO ANVISA,</t>
-  </si>
-  <si>
-    <t>PAPAGAIO NOVA LUMINOX 26X13 MARRECO,</t>
-  </si>
-  <si>
     <t>SULFATO DE SALBUTAMOL 100MCG/DOSE AEROSOL 200 DOSES</t>
-  </si>
-  <si>
-    <t>SONDA ENTERICA P/ALIMENTAÇÃO E C/PESO E COM FIO GUIA INSERIDO, LUMEM INTENO E, SISTEMA DE PESO REVESTIDO POR UMA SUBSTANCIA LUBRIFICANTE HIDROFILA (HYDROMER), 100º POLIURETO RADIOPACO, CONECTOR EM Y Nº12 (43-109CM)</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº04, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
   </si>
   <si>
     <t>TENOXICAN 20 MG FR/AP</t>
   </si>
   <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº06, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº08, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
     <t>TRAMANDOL 50 MG/ML AMPOLA 2ML</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº10, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº12, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº14, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº16, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº18, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA CURTA Nº20, EM PVC, FLEXÍVEL, ATÓXICO E ESTÉRIL,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA LONGA Nº 04 em PVC, flexível, atóxico e estéril,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA longa Nº 06 em PVC, flexível, atóxico e estéril,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA longa Nº 08 em PVC, flexível, atóxico e estéril,</t>
   </si>
   <si>
     <t>DIPIRONA SÓDICA 500 MILIGRAMAS/MILILITRO, SOLUÇÃO INJETÁVEL, AMPOLA COM 02 ML</t>
   </si>
   <si>
-    <t>SONDA NASOGÁSTRICA LONGA Nº 10 em PVC, flexível, atóxico e estéril,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA LONGA Nº 12 em PVC, flexível, atóxico e estéril,,</t>
-  </si>
-  <si>
     <t>AMOXICILINA+CLAVULANATO 1G+200MG PÓ PARA SOLUÇÃO INJETAVEL INTRAVENOSO</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA LONGA Nº 14 em PVC, flexível, atóxico e estéril,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA LONGA Nº 16 em PVC, flexível, atóxico e estéril,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA LONGA Nº 18 em PVC, flexível, atóxico e estéril,,</t>
-  </si>
-  <si>
-    <t>SONDA NASOGÁSTRICA LONGA Nº 20 em PVC, flexível, atóxico e estéril,,</t>
-  </si>
-  <si>
-    <t>TORNEIRA DE 3 VIAS, dividida em corpo e núcleo, sendo o corpo em policarbonato e o núcleo em plástico opaco e colorido Duas extremidades tipo luer lock com tampa e uma luer slip com tampa Movimento giratório da manopla (permitindo a passagem ou bloqueio de líquidos), setas indicativas direcionais do fluxo visível Descartável e estéril Embalagem individual com abertura em pétala e asséptica</t>
-  </si>
-  <si>
-    <t>TUBO DE LÁTEX NATURAL Nº 201 15MTS, - Tamanho: 15 metros, - Cor: Amarelo, - Diâmetro externo: 8,0mm, - Diâmetro interno: 4,0mm, - Reg, ANVISA: 80286000006, - Tubo de Látex, - Não estéril, - Para uso único, - Produto com validade,</t>
   </si>
   <si>
     <t>CLORIDRATO DE CLONIDINA 150MCG/ML SOL INJETAVEL 1ML</t>
   </si>
   <si>
-    <t>UMIDIFICADOR COM FRASCO 250 ML ROSCA METAL P/ OXIGÊNIO COM EXTENÇÃO E MASCARA,</t>
-  </si>
-  <si>
-    <t>União Química</t>
-  </si>
-  <si>
     <t>CETOPROFENO 100MG INJETAVEL INTRAVENOSO</t>
   </si>
   <si>
-    <t>VALVULA E BOLSA RESERVATORIO DE OXIGÊNIO AMBU ADULTO VOL, 120ML,</t>
-  </si>
-  <si>
-    <t>VALVULA E BOLSA RESERVATORIO DE OXIGENIO AMBU CRIANÇA VOL, 500ML,</t>
-  </si>
-  <si>
-    <t>VALVULA RESERVATORIO PARA AMBU,</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO FISIOLOGICA 0,9% DE USO TOPICO VOL 500 ML COM GOTEJADOR,</t>
-  </si>
-  <si>
-    <t>Eurofarma</t>
-  </si>
-  <si>
     <t>CEFTRIAXONA 1G IM/IV</t>
-  </si>
-  <si>
-    <t>TESTE DE GRAVIDEZ, CONTEM UMA TIRA DE TESTE, E UM FRASCO COLETOR,</t>
-  </si>
-  <si>
-    <t>RÉGUA ANTROPOMETRICA INFANTIL, MATERIAL MADEIRA MACIÇA PADRAO MARFIM, FAIXA DE MEDIÇÃO DE 0 A 100CM RESOLUÇÃO EM MILIMETROS GRADUAÇÃO 1MM, USO PORTATIL</t>
-  </si>
-  <si>
-    <t>ARMARIO VITRINE DE 1 PORTA COM FECHADURA FUNDO E TETO COM CHAPA DE AÇO, COMPRIMENTO 0,50CM ALTURA 1,50M PROFUNDIDADE 0,40 CM NA COR BRANCA</t>
-  </si>
-  <si>
-    <t>ESCADA 02 DEGRAUS, ESTRUTURAS CONSTRUIDA EM TUBOS 7/8 DEGRAUS, EM CHAPA COM PISO ANTIDERRAPANTE</t>
   </si>
 </sst>
 </file>
@@ -1750,31 +1102,31 @@
         <v>11751</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0">
-        <v>500</v>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1785,31 +1137,31 @@
         <v>11752</v>
       </c>
       <c r="C3" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="0">
-        <v>300</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1820,31 +1172,31 @@
         <v>11753</v>
       </c>
       <c r="C4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1855,28 +1207,28 @@
         <v>11754</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" s="0">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="K5" s="0">
         <v>884</v>
@@ -1890,28 +1242,28 @@
         <v>11755</v>
       </c>
       <c r="C6" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J6" s="0">
-        <v>7.15</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <v>3575</v>
@@ -1925,28 +1277,28 @@
         <v>11756</v>
       </c>
       <c r="C7" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J7" s="0">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0">
         <v>2541.5</v>
@@ -1960,28 +1312,28 @@
         <v>11757</v>
       </c>
       <c r="C8" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J8" s="0">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>6500</v>
@@ -1995,31 +1347,31 @@
         <v>11758</v>
       </c>
       <c r="C9" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -2030,28 +1382,28 @@
         <v>11759</v>
       </c>
       <c r="C10" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J10" s="0">
-        <v>12.87</v>
+        <v>0</v>
       </c>
       <c r="K10" s="0">
         <v>2574</v>
@@ -2065,28 +1417,28 @@
         <v>11760</v>
       </c>
       <c r="C11" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="0">
-        <v>10000</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J11" s="0">
-        <v>76.7</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>4602</v>
@@ -2100,31 +1452,31 @@
         <v>11761</v>
       </c>
       <c r="C12" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="0">
-        <v>10000</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -2135,31 +1487,31 @@
         <v>11762</v>
       </c>
       <c r="C13" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="0">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2170,31 +1522,31 @@
         <v>11763</v>
       </c>
       <c r="C14" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2205,31 +1557,31 @@
         <v>11764</v>
       </c>
       <c r="C15" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -2240,31 +1592,31 @@
         <v>11765</v>
       </c>
       <c r="C16" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -2275,31 +1627,31 @@
         <v>11766</v>
       </c>
       <c r="C17" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2310,31 +1662,31 @@
         <v>11767</v>
       </c>
       <c r="C18" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -2345,31 +1697,31 @@
         <v>11768</v>
       </c>
       <c r="C19" s="0">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -2380,31 +1732,31 @@
         <v>11769</v>
       </c>
       <c r="C20" s="0">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -2415,28 +1767,28 @@
         <v>11770</v>
       </c>
       <c r="C21" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J21" s="0">
-        <v>12.35</v>
+        <v>0</v>
       </c>
       <c r="K21" s="0">
         <v>17290</v>
@@ -2450,31 +1802,31 @@
         <v>11771</v>
       </c>
       <c r="C22" s="0">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -2485,31 +1837,31 @@
         <v>11772</v>
       </c>
       <c r="C23" s="0">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -2520,31 +1872,31 @@
         <v>11773</v>
       </c>
       <c r="C24" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -2555,31 +1907,31 @@
         <v>11774</v>
       </c>
       <c r="C25" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="0">
-        <v>4000</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2590,31 +1942,31 @@
         <v>11775</v>
       </c>
       <c r="C26" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -2625,28 +1977,28 @@
         <v>11776</v>
       </c>
       <c r="C27" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J27" s="0">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="K27" s="0">
         <v>10140</v>
@@ -2660,31 +2012,31 @@
         <v>11777</v>
       </c>
       <c r="C28" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="0">
         <v>0</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -2695,31 +2047,31 @@
         <v>11778</v>
       </c>
       <c r="C29" s="0">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="0">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -2730,31 +2082,31 @@
         <v>11779</v>
       </c>
       <c r="C30" s="0">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2765,31 +2117,31 @@
         <v>11780</v>
       </c>
       <c r="C31" s="0">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -2800,31 +2152,31 @@
         <v>11781</v>
       </c>
       <c r="C32" s="0">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="0">
         <v>0</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -2835,31 +2187,31 @@
         <v>11782</v>
       </c>
       <c r="C33" s="0">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -2870,31 +2222,31 @@
         <v>11783</v>
       </c>
       <c r="C34" s="0">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2905,28 +2257,28 @@
         <v>11784</v>
       </c>
       <c r="C35" s="0">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="J35" s="0">
-        <v>8.97</v>
+        <v>0</v>
       </c>
       <c r="K35" s="0">
         <v>17940</v>
@@ -2940,28 +2292,28 @@
         <v>11785</v>
       </c>
       <c r="C36" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="J36" s="0">
-        <v>17.55</v>
+        <v>0</v>
       </c>
       <c r="K36" s="0">
         <v>8775</v>
@@ -2975,28 +2327,28 @@
         <v>11786</v>
       </c>
       <c r="C37" s="0">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="0">
-        <v>4000</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="J37" s="0">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="K37" s="0">
         <v>19110</v>
@@ -3010,31 +2362,31 @@
         <v>11787</v>
       </c>
       <c r="C38" s="0">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="0">
-        <v>4000</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -3045,31 +2397,31 @@
         <v>11788</v>
       </c>
       <c r="C39" s="0">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="0">
-        <v>4000</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -3080,31 +2432,31 @@
         <v>11789</v>
       </c>
       <c r="C40" s="0">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -3115,28 +2467,28 @@
         <v>11790</v>
       </c>
       <c r="C41" s="0">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="J41" s="0">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0">
         <v>4550</v>
@@ -3150,31 +2502,31 @@
         <v>11791</v>
       </c>
       <c r="C42" s="0">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="0">
         <v>0</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -3185,28 +2537,28 @@
         <v>11792</v>
       </c>
       <c r="C43" s="0">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J43" s="0">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="0">
         <v>17680</v>
@@ -3220,31 +2572,31 @@
         <v>11793</v>
       </c>
       <c r="C44" s="0">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="0">
-        <v>6000</v>
+        <v>12</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -3255,31 +2607,31 @@
         <v>11794</v>
       </c>
       <c r="C45" s="0">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -3290,31 +2642,31 @@
         <v>11795</v>
       </c>
       <c r="C46" s="0">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -3325,31 +2677,31 @@
         <v>11796</v>
       </c>
       <c r="C47" s="0">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="0">
-        <v>10000</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -3360,31 +2712,31 @@
         <v>11797</v>
       </c>
       <c r="C48" s="0">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -3395,31 +2747,31 @@
         <v>11798</v>
       </c>
       <c r="C49" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="0">
         <v>0</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -3430,31 +2782,31 @@
         <v>11799</v>
       </c>
       <c r="C50" s="0">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -3465,31 +2817,31 @@
         <v>11800</v>
       </c>
       <c r="C51" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -3500,31 +2852,31 @@
         <v>11801</v>
       </c>
       <c r="C52" s="0">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="0">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="0">
         <v>0</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -3535,31 +2887,31 @@
         <v>11802</v>
       </c>
       <c r="C53" s="0">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -3570,31 +2922,31 @@
         <v>11803</v>
       </c>
       <c r="C54" s="0">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -3605,31 +2957,31 @@
         <v>11804</v>
       </c>
       <c r="C55" s="0">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -3640,31 +2992,31 @@
         <v>11805</v>
       </c>
       <c r="C56" s="0">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3675,31 +3027,31 @@
         <v>11806</v>
       </c>
       <c r="C57" s="0">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57" s="0">
         <v>0</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3710,31 +3062,31 @@
         <v>11807</v>
       </c>
       <c r="C58" s="0">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3745,31 +3097,31 @@
         <v>11808</v>
       </c>
       <c r="C59" s="0">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" s="0">
         <v>0</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -3780,31 +3132,31 @@
         <v>11809</v>
       </c>
       <c r="C60" s="0">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -3815,31 +3167,31 @@
         <v>11810</v>
       </c>
       <c r="C61" s="0">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61" s="0">
         <v>0</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3850,31 +3202,31 @@
         <v>11811</v>
       </c>
       <c r="C62" s="0">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -3885,28 +3237,28 @@
         <v>11812</v>
       </c>
       <c r="C63" s="0">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="J63" s="0">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="K63" s="0">
         <v>4680</v>
@@ -3920,28 +3272,28 @@
         <v>11813</v>
       </c>
       <c r="C64" s="0">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="J64" s="0">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K64" s="0">
         <v>20800</v>
@@ -3955,31 +3307,31 @@
         <v>11814</v>
       </c>
       <c r="C65" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J65" s="0">
         <v>0</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3990,28 +3342,28 @@
         <v>11815</v>
       </c>
       <c r="C66" s="0">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="J66" s="0">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="K66" s="0">
         <v>28080</v>
@@ -4025,31 +3377,31 @@
         <v>11816</v>
       </c>
       <c r="C67" s="0">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -4060,31 +3412,31 @@
         <v>11817</v>
       </c>
       <c r="C68" s="0">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -4095,31 +3447,31 @@
         <v>11818</v>
       </c>
       <c r="C69" s="0">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E69" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69" s="0">
         <v>0</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -4130,31 +3482,31 @@
         <v>11819</v>
       </c>
       <c r="C70" s="0">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" s="0">
         <v>0</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -4165,28 +3517,28 @@
         <v>11820</v>
       </c>
       <c r="C71" s="0">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="J71" s="0">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="K71" s="0">
         <v>9750</v>
@@ -4200,31 +3552,31 @@
         <v>11821</v>
       </c>
       <c r="C72" s="0">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" s="0">
         <v>0</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -4235,28 +3587,28 @@
         <v>11822</v>
       </c>
       <c r="C73" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="J73" s="0">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="K73" s="0">
         <v>24700</v>
@@ -4270,31 +3622,31 @@
         <v>11823</v>
       </c>
       <c r="C74" s="0">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74" s="0">
         <v>0</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -4305,28 +3657,28 @@
         <v>11824</v>
       </c>
       <c r="C75" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="J75" s="0">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="K75" s="0">
         <v>16640</v>
@@ -4340,31 +3692,31 @@
         <v>11825</v>
       </c>
       <c r="C76" s="0">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E76" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" s="0">
         <v>0</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -4375,31 +3727,31 @@
         <v>11826</v>
       </c>
       <c r="C77" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" s="0">
         <v>0</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -4410,31 +3762,31 @@
         <v>11827</v>
       </c>
       <c r="C78" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="E78" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78" s="0">
         <v>0</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4445,31 +3797,31 @@
         <v>11828</v>
       </c>
       <c r="C79" s="0">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" s="0">
         <v>0</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -4480,31 +3832,31 @@
         <v>11829</v>
       </c>
       <c r="C80" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80" s="0">
         <v>0</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -4515,28 +3867,28 @@
         <v>11830</v>
       </c>
       <c r="C81" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="0">
-        <v>300</v>
+        <v>12</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="J81" s="0">
-        <v>89.7</v>
+        <v>0</v>
       </c>
       <c r="K81" s="0">
         <v>44850</v>
@@ -4550,28 +3902,28 @@
         <v>11831</v>
       </c>
       <c r="C82" s="0">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="0">
-        <v>300</v>
+        <v>12</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="J82" s="0">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="K82" s="0">
         <v>29900</v>
@@ -4585,31 +3937,31 @@
         <v>11832</v>
       </c>
       <c r="C83" s="0">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J83" s="0">
         <v>0</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4620,31 +3972,31 @@
         <v>11833</v>
       </c>
       <c r="C84" s="0">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E84" s="0">
-        <v>10000</v>
+        <v>12</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84" s="0">
         <v>0</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -4655,31 +4007,31 @@
         <v>11834</v>
       </c>
       <c r="C85" s="0">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J85" s="0">
         <v>0</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -4690,31 +4042,31 @@
         <v>11835</v>
       </c>
       <c r="C86" s="0">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86" s="0">
         <v>0</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -4725,31 +4077,31 @@
         <v>11836</v>
       </c>
       <c r="C87" s="0">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J87" s="0">
         <v>0</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -4760,31 +4112,31 @@
         <v>11837</v>
       </c>
       <c r="C88" s="0">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J88" s="0">
         <v>0</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -4795,31 +4147,31 @@
         <v>11838</v>
       </c>
       <c r="C89" s="0">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="E89" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" s="0">
         <v>0</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4830,31 +4182,31 @@
         <v>11839</v>
       </c>
       <c r="C90" s="0">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J90" s="0">
         <v>0</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -4865,31 +4217,31 @@
         <v>11840</v>
       </c>
       <c r="C91" s="0">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J91" s="0">
         <v>0</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -4900,28 +4252,28 @@
         <v>11841</v>
       </c>
       <c r="C92" s="0">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="J92" s="0">
-        <v>7.15</v>
+        <v>0</v>
       </c>
       <c r="K92" s="0">
         <v>4290</v>
@@ -4935,31 +4287,31 @@
         <v>11842</v>
       </c>
       <c r="C93" s="0">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E93" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J93" s="0">
         <v>0</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -4970,28 +4322,28 @@
         <v>11843</v>
       </c>
       <c r="C94" s="0">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E94" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="J94" s="0">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="K94" s="0">
         <v>1482</v>
@@ -5005,31 +4357,31 @@
         <v>11844</v>
       </c>
       <c r="C95" s="0">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J95" s="0">
         <v>0</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -5040,31 +4392,31 @@
         <v>11845</v>
       </c>
       <c r="C96" s="0">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J96" s="0">
         <v>0</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -5075,31 +4427,31 @@
         <v>11846</v>
       </c>
       <c r="C97" s="0">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J97" s="0">
         <v>0</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -5110,31 +4462,31 @@
         <v>11847</v>
       </c>
       <c r="C98" s="0">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E98" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" s="0">
         <v>0</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -5145,31 +4497,31 @@
         <v>11848</v>
       </c>
       <c r="C99" s="0">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E99" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J99" s="0">
         <v>0</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -5180,28 +4532,28 @@
         <v>11849</v>
       </c>
       <c r="C100" s="0">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="J100" s="0">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="K100" s="0">
         <v>2852</v>
@@ -5215,31 +4567,31 @@
         <v>11850</v>
       </c>
       <c r="C101" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E101" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101" s="0">
         <v>0</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -5250,31 +4602,31 @@
         <v>11851</v>
       </c>
       <c r="C102" s="0">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E102" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" s="0">
         <v>0</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -5285,28 +4637,28 @@
         <v>11852</v>
       </c>
       <c r="C103" s="0">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E103" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="J103" s="0">
-        <v>11.57</v>
+        <v>0</v>
       </c>
       <c r="K103" s="0">
         <v>11570</v>
@@ -5320,31 +4672,31 @@
         <v>11853</v>
       </c>
       <c r="C104" s="0">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J104" s="0">
         <v>0</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -5355,31 +4707,31 @@
         <v>11854</v>
       </c>
       <c r="C105" s="0">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E105" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105" s="0">
         <v>0</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -5390,31 +4742,31 @@
         <v>11855</v>
       </c>
       <c r="C106" s="0">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E106" s="0">
-        <v>10000</v>
+        <v>12</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J106" s="0">
         <v>0</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -5425,28 +4777,28 @@
         <v>11856</v>
       </c>
       <c r="C107" s="0">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="J107" s="0">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="K107" s="0">
         <v>10192</v>
@@ -5460,28 +4812,28 @@
         <v>11857</v>
       </c>
       <c r="C108" s="0">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="E108" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="J108" s="0">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="K108" s="0">
         <v>9090</v>
@@ -5495,31 +4847,31 @@
         <v>11858</v>
       </c>
       <c r="C109" s="0">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E109" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J109" s="0">
         <v>0</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -5530,31 +4882,31 @@
         <v>11859</v>
       </c>
       <c r="C110" s="0">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E110" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J110" s="0">
         <v>0</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
@@ -5565,31 +4917,31 @@
         <v>11860</v>
       </c>
       <c r="C111" s="0">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E111" s="0">
-        <v>15000</v>
+        <v>12</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J111" s="0">
         <v>0</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -5600,31 +4952,31 @@
         <v>11861</v>
       </c>
       <c r="C112" s="0">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J112" s="0">
         <v>0</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -5635,31 +4987,31 @@
         <v>11862</v>
       </c>
       <c r="C113" s="0">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E113" s="0">
-        <v>4000</v>
+        <v>12</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J113" s="0">
         <v>0</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -5670,31 +5022,31 @@
         <v>11863</v>
       </c>
       <c r="C114" s="0">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E114" s="0">
-        <v>8000</v>
+        <v>12</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J114" s="0">
         <v>0</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
@@ -5705,31 +5057,31 @@
         <v>11864</v>
       </c>
       <c r="C115" s="0">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E115" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J115" s="0">
         <v>0</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -5740,31 +5092,31 @@
         <v>11865</v>
       </c>
       <c r="C116" s="0">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E116" s="0">
-        <v>10000</v>
+        <v>12</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J116" s="0">
         <v>0</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -5775,31 +5127,31 @@
         <v>11866</v>
       </c>
       <c r="C117" s="0">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E117" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J117" s="0">
         <v>0</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -5810,31 +5162,31 @@
         <v>11867</v>
       </c>
       <c r="C118" s="0">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="E118" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J118" s="0">
         <v>0</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -5845,31 +5197,31 @@
         <v>11868</v>
       </c>
       <c r="C119" s="0">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J119" s="0">
         <v>0</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -5880,31 +5232,31 @@
         <v>11869</v>
       </c>
       <c r="C120" s="0">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E120" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J120" s="0">
         <v>0</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -5915,31 +5267,31 @@
         <v>11870</v>
       </c>
       <c r="C121" s="0">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="E121" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J121" s="0">
         <v>0</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -5950,31 +5302,31 @@
         <v>11871</v>
       </c>
       <c r="C122" s="0">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E122" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J122" s="0">
         <v>0</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -5985,28 +5337,28 @@
         <v>11872</v>
       </c>
       <c r="C123" s="0">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="E123" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="J123" s="0">
-        <v>8.97</v>
+        <v>0</v>
       </c>
       <c r="K123" s="0">
         <v>5382</v>
@@ -6020,31 +5372,31 @@
         <v>11873</v>
       </c>
       <c r="C124" s="0">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J124" s="0">
         <v>0</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -6055,31 +5407,31 @@
         <v>11874</v>
       </c>
       <c r="C125" s="0">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E125" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J125" s="0">
         <v>0</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -6090,31 +5442,31 @@
         <v>11875</v>
       </c>
       <c r="C126" s="0">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E126" s="0">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J126" s="0">
         <v>0</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -6125,31 +5477,31 @@
         <v>11876</v>
       </c>
       <c r="C127" s="0">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E127" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J127" s="0">
         <v>0</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
@@ -6160,31 +5512,31 @@
         <v>11877</v>
       </c>
       <c r="C128" s="0">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="E128" s="0">
-        <v>10000</v>
+        <v>12</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J128" s="0">
         <v>0</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
@@ -6195,31 +5547,31 @@
         <v>11878</v>
       </c>
       <c r="C129" s="0">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E129" s="0">
-        <v>3000</v>
+        <v>12</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J129" s="0">
         <v>0</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
@@ -6230,31 +5582,31 @@
         <v>11879</v>
       </c>
       <c r="C130" s="0">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E130" s="0">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J130" s="0">
         <v>0</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
@@ -6265,31 +5617,31 @@
         <v>11880</v>
       </c>
       <c r="C131" s="0">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="E131" s="0">
-        <v>1500</v>
+        <v>12</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J131" s="0">
         <v>0</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -6300,31 +5652,31 @@
         <v>11881</v>
       </c>
       <c r="C132" s="0">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E132" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J132" s="0">
         <v>0</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -6335,31 +5687,31 @@
         <v>11882</v>
       </c>
       <c r="C133" s="0">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E133" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J133" s="0">
         <v>0</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -6370,28 +5722,28 @@
         <v>11883</v>
       </c>
       <c r="C134" s="0">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E134" s="0">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="J134" s="0">
-        <v>12.09</v>
+        <v>0</v>
       </c>
       <c r="K134" s="0">
         <v>36270</v>
@@ -6405,31 +5757,31 @@
         <v>11884</v>
       </c>
       <c r="C135" s="0">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="E135" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J135" s="0">
         <v>0</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -6440,28 +5792,28 @@
         <v>11885</v>
       </c>
       <c r="C136" s="0">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="E136" s="0">
-        <v>300</v>
+        <v>12</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="J136" s="0">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="K136" s="0">
         <v>15080</v>
@@ -6475,31 +5827,31 @@
         <v>11886</v>
       </c>
       <c r="C137" s="0">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E137" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J137" s="0">
         <v>0</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
@@ -6510,31 +5862,31 @@
         <v>11887</v>
       </c>
       <c r="C138" s="0">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E138" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J138" s="0">
         <v>0</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
@@ -6545,31 +5897,31 @@
         <v>11888</v>
       </c>
       <c r="C139" s="0">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="E139" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J139" s="0">
         <v>0</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
@@ -6580,31 +5932,31 @@
         <v>11889</v>
       </c>
       <c r="C140" s="0">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="E140" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J140" s="0">
         <v>0</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -6615,31 +5967,31 @@
         <v>11890</v>
       </c>
       <c r="C141" s="0">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E141" s="0">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J141" s="0">
         <v>0</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -6650,28 +6002,28 @@
         <v>11891</v>
       </c>
       <c r="C142" s="0">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="E142" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="J142" s="0">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="K142" s="0">
         <v>21840</v>
@@ -6685,28 +6037,28 @@
         <v>11892</v>
       </c>
       <c r="C143" s="0">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="E143" s="0">
-        <v>300</v>
+        <v>12</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="J143" s="0">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="K143" s="0">
         <v>7780</v>
@@ -6720,28 +6072,28 @@
         <v>11893</v>
       </c>
       <c r="C144" s="0">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="E144" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="J144" s="0">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="K144" s="0">
         <v>4160</v>
@@ -6755,28 +6107,28 @@
         <v>11894</v>
       </c>
       <c r="C145" s="0">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E145" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="J145" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K145" s="0">
         <v>4000</v>
@@ -6790,28 +6142,28 @@
         <v>11895</v>
       </c>
       <c r="C146" s="0">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="E146" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="J146" s="0">
-        <v>14.82</v>
+        <v>0</v>
       </c>
       <c r="K146" s="0">
         <v>2964</v>
@@ -6825,31 +6177,31 @@
         <v>11896</v>
       </c>
       <c r="C147" s="0">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="E147" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J147" s="0">
         <v>0</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
@@ -6860,31 +6212,31 @@
         <v>11897</v>
       </c>
       <c r="C148" s="0">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="E148" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J148" s="0">
         <v>0</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -6895,31 +6247,31 @@
         <v>11898</v>
       </c>
       <c r="C149" s="0">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="E149" s="0">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J149" s="0">
         <v>0</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -6930,31 +6282,31 @@
         <v>11899</v>
       </c>
       <c r="C150" s="0">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="E150" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J150" s="0">
         <v>0</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -6965,31 +6317,31 @@
         <v>11900</v>
       </c>
       <c r="C151" s="0">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J151" s="0">
         <v>0</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -7000,31 +6352,31 @@
         <v>11901</v>
       </c>
       <c r="C152" s="0">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E152" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J152" s="0">
         <v>0</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -7035,31 +6387,31 @@
         <v>11902</v>
       </c>
       <c r="C153" s="0">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="E153" s="0">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J153" s="0">
         <v>0</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
@@ -7070,31 +6422,31 @@
         <v>11903</v>
       </c>
       <c r="C154" s="0">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E154" s="0">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J154" s="0">
         <v>0</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -7105,28 +6457,28 @@
         <v>11904</v>
       </c>
       <c r="C155" s="0">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="E155" s="0">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="J155" s="0">
-        <v>12.35</v>
+        <v>0</v>
       </c>
       <c r="K155" s="0">
         <v>4940</v>
@@ -7140,28 +6492,28 @@
         <v>11905</v>
       </c>
       <c r="C156" s="0">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E156" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="J156" s="0">
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="K156" s="0">
         <v>83200</v>
@@ -7175,28 +6527,28 @@
         <v>11906</v>
       </c>
       <c r="C157" s="0">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="E157" s="0">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="J157" s="0">
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="K157" s="0">
         <v>56160</v>
@@ -7210,28 +6562,28 @@
         <v>11907</v>
       </c>
       <c r="C158" s="0">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E158" s="0">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="J158" s="0">
-        <v>9.88</v>
+        <v>0</v>
       </c>
       <c r="K158" s="0">
         <v>79040</v>
@@ -7245,28 +6597,28 @@
         <v>11908</v>
       </c>
       <c r="C159" s="0">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E159" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="J159" s="0">
-        <v>14.17</v>
+        <v>0</v>
       </c>
       <c r="K159" s="0">
         <v>28340</v>
@@ -7280,28 +6632,28 @@
         <v>11909</v>
       </c>
       <c r="C160" s="0">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="E160" s="0">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="J160" s="0">
-        <v>12.87</v>
+        <v>0</v>
       </c>
       <c r="K160" s="0">
         <v>12870</v>
@@ -7315,31 +6667,31 @@
         <v>11910</v>
       </c>
       <c r="C161" s="0">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="E161" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J161" s="0">
         <v>0</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
@@ -7350,31 +6702,31 @@
         <v>11911</v>
       </c>
       <c r="C162" s="0">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="E162" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162" s="0">
         <v>0</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163">
@@ -7385,28 +6737,28 @@
         <v>11912</v>
       </c>
       <c r="C163" s="0">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E163" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="J163" s="0">
-        <v>12.87</v>
+        <v>0</v>
       </c>
       <c r="K163" s="0">
         <v>19305</v>
@@ -7420,28 +6772,28 @@
         <v>11913</v>
       </c>
       <c r="C164" s="0">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E164" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="J164" s="0">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="K164" s="0">
         <v>3016</v>
@@ -7455,31 +6807,31 @@
         <v>11914</v>
       </c>
       <c r="C165" s="0">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E165" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J165" s="0">
         <v>0</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -7490,31 +6842,31 @@
         <v>11915</v>
       </c>
       <c r="C166" s="0">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="E166" s="0">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J166" s="0">
         <v>0</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
@@ -7525,31 +6877,31 @@
         <v>11916</v>
       </c>
       <c r="C167" s="0">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E167" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J167" s="0">
         <v>0</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -7560,31 +6912,31 @@
         <v>11917</v>
       </c>
       <c r="C168" s="0">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E168" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J168" s="0">
         <v>0</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
@@ -7595,31 +6947,31 @@
         <v>11918</v>
       </c>
       <c r="C169" s="0">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="E169" s="0">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J169" s="0">
         <v>0</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -7630,28 +6982,28 @@
         <v>11919</v>
       </c>
       <c r="C170" s="0">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="E170" s="0">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="J170" s="0">
-        <v>21.48</v>
+        <v>0</v>
       </c>
       <c r="K170" s="0">
         <v>2148</v>
@@ -7665,31 +7017,31 @@
         <v>11920</v>
       </c>
       <c r="C171" s="0">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E171" s="0">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J171" s="0">
         <v>0</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -7700,28 +7052,28 @@
         <v>11921</v>
       </c>
       <c r="C172" s="0">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E172" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="J172" s="0">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="K172" s="0">
         <v>23400</v>
@@ -7735,31 +7087,31 @@
         <v>11922</v>
       </c>
       <c r="C173" s="0">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E173" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J173" s="0">
         <v>0</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -7770,28 +7122,28 @@
         <v>11923</v>
       </c>
       <c r="C174" s="0">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="E174" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="J174" s="0">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K174" s="0">
         <v>13000</v>
@@ -7805,31 +7157,31 @@
         <v>11924</v>
       </c>
       <c r="C175" s="0">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E175" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J175" s="0">
         <v>0</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
@@ -7840,31 +7192,31 @@
         <v>11925</v>
       </c>
       <c r="C176" s="0">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E176" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J176" s="0">
         <v>0</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -7875,31 +7227,31 @@
         <v>11926</v>
       </c>
       <c r="C177" s="0">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="E177" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J177" s="0">
         <v>0</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
@@ -7910,31 +7262,31 @@
         <v>11927</v>
       </c>
       <c r="C178" s="0">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="E178" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J178" s="0">
         <v>0</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -7945,31 +7297,31 @@
         <v>11928</v>
       </c>
       <c r="C179" s="0">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="E179" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J179" s="0">
         <v>0</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180">
@@ -7980,31 +7332,31 @@
         <v>11929</v>
       </c>
       <c r="C180" s="0">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="E180" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J180" s="0">
         <v>0</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -8015,31 +7367,31 @@
         <v>11930</v>
       </c>
       <c r="C181" s="0">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E181" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J181" s="0">
         <v>0</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
@@ -8050,31 +7402,31 @@
         <v>11931</v>
       </c>
       <c r="C182" s="0">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E182" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J182" s="0">
         <v>0</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -8085,28 +7437,28 @@
         <v>11932</v>
       </c>
       <c r="C183" s="0">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E183" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="J183" s="0">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="K183" s="0">
         <v>2080</v>
@@ -8120,31 +7472,31 @@
         <v>11933</v>
       </c>
       <c r="C184" s="0">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="E184" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J184" s="0">
         <v>0</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -8155,28 +7507,28 @@
         <v>11934</v>
       </c>
       <c r="C185" s="0">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E185" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="J185" s="0">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="K185" s="0">
         <v>18720</v>
@@ -8190,31 +7542,31 @@
         <v>11935</v>
       </c>
       <c r="C186" s="0">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="E186" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J186" s="0">
         <v>0</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
@@ -8225,31 +7577,31 @@
         <v>11936</v>
       </c>
       <c r="C187" s="0">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E187" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J187" s="0">
         <v>0</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -8260,31 +7612,31 @@
         <v>11937</v>
       </c>
       <c r="C188" s="0">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E188" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J188" s="0">
         <v>0</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189">
@@ -8295,31 +7647,31 @@
         <v>11938</v>
       </c>
       <c r="C189" s="0">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E189" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J189" s="0">
         <v>0</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -8330,31 +7682,31 @@
         <v>11939</v>
       </c>
       <c r="C190" s="0">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E190" s="0">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J190" s="0">
         <v>0</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -8365,28 +7717,28 @@
         <v>11940</v>
       </c>
       <c r="C191" s="0">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E191" s="0">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="J191" s="0">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="K191" s="0">
         <v>1716</v>
@@ -8400,28 +7752,28 @@
         <v>11941</v>
       </c>
       <c r="C192" s="0">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E192" s="0">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="J192" s="0">
-        <v>7.67</v>
+        <v>0</v>
       </c>
       <c r="K192" s="0">
         <v>7670</v>
@@ -8435,31 +7787,31 @@
         <v>11942</v>
       </c>
       <c r="C193" s="0">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="E193" s="0">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J193" s="0">
         <v>0</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -8470,31 +7822,31 @@
         <v>11943</v>
       </c>
       <c r="C194" s="0">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="E194" s="0">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J194" s="0">
         <v>0</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -8505,31 +7857,31 @@
         <v>11944</v>
       </c>
       <c r="C195" s="0">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="E195" s="0">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J195" s="0">
         <v>0</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196">
@@ -8540,28 +7892,28 @@
         <v>11945</v>
       </c>
       <c r="C196" s="0">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="E196" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="J196" s="0">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="K196" s="0">
         <v>11700</v>
@@ -8575,31 +7927,31 @@
         <v>11946</v>
       </c>
       <c r="C197" s="0">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="E197" s="0">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J197" s="0">
         <v>0</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -8610,31 +7962,31 @@
         <v>11947</v>
       </c>
       <c r="C198" s="0">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="E198" s="0">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J198" s="0">
         <v>0</v>
       </c>
       <c r="K198" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -8645,31 +7997,31 @@
         <v>11948</v>
       </c>
       <c r="C199" s="0">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="E199" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J199" s="0">
         <v>0</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -8680,31 +8032,31 @@
         <v>11949</v>
       </c>
       <c r="C200" s="0">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="E200" s="0">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J200" s="0">
         <v>0</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
